--- a/ui-testsuite/src/main/resources/TestData/ATR_Valid_EMEA_CheckMatchRegionFields.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/ATR_Valid_EMEA_CheckMatchRegionFields.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5871" uniqueCount="1127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6556" uniqueCount="1127">
   <si>
     <t>IB TYPE</t>
   </si>
@@ -3920,8 +3920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FF91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="BF1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3946,7 +3946,7 @@
     <col min="32" max="32" width="12.42578125" customWidth="1"/>
     <col min="33" max="33" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="36" max="37" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -3970,6 +3970,8 @@
     <col min="81" max="81" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="82" max="82" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="83" max="83" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="84" max="85" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="87" max="87" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="89" max="89" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -4607,7 +4609,9 @@
       <c r="CJ2" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="CK2" s="16"/>
+      <c r="CK2" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP2" s="18"/>
       <c r="CQ2" s="19">
         <v>70822.5</v>
@@ -4787,7 +4791,9 @@
       <c r="CJ3" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="CK3" s="16"/>
+      <c r="CK3" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP3" s="18"/>
       <c r="CQ3" s="19">
         <v>5997.6</v>
@@ -4967,7 +4973,9 @@
       <c r="CJ4" s="15" t="s">
         <v>397</v>
       </c>
-      <c r="CK4" s="16"/>
+      <c r="CK4" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP4" s="18"/>
       <c r="CQ4" s="19">
         <v>13000</v>
@@ -11984,6 +11992,9 @@
         <v>166</v>
       </c>
       <c r="BS30" s="17"/>
+      <c r="BT30" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU30" s="32"/>
       <c r="BV30">
         <v>8</v>
@@ -12021,13 +12032,18 @@
       <c r="CG30" t="s">
         <v>420</v>
       </c>
+      <c r="CH30" t="s">
+        <v>420</v>
+      </c>
       <c r="CI30" t="s">
         <v>402</v>
       </c>
       <c r="CJ30" t="s">
         <v>403</v>
       </c>
-      <c r="CK30" s="16"/>
+      <c r="CK30" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP30" s="18"/>
       <c r="CQ30" s="35">
         <v>1921.0526315789475</v>
@@ -12047,19 +12063,45 @@
       <c r="DA30" s="16"/>
       <c r="DB30" s="16"/>
       <c r="DC30" s="16"/>
-      <c r="DD30" s="17"/>
-      <c r="DE30" s="17"/>
-      <c r="DF30" s="16"/>
+      <c r="DD30" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE30" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF30" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG30" s="20"/>
       <c r="DH30" s="20"/>
       <c r="DI30" s="16"/>
       <c r="DJ30" s="16"/>
-      <c r="DK30" s="16"/>
+      <c r="DK30" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL30" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM30" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN30" s="17" t="s">
         <v>421</v>
+      </c>
+      <c r="DP30" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ30" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR30" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS30" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU30" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH30" s="21"/>
       <c r="EW30" s="17"/>
@@ -12239,6 +12281,9 @@
         <v>166</v>
       </c>
       <c r="BS31" s="17"/>
+      <c r="BT31" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU31" s="32"/>
       <c r="BV31">
         <v>10</v>
@@ -12276,13 +12321,18 @@
       <c r="CG31" t="s">
         <v>420</v>
       </c>
+      <c r="CH31" t="s">
+        <v>420</v>
+      </c>
       <c r="CI31" t="s">
         <v>430</v>
       </c>
       <c r="CJ31" t="s">
         <v>428</v>
       </c>
-      <c r="CK31" s="16"/>
+      <c r="CK31" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP31" s="18"/>
       <c r="CQ31" s="35">
         <v>5564.16</v>
@@ -12302,19 +12352,45 @@
       <c r="DA31" s="16"/>
       <c r="DB31" s="16"/>
       <c r="DC31" s="16"/>
-      <c r="DD31" s="17"/>
-      <c r="DE31" s="17"/>
-      <c r="DF31" s="16"/>
+      <c r="DD31" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE31" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF31" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG31" s="20"/>
       <c r="DH31" s="20"/>
       <c r="DI31" s="16"/>
       <c r="DJ31" s="16"/>
-      <c r="DK31" s="16"/>
+      <c r="DK31" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL31" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM31" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN31" s="17" t="s">
         <v>421</v>
+      </c>
+      <c r="DP31" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ31" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR31" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS31" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU31" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH31" s="21"/>
       <c r="EW31" s="17"/>
@@ -12496,6 +12572,9 @@
         <v>166</v>
       </c>
       <c r="BS32" s="17"/>
+      <c r="BT32" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU32" s="32"/>
       <c r="BV32">
         <v>9</v>
@@ -12533,13 +12612,18 @@
       <c r="CG32" t="s">
         <v>420</v>
       </c>
+      <c r="CH32" t="s">
+        <v>420</v>
+      </c>
       <c r="CI32" t="s">
         <v>447</v>
       </c>
       <c r="CJ32" t="s">
         <v>448</v>
       </c>
-      <c r="CK32" s="16"/>
+      <c r="CK32" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP32" s="18"/>
       <c r="CQ32" s="35">
         <v>6084</v>
@@ -12559,19 +12643,45 @@
       <c r="DA32" s="16"/>
       <c r="DB32" s="16"/>
       <c r="DC32" s="16"/>
-      <c r="DD32" s="17"/>
-      <c r="DE32" s="17"/>
-      <c r="DF32" s="16"/>
+      <c r="DD32" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE32" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF32" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG32" s="20"/>
       <c r="DH32" s="20"/>
       <c r="DI32" s="16"/>
       <c r="DJ32" s="16"/>
-      <c r="DK32" s="16"/>
+      <c r="DK32" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL32" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM32" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN32" s="17" t="s">
         <v>421</v>
+      </c>
+      <c r="DP32" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ32" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR32" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS32" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU32" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH32" s="21"/>
       <c r="EW32" s="17"/>
@@ -12751,6 +12861,9 @@
         <v>166</v>
       </c>
       <c r="BS33" s="17"/>
+      <c r="BT33" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU33" s="32"/>
       <c r="BV33">
         <v>8</v>
@@ -12788,13 +12901,18 @@
       <c r="CG33" t="s">
         <v>420</v>
       </c>
+      <c r="CH33" t="s">
+        <v>420</v>
+      </c>
       <c r="CI33" t="s">
         <v>402</v>
       </c>
       <c r="CJ33" t="s">
         <v>403</v>
       </c>
-      <c r="CK33" s="16"/>
+      <c r="CK33" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP33" s="18"/>
       <c r="CQ33" s="35">
         <v>9078.0062500000004</v>
@@ -12814,19 +12932,45 @@
       <c r="DA33" s="16"/>
       <c r="DB33" s="16"/>
       <c r="DC33" s="16"/>
-      <c r="DD33" s="17"/>
-      <c r="DE33" s="17"/>
-      <c r="DF33" s="16"/>
+      <c r="DD33" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE33" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF33" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG33" s="20"/>
       <c r="DH33" s="20"/>
       <c r="DI33" s="16"/>
       <c r="DJ33" s="16"/>
-      <c r="DK33" s="16"/>
+      <c r="DK33" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL33" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM33" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN33" s="17" t="s">
         <v>421</v>
+      </c>
+      <c r="DP33" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ33" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR33" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS33" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU33" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH33" s="21"/>
       <c r="EW33" s="17"/>
@@ -13006,6 +13150,9 @@
         <v>166</v>
       </c>
       <c r="BS34" s="17"/>
+      <c r="BT34" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU34" s="32"/>
       <c r="BV34">
         <v>8</v>
@@ -13043,13 +13190,18 @@
       <c r="CG34" t="s">
         <v>420</v>
       </c>
+      <c r="CH34" t="s">
+        <v>420</v>
+      </c>
       <c r="CI34" t="s">
         <v>471</v>
       </c>
       <c r="CJ34" t="s">
         <v>472</v>
       </c>
-      <c r="CK34" s="16"/>
+      <c r="CK34" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP34" s="18"/>
       <c r="CQ34" s="35">
         <v>15053.929553264605</v>
@@ -13069,19 +13221,45 @@
       <c r="DA34" s="16"/>
       <c r="DB34" s="16"/>
       <c r="DC34" s="16"/>
-      <c r="DD34" s="17"/>
-      <c r="DE34" s="17"/>
-      <c r="DF34" s="16"/>
+      <c r="DD34" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE34" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF34" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG34" s="20"/>
       <c r="DH34" s="20"/>
       <c r="DI34" s="16"/>
       <c r="DJ34" s="16"/>
-      <c r="DK34" s="16"/>
+      <c r="DK34" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL34" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM34" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN34" s="17" t="s">
         <v>421</v>
+      </c>
+      <c r="DP34" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ34" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR34" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS34" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU34" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH34" s="21"/>
       <c r="EW34" s="17"/>
@@ -13263,6 +13441,9 @@
         <v>166</v>
       </c>
       <c r="BS35" s="17"/>
+      <c r="BT35" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU35" s="32"/>
       <c r="BV35">
         <v>9</v>
@@ -13300,13 +13481,18 @@
       <c r="CG35" t="s">
         <v>420</v>
       </c>
+      <c r="CH35" t="s">
+        <v>420</v>
+      </c>
       <c r="CI35" t="s">
         <v>447</v>
       </c>
       <c r="CJ35" t="s">
         <v>448</v>
       </c>
-      <c r="CK35" s="16"/>
+      <c r="CK35" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP35" s="18"/>
       <c r="CQ35" s="35">
         <v>24882.720000000001</v>
@@ -13326,19 +13512,45 @@
       <c r="DA35" s="16"/>
       <c r="DB35" s="16"/>
       <c r="DC35" s="16"/>
-      <c r="DD35" s="17"/>
-      <c r="DE35" s="17"/>
-      <c r="DF35" s="16"/>
+      <c r="DD35" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE35" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF35" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG35" s="20"/>
       <c r="DH35" s="20"/>
       <c r="DI35" s="16"/>
       <c r="DJ35" s="16"/>
-      <c r="DK35" s="16"/>
+      <c r="DK35" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL35" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM35" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN35" s="17" t="s">
         <v>421</v>
+      </c>
+      <c r="DP35" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ35" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR35" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS35" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU35" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH35" s="21"/>
       <c r="EW35" s="17"/>
@@ -13520,6 +13732,9 @@
         <v>166</v>
       </c>
       <c r="BS36" s="17"/>
+      <c r="BT36" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU36" s="32"/>
       <c r="BV36">
         <v>9</v>
@@ -13557,13 +13772,18 @@
       <c r="CG36" t="s">
         <v>420</v>
       </c>
+      <c r="CH36" t="s">
+        <v>420</v>
+      </c>
       <c r="CI36" t="s">
         <v>447</v>
       </c>
       <c r="CJ36" t="s">
         <v>448</v>
       </c>
-      <c r="CK36" s="16"/>
+      <c r="CK36" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP36" s="18"/>
       <c r="CQ36" s="35">
         <v>30016.799999999999</v>
@@ -13583,19 +13803,45 @@
       <c r="DA36" s="16"/>
       <c r="DB36" s="16"/>
       <c r="DC36" s="16"/>
-      <c r="DD36" s="17"/>
-      <c r="DE36" s="17"/>
-      <c r="DF36" s="16"/>
+      <c r="DD36" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE36" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF36" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG36" s="20"/>
       <c r="DH36" s="20"/>
       <c r="DI36" s="16"/>
       <c r="DJ36" s="16"/>
-      <c r="DK36" s="16"/>
+      <c r="DK36" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL36" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM36" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN36" s="17" t="s">
         <v>421</v>
+      </c>
+      <c r="DP36" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ36" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR36" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS36" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU36" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH36" s="21"/>
       <c r="EW36" s="17"/>
@@ -13777,6 +14023,9 @@
         <v>166</v>
       </c>
       <c r="BS37" s="17"/>
+      <c r="BT37" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU37" s="32"/>
       <c r="BV37">
         <v>9</v>
@@ -13814,13 +14063,18 @@
       <c r="CG37" t="s">
         <v>420</v>
       </c>
+      <c r="CH37" t="s">
+        <v>420</v>
+      </c>
       <c r="CI37" t="s">
         <v>447</v>
       </c>
       <c r="CJ37" t="s">
         <v>448</v>
       </c>
-      <c r="CK37" s="16"/>
+      <c r="CK37" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP37" s="18"/>
       <c r="CQ37" s="35">
         <v>33851.160000000003</v>
@@ -13840,19 +14094,45 @@
       <c r="DA37" s="16"/>
       <c r="DB37" s="16"/>
       <c r="DC37" s="16"/>
-      <c r="DD37" s="17"/>
-      <c r="DE37" s="17"/>
-      <c r="DF37" s="16"/>
+      <c r="DD37" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE37" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF37" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG37" s="20"/>
       <c r="DH37" s="20"/>
       <c r="DI37" s="16"/>
       <c r="DJ37" s="16"/>
-      <c r="DK37" s="16"/>
+      <c r="DK37" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL37" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM37" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN37" s="17" t="s">
         <v>421</v>
+      </c>
+      <c r="DP37" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ37" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR37" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS37" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU37" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH37" s="21"/>
       <c r="EW37" s="17"/>
@@ -14034,6 +14314,9 @@
         <v>166</v>
       </c>
       <c r="BS38" s="17"/>
+      <c r="BT38" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU38" s="32"/>
       <c r="BV38">
         <v>8</v>
@@ -14071,13 +14354,18 @@
       <c r="CG38" t="s">
         <v>420</v>
       </c>
+      <c r="CH38" t="s">
+        <v>420</v>
+      </c>
       <c r="CI38" t="s">
         <v>402</v>
       </c>
       <c r="CJ38" t="s">
         <v>403</v>
       </c>
-      <c r="CK38" s="16"/>
+      <c r="CK38" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP38" s="18"/>
       <c r="CQ38" s="35">
         <v>34230.648519736846</v>
@@ -14097,19 +14385,45 @@
       <c r="DA38" s="16"/>
       <c r="DB38" s="16"/>
       <c r="DC38" s="16"/>
-      <c r="DD38" s="17"/>
-      <c r="DE38" s="17"/>
-      <c r="DF38" s="16"/>
+      <c r="DD38" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE38" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF38" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG38" s="20"/>
       <c r="DH38" s="20"/>
       <c r="DI38" s="16"/>
       <c r="DJ38" s="16"/>
-      <c r="DK38" s="16"/>
+      <c r="DK38" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL38" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM38" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN38" s="17" t="s">
         <v>421</v>
+      </c>
+      <c r="DP38" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ38" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR38" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS38" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU38" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH38" s="21"/>
       <c r="EW38" s="17"/>
@@ -14289,6 +14603,9 @@
         <v>166</v>
       </c>
       <c r="BS39" s="17"/>
+      <c r="BT39" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU39" s="32"/>
       <c r="BV39">
         <v>8</v>
@@ -14326,13 +14643,18 @@
       <c r="CG39" t="s">
         <v>420</v>
       </c>
+      <c r="CH39" t="s">
+        <v>420</v>
+      </c>
       <c r="CI39" t="s">
         <v>402</v>
       </c>
       <c r="CJ39" t="s">
         <v>403</v>
       </c>
-      <c r="CK39" s="16"/>
+      <c r="CK39" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP39" s="18"/>
       <c r="CQ39" s="35">
         <v>77017.929605263169</v>
@@ -14352,19 +14674,45 @@
       <c r="DA39" s="16"/>
       <c r="DB39" s="16"/>
       <c r="DC39" s="16"/>
-      <c r="DD39" s="17"/>
-      <c r="DE39" s="17"/>
-      <c r="DF39" s="16"/>
+      <c r="DD39" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE39" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF39" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG39" s="20"/>
       <c r="DH39" s="20"/>
       <c r="DI39" s="16"/>
       <c r="DJ39" s="16"/>
-      <c r="DK39" s="16"/>
+      <c r="DK39" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL39" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM39" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN39" s="17" t="s">
         <v>421</v>
+      </c>
+      <c r="DP39" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ39" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR39" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS39" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU39" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH39" s="21"/>
       <c r="EW39" s="17"/>
@@ -14544,6 +14892,9 @@
         <v>166</v>
       </c>
       <c r="BS40" s="17"/>
+      <c r="BT40" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU40" s="32"/>
       <c r="BV40">
         <v>8</v>
@@ -14581,13 +14932,18 @@
       <c r="CG40" t="s">
         <v>420</v>
       </c>
+      <c r="CH40" t="s">
+        <v>420</v>
+      </c>
       <c r="CI40" t="s">
         <v>402</v>
       </c>
       <c r="CJ40" t="s">
         <v>403</v>
       </c>
-      <c r="CK40" s="16"/>
+      <c r="CK40" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP40" s="18"/>
       <c r="CQ40" s="35">
         <v>136419.03815789474</v>
@@ -14607,19 +14963,45 @@
       <c r="DA40" s="16"/>
       <c r="DB40" s="16"/>
       <c r="DC40" s="16"/>
-      <c r="DD40" s="17"/>
-      <c r="DE40" s="17"/>
-      <c r="DF40" s="16"/>
+      <c r="DD40" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE40" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF40" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG40" s="20"/>
       <c r="DH40" s="20"/>
       <c r="DI40" s="16"/>
       <c r="DJ40" s="16"/>
-      <c r="DK40" s="16"/>
+      <c r="DK40" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL40" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM40" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN40" s="17" t="s">
         <v>421</v>
+      </c>
+      <c r="DP40" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ40" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR40" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS40" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU40" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH40" s="21"/>
       <c r="EW40" s="17"/>
@@ -14799,6 +15181,9 @@
         <v>166</v>
       </c>
       <c r="BS41" s="17"/>
+      <c r="BT41" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU41" s="32"/>
       <c r="BV41">
         <v>10</v>
@@ -14836,13 +15221,18 @@
       <c r="CG41" t="s">
         <v>517</v>
       </c>
+      <c r="CH41" t="s">
+        <v>517</v>
+      </c>
       <c r="CI41" t="s">
         <v>502</v>
       </c>
       <c r="CJ41" t="s">
         <v>500</v>
       </c>
-      <c r="CK41" s="16"/>
+      <c r="CK41" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP41" s="18"/>
       <c r="CQ41" s="35">
         <v>10380.160722100656</v>
@@ -14862,19 +15252,45 @@
       <c r="DA41" s="16"/>
       <c r="DB41" s="16"/>
       <c r="DC41" s="16"/>
-      <c r="DD41" s="17"/>
-      <c r="DE41" s="17"/>
-      <c r="DF41" s="16"/>
+      <c r="DD41" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE41" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF41" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG41" s="20"/>
       <c r="DH41" s="20"/>
       <c r="DI41" s="16"/>
       <c r="DJ41" s="16"/>
-      <c r="DK41" s="16"/>
+      <c r="DK41" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL41" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM41" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN41" s="17" t="s">
         <v>421</v>
+      </c>
+      <c r="DP41" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ41" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR41" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS41" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU41" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH41" s="21"/>
       <c r="EW41" s="17"/>
@@ -15058,6 +15474,9 @@
         <v>166</v>
       </c>
       <c r="BS42" s="17"/>
+      <c r="BT42" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU42" s="32"/>
       <c r="BV42">
         <v>10</v>
@@ -15095,13 +15514,18 @@
       <c r="CG42" t="s">
         <v>517</v>
       </c>
+      <c r="CH42" t="s">
+        <v>517</v>
+      </c>
       <c r="CI42" t="s">
         <v>502</v>
       </c>
       <c r="CJ42" t="s">
         <v>500</v>
       </c>
-      <c r="CK42" s="16"/>
+      <c r="CK42" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP42" s="18"/>
       <c r="CQ42" s="35">
         <v>24125</v>
@@ -15121,19 +15545,45 @@
       <c r="DA42" s="16"/>
       <c r="DB42" s="16"/>
       <c r="DC42" s="16"/>
-      <c r="DD42" s="17"/>
-      <c r="DE42" s="17"/>
-      <c r="DF42" s="16"/>
+      <c r="DD42" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE42" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF42" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG42" s="20"/>
       <c r="DH42" s="20"/>
       <c r="DI42" s="16"/>
       <c r="DJ42" s="16"/>
-      <c r="DK42" s="16"/>
+      <c r="DK42" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL42" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM42" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN42" s="17" t="s">
         <v>421</v>
+      </c>
+      <c r="DP42" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ42" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR42" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS42" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU42" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH42" s="21"/>
       <c r="EW42" s="17"/>
@@ -15311,6 +15761,9 @@
         <v>166</v>
       </c>
       <c r="BS43" s="17"/>
+      <c r="BT43" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU43" s="32"/>
       <c r="BV43">
         <v>6</v>
@@ -15348,13 +15801,18 @@
       <c r="CG43" t="s">
         <v>517</v>
       </c>
+      <c r="CH43" t="s">
+        <v>517</v>
+      </c>
       <c r="CI43" t="s">
         <v>535</v>
       </c>
       <c r="CJ43" t="s">
         <v>536</v>
       </c>
-      <c r="CK43" s="16"/>
+      <c r="CK43" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP43" s="18"/>
       <c r="CQ43" s="35">
         <v>39015.692307692312</v>
@@ -15374,19 +15832,45 @@
       <c r="DA43" s="16"/>
       <c r="DB43" s="16"/>
       <c r="DC43" s="16"/>
-      <c r="DD43" s="17"/>
-      <c r="DE43" s="17"/>
-      <c r="DF43" s="16"/>
+      <c r="DD43" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE43" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF43" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG43" s="20"/>
       <c r="DH43" s="20"/>
       <c r="DI43" s="16"/>
       <c r="DJ43" s="16"/>
-      <c r="DK43" s="16"/>
+      <c r="DK43" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL43" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM43" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN43" s="17" t="s">
         <v>551</v>
+      </c>
+      <c r="DP43" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ43" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR43" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS43" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU43" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH43" s="21"/>
       <c r="EW43" s="17"/>
@@ -15570,6 +16054,9 @@
         <v>166</v>
       </c>
       <c r="BS44" s="17"/>
+      <c r="BT44" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU44" s="32"/>
       <c r="BV44">
         <v>10</v>
@@ -15607,13 +16094,18 @@
       <c r="CG44" t="s">
         <v>517</v>
       </c>
+      <c r="CH44" t="s">
+        <v>517</v>
+      </c>
       <c r="CI44" t="s">
         <v>502</v>
       </c>
       <c r="CJ44" t="s">
         <v>500</v>
       </c>
-      <c r="CK44" s="16"/>
+      <c r="CK44" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP44" s="18"/>
       <c r="CQ44" s="35">
         <v>46581.96</v>
@@ -15633,19 +16125,45 @@
       <c r="DA44" s="16"/>
       <c r="DB44" s="16"/>
       <c r="DC44" s="16"/>
-      <c r="DD44" s="17"/>
-      <c r="DE44" s="17"/>
-      <c r="DF44" s="16"/>
+      <c r="DD44" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE44" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF44" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG44" s="20"/>
       <c r="DH44" s="20"/>
       <c r="DI44" s="16"/>
       <c r="DJ44" s="16"/>
-      <c r="DK44" s="16"/>
+      <c r="DK44" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL44" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM44" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN44" s="17" t="s">
         <v>421</v>
+      </c>
+      <c r="DP44" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ44" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR44" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS44" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU44" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH44" s="21"/>
       <c r="EW44" s="17"/>
@@ -15825,6 +16343,9 @@
         <v>166</v>
       </c>
       <c r="BS45" s="17"/>
+      <c r="BT45" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU45" s="32"/>
       <c r="BV45">
         <v>10</v>
@@ -15862,13 +16383,18 @@
       <c r="CG45" t="s">
         <v>517</v>
       </c>
+      <c r="CH45" t="s">
+        <v>517</v>
+      </c>
       <c r="CI45" t="s">
         <v>502</v>
       </c>
       <c r="CJ45" t="s">
         <v>500</v>
       </c>
-      <c r="CK45" s="16"/>
+      <c r="CK45" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP45" s="18"/>
       <c r="CQ45" s="35">
         <v>126514.79048140044</v>
@@ -15888,19 +16414,45 @@
       <c r="DA45" s="16"/>
       <c r="DB45" s="16"/>
       <c r="DC45" s="16"/>
-      <c r="DD45" s="17"/>
-      <c r="DE45" s="17"/>
-      <c r="DF45" s="16"/>
+      <c r="DD45" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE45" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF45" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG45" s="20"/>
       <c r="DH45" s="20"/>
       <c r="DI45" s="16"/>
       <c r="DJ45" s="16"/>
-      <c r="DK45" s="16"/>
+      <c r="DK45" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL45" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM45" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN45" s="17" t="s">
         <v>421</v>
+      </c>
+      <c r="DP45" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ45" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR45" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS45" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU45" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH45" s="21"/>
       <c r="EW45" s="17"/>
@@ -16082,6 +16634,9 @@
         <v>166</v>
       </c>
       <c r="BS46" s="17"/>
+      <c r="BT46" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU46" s="32"/>
       <c r="BV46">
         <v>10</v>
@@ -16119,13 +16674,18 @@
       <c r="CG46" t="s">
         <v>517</v>
       </c>
+      <c r="CH46" t="s">
+        <v>517</v>
+      </c>
       <c r="CI46" t="s">
         <v>502</v>
       </c>
       <c r="CJ46" t="s">
         <v>500</v>
       </c>
-      <c r="CK46" s="16"/>
+      <c r="CK46" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP46" s="18"/>
       <c r="CQ46" s="35">
         <v>194120.88</v>
@@ -16145,19 +16705,45 @@
       <c r="DA46" s="16"/>
       <c r="DB46" s="16"/>
       <c r="DC46" s="16"/>
-      <c r="DD46" s="17"/>
-      <c r="DE46" s="17"/>
-      <c r="DF46" s="16"/>
+      <c r="DD46" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE46" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF46" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG46" s="20"/>
       <c r="DH46" s="20"/>
       <c r="DI46" s="16"/>
       <c r="DJ46" s="16"/>
-      <c r="DK46" s="16"/>
+      <c r="DK46" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL46" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM46" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN46" s="17" t="s">
         <v>421</v>
+      </c>
+      <c r="DP46" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ46" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR46" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS46" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU46" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH46" s="21"/>
       <c r="EW46" s="17"/>
@@ -16337,6 +16923,9 @@
         <v>166</v>
       </c>
       <c r="BS47" s="17"/>
+      <c r="BT47" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU47" s="32"/>
       <c r="BV47">
         <v>10</v>
@@ -16374,13 +16963,18 @@
       <c r="CG47" t="s">
         <v>517</v>
       </c>
+      <c r="CH47" t="s">
+        <v>517</v>
+      </c>
       <c r="CI47" t="s">
         <v>571</v>
       </c>
       <c r="CJ47" t="s">
         <v>569</v>
       </c>
-      <c r="CK47" s="16"/>
+      <c r="CK47" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP47" s="18"/>
       <c r="CQ47" s="35">
         <v>4085.76</v>
@@ -16400,19 +16994,45 @@
       <c r="DA47" s="16"/>
       <c r="DB47" s="16"/>
       <c r="DC47" s="16"/>
-      <c r="DD47" s="17"/>
-      <c r="DE47" s="17"/>
-      <c r="DF47" s="16"/>
+      <c r="DD47" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE47" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF47" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG47" s="20"/>
       <c r="DH47" s="20"/>
       <c r="DI47" s="16"/>
       <c r="DJ47" s="16"/>
-      <c r="DK47" s="16"/>
+      <c r="DK47" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL47" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM47" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN47" s="17" t="s">
         <v>421</v>
+      </c>
+      <c r="DP47" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ47" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR47" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS47" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU47" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH47" s="21"/>
       <c r="EW47" s="17"/>
@@ -16592,6 +17212,9 @@
         <v>166</v>
       </c>
       <c r="BS48" s="17"/>
+      <c r="BT48" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU48" s="32"/>
       <c r="BV48">
         <v>9</v>
@@ -16629,13 +17252,18 @@
       <c r="CG48" t="s">
         <v>517</v>
       </c>
+      <c r="CH48" t="s">
+        <v>517</v>
+      </c>
       <c r="CI48" t="s">
         <v>589</v>
       </c>
       <c r="CJ48" t="s">
         <v>590</v>
       </c>
-      <c r="CK48" s="16"/>
+      <c r="CK48" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP48" s="18"/>
       <c r="CQ48" s="35">
         <v>7303.2</v>
@@ -16655,19 +17283,45 @@
       <c r="DA48" s="16"/>
       <c r="DB48" s="16"/>
       <c r="DC48" s="16"/>
-      <c r="DD48" s="17"/>
-      <c r="DE48" s="17"/>
-      <c r="DF48" s="16"/>
+      <c r="DD48" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE48" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF48" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG48" s="20"/>
       <c r="DH48" s="20"/>
       <c r="DI48" s="16"/>
       <c r="DJ48" s="16"/>
-      <c r="DK48" s="16"/>
+      <c r="DK48" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL48" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM48" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN48" s="17" t="s">
         <v>421</v>
+      </c>
+      <c r="DP48" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ48" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR48" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS48" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU48" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH48" s="21"/>
       <c r="EW48" s="17"/>
@@ -16845,6 +17499,9 @@
         <v>166</v>
       </c>
       <c r="BS49" s="17"/>
+      <c r="BT49" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU49" s="32"/>
       <c r="BV49">
         <v>10</v>
@@ -16882,13 +17539,18 @@
       <c r="CG49" t="s">
         <v>517</v>
       </c>
+      <c r="CH49" t="s">
+        <v>517</v>
+      </c>
       <c r="CI49" t="s">
         <v>610</v>
       </c>
       <c r="CJ49" t="s">
         <v>611</v>
       </c>
-      <c r="CK49" s="16"/>
+      <c r="CK49" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP49" s="18"/>
       <c r="CQ49" s="35">
         <v>9371.5549295774636</v>
@@ -16908,19 +17570,45 @@
       <c r="DA49" s="16"/>
       <c r="DB49" s="16"/>
       <c r="DC49" s="16"/>
-      <c r="DD49" s="17"/>
-      <c r="DE49" s="17"/>
-      <c r="DF49" s="16"/>
+      <c r="DD49" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE49" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF49" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG49" s="20"/>
       <c r="DH49" s="20"/>
       <c r="DI49" s="16"/>
       <c r="DJ49" s="16"/>
-      <c r="DK49" s="16"/>
+      <c r="DK49" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL49" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM49" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN49" s="17" t="s">
         <v>421</v>
+      </c>
+      <c r="DP49" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ49" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR49" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS49" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU49" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH49" s="21"/>
       <c r="EW49" s="17"/>
@@ -17104,6 +17792,9 @@
         <v>166</v>
       </c>
       <c r="BS50" s="17"/>
+      <c r="BT50" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU50" s="32"/>
       <c r="BV50">
         <v>9</v>
@@ -17141,13 +17832,18 @@
       <c r="CG50" t="s">
         <v>517</v>
       </c>
+      <c r="CH50" t="s">
+        <v>517</v>
+      </c>
       <c r="CI50" t="s">
         <v>610</v>
       </c>
       <c r="CJ50" t="s">
         <v>611</v>
       </c>
-      <c r="CK50" s="16"/>
+      <c r="CK50" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP50" s="18"/>
       <c r="CQ50" s="35">
         <v>19946.807958477508</v>
@@ -17167,19 +17863,45 @@
       <c r="DA50" s="16"/>
       <c r="DB50" s="16"/>
       <c r="DC50" s="16"/>
-      <c r="DD50" s="17"/>
-      <c r="DE50" s="17"/>
-      <c r="DF50" s="16"/>
+      <c r="DD50" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE50" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF50" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG50" s="20"/>
       <c r="DH50" s="20"/>
       <c r="DI50" s="16"/>
       <c r="DJ50" s="16"/>
-      <c r="DK50" s="16"/>
+      <c r="DK50" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL50" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM50" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN50" s="17" t="s">
         <v>421</v>
+      </c>
+      <c r="DP50" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ50" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR50" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS50" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU50" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH50" s="21"/>
       <c r="EW50" s="17"/>
@@ -17361,6 +18083,9 @@
         <v>166</v>
       </c>
       <c r="BS51" s="17"/>
+      <c r="BT51" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU51" s="32"/>
       <c r="BV51">
         <v>10</v>
@@ -17398,13 +18123,18 @@
       <c r="CG51" t="s">
         <v>517</v>
       </c>
+      <c r="CH51" t="s">
+        <v>517</v>
+      </c>
       <c r="CI51" t="s">
         <v>610</v>
       </c>
       <c r="CJ51" t="s">
         <v>611</v>
       </c>
-      <c r="CK51" s="16"/>
+      <c r="CK51" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP51" s="18"/>
       <c r="CQ51" s="35">
         <v>70589.279999999999</v>
@@ -17424,19 +18154,45 @@
       <c r="DA51" s="16"/>
       <c r="DB51" s="16"/>
       <c r="DC51" s="16"/>
-      <c r="DD51" s="17"/>
-      <c r="DE51" s="17"/>
-      <c r="DF51" s="16"/>
+      <c r="DD51" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE51" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF51" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG51" s="20"/>
       <c r="DH51" s="20"/>
       <c r="DI51" s="16"/>
       <c r="DJ51" s="16"/>
-      <c r="DK51" s="16"/>
+      <c r="DK51" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL51" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM51" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN51" s="17" t="s">
         <v>421</v>
+      </c>
+      <c r="DP51" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ51" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR51" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS51" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU51" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH51" s="21"/>
       <c r="EW51" s="17"/>
@@ -17619,6 +18375,9 @@
         <v>166</v>
       </c>
       <c r="BS52" s="34"/>
+      <c r="BT52" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU52" s="32"/>
       <c r="BV52">
         <v>10</v>
@@ -17656,13 +18415,18 @@
       <c r="CG52" t="s">
         <v>517</v>
       </c>
+      <c r="CH52" t="s">
+        <v>517</v>
+      </c>
       <c r="CI52" t="s">
         <v>656</v>
       </c>
       <c r="CJ52" t="s">
         <v>654</v>
       </c>
-      <c r="CK52" s="16"/>
+      <c r="CK52" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP52" s="18"/>
       <c r="CQ52" s="35">
         <v>107</v>
@@ -17682,19 +18446,45 @@
       <c r="DA52" s="16"/>
       <c r="DB52" s="16"/>
       <c r="DC52" s="16"/>
-      <c r="DD52" s="17"/>
-      <c r="DE52" s="17"/>
-      <c r="DF52" s="16"/>
+      <c r="DD52" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE52" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF52" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG52" s="20"/>
       <c r="DH52" s="20"/>
       <c r="DI52" s="16"/>
       <c r="DJ52" s="16"/>
-      <c r="DK52" s="16"/>
+      <c r="DK52" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL52" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM52" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN52" s="17" t="s">
         <v>421</v>
+      </c>
+      <c r="DP52" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ52" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR52" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS52" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU52" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH52" s="21"/>
       <c r="EW52" s="17"/>
@@ -17879,6 +18669,9 @@
       <c r="BS53" s="34">
         <v>42309</v>
       </c>
+      <c r="BT53" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU53" s="32"/>
       <c r="BV53">
         <v>11</v>
@@ -17916,13 +18709,18 @@
       <c r="CG53" t="s">
         <v>517</v>
       </c>
+      <c r="CH53" t="s">
+        <v>517</v>
+      </c>
       <c r="CI53" t="s">
         <v>656</v>
       </c>
       <c r="CJ53" t="s">
         <v>654</v>
       </c>
-      <c r="CK53" s="16"/>
+      <c r="CK53" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP53" s="18"/>
       <c r="CQ53" s="35">
         <v>107</v>
@@ -17942,19 +18740,45 @@
       <c r="DA53" s="16"/>
       <c r="DB53" s="16"/>
       <c r="DC53" s="16"/>
-      <c r="DD53" s="17"/>
-      <c r="DE53" s="17"/>
-      <c r="DF53" s="16"/>
+      <c r="DD53" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE53" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF53" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG53" s="20"/>
       <c r="DH53" s="20"/>
       <c r="DI53" s="16"/>
       <c r="DJ53" s="16"/>
-      <c r="DK53" s="16"/>
+      <c r="DK53" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL53" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM53" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN53" s="17" t="s">
         <v>551</v>
+      </c>
+      <c r="DP53" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ53" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR53" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS53" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU53" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH53" s="21"/>
       <c r="EW53" s="17"/>
@@ -18129,6 +18953,9 @@
         <v>166</v>
       </c>
       <c r="BS54" s="34"/>
+      <c r="BT54" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU54" s="32"/>
       <c r="BV54">
         <v>7</v>
@@ -18166,13 +18993,18 @@
       <c r="CG54" t="s">
         <v>517</v>
       </c>
+      <c r="CH54" t="s">
+        <v>517</v>
+      </c>
       <c r="CI54" t="s">
         <v>656</v>
       </c>
       <c r="CJ54" t="s">
         <v>654</v>
       </c>
-      <c r="CK54" s="16"/>
+      <c r="CK54" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP54" s="18"/>
       <c r="CQ54" s="35">
         <v>3069.84</v>
@@ -18192,19 +19024,45 @@
       <c r="DA54" s="16"/>
       <c r="DB54" s="16"/>
       <c r="DC54" s="16"/>
-      <c r="DD54" s="17"/>
-      <c r="DE54" s="17"/>
-      <c r="DF54" s="16"/>
+      <c r="DD54" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE54" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF54" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG54" s="20"/>
       <c r="DH54" s="20"/>
       <c r="DI54" s="16"/>
       <c r="DJ54" s="16"/>
-      <c r="DK54" s="16"/>
+      <c r="DK54" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL54" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM54" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN54" s="17" t="s">
         <v>551</v>
+      </c>
+      <c r="DP54" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ54" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR54" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS54" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU54" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH54" s="21"/>
       <c r="EW54" s="17"/>
@@ -18379,6 +19237,9 @@
         <v>166</v>
       </c>
       <c r="BS55" s="34"/>
+      <c r="BT55" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU55" s="32"/>
       <c r="BV55">
         <v>9</v>
@@ -18416,13 +19277,18 @@
       <c r="CG55" t="s">
         <v>517</v>
       </c>
+      <c r="CH55" t="s">
+        <v>517</v>
+      </c>
       <c r="CI55" t="s">
         <v>695</v>
       </c>
       <c r="CJ55" t="s">
         <v>693</v>
       </c>
-      <c r="CK55" s="16"/>
+      <c r="CK55" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP55" s="18"/>
       <c r="CQ55" s="35">
         <v>5496.72</v>
@@ -18442,19 +19308,45 @@
       <c r="DA55" s="16"/>
       <c r="DB55" s="16"/>
       <c r="DC55" s="16"/>
-      <c r="DD55" s="17"/>
-      <c r="DE55" s="17"/>
-      <c r="DF55" s="16"/>
+      <c r="DD55" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE55" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF55" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG55" s="20"/>
       <c r="DH55" s="20"/>
       <c r="DI55" s="16"/>
       <c r="DJ55" s="16"/>
-      <c r="DK55" s="16"/>
+      <c r="DK55" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL55" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM55" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN55" s="17" t="s">
         <v>421</v>
+      </c>
+      <c r="DP55" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ55" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR55" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS55" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU55" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH55" s="21"/>
       <c r="EW55" s="17"/>
@@ -18629,6 +19521,9 @@
         <v>166</v>
       </c>
       <c r="BS56" s="34"/>
+      <c r="BT56" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU56" s="32"/>
       <c r="BV56">
         <v>10</v>
@@ -18666,13 +19561,18 @@
       <c r="CG56" t="s">
         <v>517</v>
       </c>
+      <c r="CH56" t="s">
+        <v>517</v>
+      </c>
       <c r="CI56" t="s">
         <v>695</v>
       </c>
       <c r="CJ56" t="s">
         <v>693</v>
       </c>
-      <c r="CK56" s="16"/>
+      <c r="CK56" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP56" s="18"/>
       <c r="CQ56" s="35">
         <v>5496.72</v>
@@ -18692,19 +19592,45 @@
       <c r="DA56" s="16"/>
       <c r="DB56" s="16"/>
       <c r="DC56" s="16"/>
-      <c r="DD56" s="17"/>
-      <c r="DE56" s="17"/>
-      <c r="DF56" s="16"/>
+      <c r="DD56" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE56" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF56" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG56" s="20"/>
       <c r="DH56" s="20"/>
       <c r="DI56" s="16"/>
       <c r="DJ56" s="16"/>
-      <c r="DK56" s="16"/>
+      <c r="DK56" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL56" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM56" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN56" s="17" t="s">
         <v>421</v>
+      </c>
+      <c r="DP56" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ56" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR56" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS56" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU56" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH56" s="21"/>
       <c r="EW56" s="17"/>
@@ -18881,6 +19807,9 @@
         <v>166</v>
       </c>
       <c r="BS57" s="34"/>
+      <c r="BT57" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU57" s="32"/>
       <c r="BV57">
         <v>8</v>
@@ -18918,13 +19847,18 @@
       <c r="CG57" t="s">
         <v>517</v>
       </c>
+      <c r="CH57" t="s">
+        <v>517</v>
+      </c>
       <c r="CI57" t="s">
         <v>656</v>
       </c>
       <c r="CJ57" t="s">
         <v>654</v>
       </c>
-      <c r="CK57" s="16"/>
+      <c r="CK57" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP57" s="18"/>
       <c r="CQ57" s="35">
         <v>17521.920000000002</v>
@@ -18944,19 +19878,45 @@
       <c r="DA57" s="16"/>
       <c r="DB57" s="16"/>
       <c r="DC57" s="16"/>
-      <c r="DD57" s="17"/>
-      <c r="DE57" s="17"/>
-      <c r="DF57" s="16"/>
+      <c r="DD57" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE57" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF57" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG57" s="20"/>
       <c r="DH57" s="20"/>
       <c r="DI57" s="16"/>
       <c r="DJ57" s="16"/>
-      <c r="DK57" s="16"/>
+      <c r="DK57" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL57" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM57" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN57" s="17" t="s">
         <v>421</v>
+      </c>
+      <c r="DP57" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ57" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR57" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS57" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU57" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH57" s="21"/>
       <c r="EW57" s="17"/>
@@ -19129,6 +20089,9 @@
         <v>166</v>
       </c>
       <c r="BS58" s="34"/>
+      <c r="BT58" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU58" s="32"/>
       <c r="BV58">
         <v>10</v>
@@ -19166,13 +20129,18 @@
       <c r="CG58" t="s">
         <v>517</v>
       </c>
+      <c r="CH58" t="s">
+        <v>517</v>
+      </c>
       <c r="CI58" t="s">
         <v>726</v>
       </c>
       <c r="CJ58" t="s">
         <v>724</v>
       </c>
-      <c r="CK58" s="16"/>
+      <c r="CK58" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP58" s="18"/>
       <c r="CQ58" s="35">
         <v>44162.640000000014</v>
@@ -19192,19 +20160,45 @@
       <c r="DA58" s="16"/>
       <c r="DB58" s="16"/>
       <c r="DC58" s="16"/>
-      <c r="DD58" s="17"/>
-      <c r="DE58" s="17"/>
-      <c r="DF58" s="16"/>
+      <c r="DD58" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE58" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF58" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG58" s="20"/>
       <c r="DH58" s="20"/>
       <c r="DI58" s="16"/>
       <c r="DJ58" s="16"/>
-      <c r="DK58" s="16"/>
+      <c r="DK58" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL58" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM58" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN58" s="17" t="s">
         <v>421</v>
+      </c>
+      <c r="DP58" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ58" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR58" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS58" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU58" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH58" s="21"/>
       <c r="EW58" s="17"/>
@@ -19381,6 +20375,9 @@
         <v>166</v>
       </c>
       <c r="BS59" s="17"/>
+      <c r="BT59" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU59" s="32"/>
       <c r="BV59">
         <v>10</v>
@@ -19418,13 +20415,18 @@
       <c r="CG59" t="s">
         <v>517</v>
       </c>
+      <c r="CH59" t="s">
+        <v>517</v>
+      </c>
       <c r="CI59" t="s">
         <v>743</v>
       </c>
       <c r="CJ59" t="s">
         <v>741</v>
       </c>
-      <c r="CK59" s="16"/>
+      <c r="CK59" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP59" s="18"/>
       <c r="CQ59" s="35">
         <v>2163.7724550898201</v>
@@ -19444,19 +20446,45 @@
       <c r="DA59" s="16"/>
       <c r="DB59" s="16"/>
       <c r="DC59" s="16"/>
-      <c r="DD59" s="17"/>
-      <c r="DE59" s="17"/>
-      <c r="DF59" s="16"/>
+      <c r="DD59" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE59" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF59" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG59" s="20"/>
       <c r="DH59" s="20"/>
       <c r="DI59" s="16"/>
       <c r="DJ59" s="16"/>
-      <c r="DK59" s="16"/>
+      <c r="DK59" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL59" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM59" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN59" s="17" t="s">
         <v>421</v>
+      </c>
+      <c r="DP59" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ59" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR59" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS59" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU59" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH59" s="21"/>
       <c r="EW59" s="17"/>
@@ -19633,6 +20661,9 @@
         <v>166</v>
       </c>
       <c r="BS60" s="17"/>
+      <c r="BT60" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU60" s="32"/>
       <c r="BV60">
         <v>10</v>
@@ -19670,13 +20701,18 @@
       <c r="CG60" t="s">
         <v>517</v>
       </c>
+      <c r="CH60" t="s">
+        <v>517</v>
+      </c>
       <c r="CI60" t="s">
         <v>743</v>
       </c>
       <c r="CJ60" t="s">
         <v>741</v>
       </c>
-      <c r="CK60" s="16"/>
+      <c r="CK60" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP60" s="18"/>
       <c r="CQ60" s="35">
         <v>6648</v>
@@ -19696,19 +20732,45 @@
       <c r="DA60" s="16"/>
       <c r="DB60" s="16"/>
       <c r="DC60" s="16"/>
-      <c r="DD60" s="17"/>
-      <c r="DE60" s="17"/>
-      <c r="DF60" s="16"/>
+      <c r="DD60" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE60" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF60" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG60" s="20"/>
       <c r="DH60" s="20"/>
       <c r="DI60" s="16"/>
       <c r="DJ60" s="16"/>
-      <c r="DK60" s="16"/>
+      <c r="DK60" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL60" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM60" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN60" s="17" t="s">
         <v>421</v>
+      </c>
+      <c r="DP60" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ60" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR60" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS60" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU60" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH60" s="21"/>
       <c r="EW60" s="17"/>
@@ -19891,6 +20953,9 @@
         <v>166</v>
       </c>
       <c r="BS61" s="17"/>
+      <c r="BT61" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU61" s="32"/>
       <c r="BV61">
         <v>6</v>
@@ -19928,13 +20993,18 @@
       <c r="CG61" t="s">
         <v>517</v>
       </c>
+      <c r="CH61" t="s">
+        <v>517</v>
+      </c>
       <c r="CI61" t="s">
         <v>772</v>
       </c>
       <c r="CJ61" t="s">
         <v>770</v>
       </c>
-      <c r="CK61" s="16"/>
+      <c r="CK61" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP61" s="18"/>
       <c r="CQ61" s="35">
         <v>61146.452830188675</v>
@@ -19954,19 +21024,45 @@
       <c r="DA61" s="16"/>
       <c r="DB61" s="16"/>
       <c r="DC61" s="16"/>
-      <c r="DD61" s="17"/>
-      <c r="DE61" s="17"/>
-      <c r="DF61" s="16"/>
+      <c r="DD61" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE61" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF61" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG61" s="20"/>
       <c r="DH61" s="20"/>
       <c r="DI61" s="16"/>
       <c r="DJ61" s="16"/>
-      <c r="DK61" s="16"/>
+      <c r="DK61" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL61" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM61" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN61" s="17" t="s">
         <v>551</v>
+      </c>
+      <c r="DP61" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ61" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR61" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS61" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU61" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH61" s="21"/>
       <c r="EW61" s="17"/>
@@ -20147,6 +21243,9 @@
         <v>166</v>
       </c>
       <c r="BS62" s="17"/>
+      <c r="BT62" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU62" s="32"/>
       <c r="BV62">
         <v>6</v>
@@ -20184,13 +21283,18 @@
       <c r="CG62" t="s">
         <v>517</v>
       </c>
+      <c r="CH62" t="s">
+        <v>517</v>
+      </c>
       <c r="CI62" t="s">
         <v>772</v>
       </c>
       <c r="CJ62" t="s">
         <v>770</v>
       </c>
-      <c r="CK62" s="16"/>
+      <c r="CK62" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP62" s="18"/>
       <c r="CQ62" s="35">
         <v>68027.116037735846</v>
@@ -20210,19 +21314,45 @@
       <c r="DA62" s="16"/>
       <c r="DB62" s="16"/>
       <c r="DC62" s="16"/>
-      <c r="DD62" s="17"/>
-      <c r="DE62" s="17"/>
-      <c r="DF62" s="16"/>
+      <c r="DD62" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE62" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF62" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG62" s="20"/>
       <c r="DH62" s="20"/>
       <c r="DI62" s="16"/>
       <c r="DJ62" s="16"/>
-      <c r="DK62" s="16"/>
+      <c r="DK62" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL62" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM62" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN62" s="17" t="s">
         <v>551</v>
+      </c>
+      <c r="DP62" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ62" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR62" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS62" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU62" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH62" s="21"/>
       <c r="EW62" s="17"/>
@@ -20405,6 +21535,9 @@
         <v>166</v>
       </c>
       <c r="BS63" s="17"/>
+      <c r="BT63" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU63" s="32"/>
       <c r="BV63">
         <v>8</v>
@@ -20442,13 +21575,18 @@
       <c r="CG63" t="s">
         <v>517</v>
       </c>
+      <c r="CH63" t="s">
+        <v>517</v>
+      </c>
       <c r="CI63" t="s">
         <v>743</v>
       </c>
       <c r="CJ63" t="s">
         <v>741</v>
       </c>
-      <c r="CK63" s="16"/>
+      <c r="CK63" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP63" s="18"/>
       <c r="CQ63" s="35">
         <v>80470.679999999993</v>
@@ -20468,19 +21606,45 @@
       <c r="DA63" s="16"/>
       <c r="DB63" s="16"/>
       <c r="DC63" s="16"/>
-      <c r="DD63" s="17"/>
-      <c r="DE63" s="17"/>
-      <c r="DF63" s="16"/>
+      <c r="DD63" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE63" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF63" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG63" s="20"/>
       <c r="DH63" s="20"/>
       <c r="DI63" s="16"/>
       <c r="DJ63" s="16"/>
-      <c r="DK63" s="16"/>
+      <c r="DK63" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL63" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM63" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN63" s="17" t="s">
         <v>421</v>
+      </c>
+      <c r="DP63" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ63" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR63" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS63" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU63" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH63" s="21"/>
       <c r="EW63" s="17"/>
@@ -20663,6 +21827,9 @@
         <v>166</v>
       </c>
       <c r="BS64" s="17"/>
+      <c r="BT64" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU64" s="32"/>
       <c r="BV64">
         <v>8</v>
@@ -20700,13 +21867,18 @@
       <c r="CG64" t="s">
         <v>517</v>
       </c>
+      <c r="CH64" t="s">
+        <v>517</v>
+      </c>
       <c r="CI64" t="s">
         <v>743</v>
       </c>
       <c r="CJ64" t="s">
         <v>741</v>
       </c>
-      <c r="CK64" s="16"/>
+      <c r="CK64" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP64" s="18"/>
       <c r="CQ64" s="35">
         <v>80470.679999999993</v>
@@ -20726,19 +21898,45 @@
       <c r="DA64" s="16"/>
       <c r="DB64" s="16"/>
       <c r="DC64" s="16"/>
-      <c r="DD64" s="17"/>
-      <c r="DE64" s="17"/>
-      <c r="DF64" s="16"/>
+      <c r="DD64" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE64" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF64" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG64" s="20"/>
       <c r="DH64" s="20"/>
       <c r="DI64" s="16"/>
       <c r="DJ64" s="16"/>
-      <c r="DK64" s="16"/>
+      <c r="DK64" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL64" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM64" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN64" s="17" t="s">
         <v>421</v>
+      </c>
+      <c r="DP64" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ64" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR64" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS64" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU64" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH64" s="21"/>
       <c r="EW64" s="17"/>
@@ -20921,6 +22119,9 @@
         <v>166</v>
       </c>
       <c r="BS65" s="17"/>
+      <c r="BT65" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU65" s="32"/>
       <c r="BV65">
         <v>6</v>
@@ -20958,13 +22159,18 @@
       <c r="CG65" t="s">
         <v>517</v>
       </c>
+      <c r="CH65" t="s">
+        <v>517</v>
+      </c>
       <c r="CI65" t="s">
         <v>772</v>
       </c>
       <c r="CJ65" t="s">
         <v>770</v>
       </c>
-      <c r="CK65" s="16"/>
+      <c r="CK65" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP65" s="18"/>
       <c r="CQ65" s="35">
         <v>200549.61098901098</v>
@@ -20984,19 +22190,45 @@
       <c r="DA65" s="16"/>
       <c r="DB65" s="16"/>
       <c r="DC65" s="16"/>
-      <c r="DD65" s="17"/>
-      <c r="DE65" s="17"/>
-      <c r="DF65" s="16"/>
+      <c r="DD65" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE65" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF65" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG65" s="20"/>
       <c r="DH65" s="20"/>
       <c r="DI65" s="16"/>
       <c r="DJ65" s="16"/>
-      <c r="DK65" s="16"/>
+      <c r="DK65" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL65" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM65" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN65" s="17" t="s">
         <v>551</v>
+      </c>
+      <c r="DP65" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ65" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR65" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS65" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU65" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH65" s="21"/>
       <c r="EW65" s="17"/>
@@ -21179,6 +22411,9 @@
         <v>166</v>
       </c>
       <c r="BS66" s="17"/>
+      <c r="BT66" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU66" s="32"/>
       <c r="BV66">
         <v>8</v>
@@ -21216,13 +22451,18 @@
       <c r="CG66" t="s">
         <v>517</v>
       </c>
+      <c r="CH66" t="s">
+        <v>517</v>
+      </c>
       <c r="CI66" t="s">
         <v>743</v>
       </c>
       <c r="CJ66" t="s">
         <v>741</v>
       </c>
-      <c r="CK66" s="16"/>
+      <c r="CK66" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP66" s="18"/>
       <c r="CQ66" s="35">
         <v>241397.88</v>
@@ -21242,19 +22482,45 @@
       <c r="DA66" s="16"/>
       <c r="DB66" s="16"/>
       <c r="DC66" s="16"/>
-      <c r="DD66" s="17"/>
-      <c r="DE66" s="17"/>
-      <c r="DF66" s="16"/>
+      <c r="DD66" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE66" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF66" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG66" s="20"/>
       <c r="DH66" s="20"/>
       <c r="DI66" s="16"/>
       <c r="DJ66" s="16"/>
-      <c r="DK66" s="16"/>
+      <c r="DK66" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL66" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM66" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN66" s="17" t="s">
         <v>421</v>
+      </c>
+      <c r="DP66" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ66" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR66" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS66" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU66" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH66" s="21"/>
       <c r="EW66" s="17"/>
@@ -21437,6 +22703,9 @@
         <v>166</v>
       </c>
       <c r="BS67" s="17"/>
+      <c r="BT67" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU67" s="32"/>
       <c r="BV67">
         <v>8</v>
@@ -21474,13 +22743,18 @@
       <c r="CG67" t="s">
         <v>517</v>
       </c>
+      <c r="CH67" t="s">
+        <v>517</v>
+      </c>
       <c r="CI67" t="s">
         <v>743</v>
       </c>
       <c r="CJ67" t="s">
         <v>741</v>
       </c>
-      <c r="CK67" s="16"/>
+      <c r="CK67" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP67" s="18"/>
       <c r="CQ67" s="35">
         <v>321861.48</v>
@@ -21500,19 +22774,45 @@
       <c r="DA67" s="16"/>
       <c r="DB67" s="16"/>
       <c r="DC67" s="16"/>
-      <c r="DD67" s="17"/>
-      <c r="DE67" s="17"/>
-      <c r="DF67" s="16"/>
+      <c r="DD67" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE67" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF67" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG67" s="20"/>
       <c r="DH67" s="20"/>
       <c r="DI67" s="16"/>
       <c r="DJ67" s="16"/>
-      <c r="DK67" s="16"/>
+      <c r="DK67" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL67" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM67" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN67" s="17" t="s">
         <v>421</v>
+      </c>
+      <c r="DP67" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ67" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR67" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS67" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU67" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH67" s="21"/>
       <c r="EW67" s="17"/>
@@ -21695,6 +22995,9 @@
         <v>166</v>
       </c>
       <c r="BS68" s="17"/>
+      <c r="BT68" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU68" s="32"/>
       <c r="BV68">
         <v>6</v>
@@ -21732,13 +23035,18 @@
       <c r="CG68" t="s">
         <v>517</v>
       </c>
+      <c r="CH68" t="s">
+        <v>517</v>
+      </c>
       <c r="CI68" t="s">
         <v>772</v>
       </c>
       <c r="CJ68" t="s">
         <v>770</v>
       </c>
-      <c r="CK68" s="16"/>
+      <c r="CK68" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP68" s="18"/>
       <c r="CQ68" s="35">
         <v>700125.43186813185</v>
@@ -21758,19 +23066,45 @@
       <c r="DA68" s="16"/>
       <c r="DB68" s="16"/>
       <c r="DC68" s="16"/>
-      <c r="DD68" s="17"/>
-      <c r="DE68" s="17"/>
-      <c r="DF68" s="16"/>
+      <c r="DD68" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE68" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF68" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG68" s="20"/>
       <c r="DH68" s="20"/>
       <c r="DI68" s="16"/>
       <c r="DJ68" s="16"/>
-      <c r="DK68" s="16"/>
+      <c r="DK68" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL68" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM68" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN68" s="17" t="s">
         <v>551</v>
+      </c>
+      <c r="DP68" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ68" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR68" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS68" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU68" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH68" s="21"/>
       <c r="EW68" s="17"/>
@@ -21951,6 +23285,9 @@
         <v>166</v>
       </c>
       <c r="BS69" s="17"/>
+      <c r="BT69" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU69" s="32"/>
       <c r="BV69">
         <v>10</v>
@@ -21988,13 +23325,18 @@
       <c r="CG69" t="s">
         <v>845</v>
       </c>
+      <c r="CH69" t="s">
+        <v>845</v>
+      </c>
       <c r="CI69" t="s">
         <v>825</v>
       </c>
       <c r="CJ69" t="s">
         <v>826</v>
       </c>
-      <c r="CK69" s="16"/>
+      <c r="CK69" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP69" s="18"/>
       <c r="CQ69" s="35">
         <v>299.86</v>
@@ -22014,19 +23356,45 @@
       <c r="DA69" s="16"/>
       <c r="DB69" s="16"/>
       <c r="DC69" s="16"/>
-      <c r="DD69" s="17"/>
-      <c r="DE69" s="17"/>
-      <c r="DF69" s="16"/>
+      <c r="DD69" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE69" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF69" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG69" s="20"/>
       <c r="DH69" s="20"/>
       <c r="DI69" s="16"/>
       <c r="DJ69" s="16"/>
-      <c r="DK69" s="16"/>
+      <c r="DK69" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL69" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM69" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN69" s="17" t="s">
         <v>421</v>
+      </c>
+      <c r="DP69" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ69" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR69" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS69" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU69" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH69" s="21"/>
       <c r="EW69" s="17"/>
@@ -22209,6 +23577,9 @@
         <v>166</v>
       </c>
       <c r="BS70" s="17"/>
+      <c r="BT70" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU70" s="32"/>
       <c r="BV70">
         <v>10</v>
@@ -22246,13 +23617,18 @@
       <c r="CG70" t="s">
         <v>845</v>
       </c>
+      <c r="CH70" t="s">
+        <v>845</v>
+      </c>
       <c r="CI70" t="s">
         <v>825</v>
       </c>
       <c r="CJ70" t="s">
         <v>826</v>
       </c>
-      <c r="CK70" s="16"/>
+      <c r="CK70" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP70" s="18"/>
       <c r="CQ70" s="35">
         <v>336</v>
@@ -22272,19 +23648,45 @@
       <c r="DA70" s="16"/>
       <c r="DB70" s="16"/>
       <c r="DC70" s="16"/>
-      <c r="DD70" s="17"/>
-      <c r="DE70" s="17"/>
-      <c r="DF70" s="16"/>
+      <c r="DD70" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE70" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF70" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG70" s="20"/>
       <c r="DH70" s="20"/>
       <c r="DI70" s="16"/>
       <c r="DJ70" s="16"/>
-      <c r="DK70" s="16"/>
+      <c r="DK70" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL70" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM70" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN70" s="17" t="s">
         <v>421</v>
+      </c>
+      <c r="DP70" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ70" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR70" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS70" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU70" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH70" s="21"/>
       <c r="EW70" s="17"/>
@@ -22465,6 +23867,9 @@
         <v>166</v>
       </c>
       <c r="BS71" s="17"/>
+      <c r="BT71" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU71" s="32"/>
       <c r="BV71">
         <v>10</v>
@@ -22502,13 +23907,18 @@
       <c r="CG71" t="s">
         <v>845</v>
       </c>
+      <c r="CH71" t="s">
+        <v>845</v>
+      </c>
       <c r="CI71" t="s">
         <v>851</v>
       </c>
       <c r="CJ71" t="s">
         <v>852</v>
       </c>
-      <c r="CK71" s="16"/>
+      <c r="CK71" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP71" s="18"/>
       <c r="CQ71" s="35">
         <v>403.2</v>
@@ -22528,19 +23938,45 @@
       <c r="DA71" s="16"/>
       <c r="DB71" s="16"/>
       <c r="DC71" s="16"/>
-      <c r="DD71" s="17"/>
-      <c r="DE71" s="17"/>
-      <c r="DF71" s="16"/>
+      <c r="DD71" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE71" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF71" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG71" s="20"/>
       <c r="DH71" s="20"/>
       <c r="DI71" s="16"/>
       <c r="DJ71" s="16"/>
-      <c r="DK71" s="16"/>
+      <c r="DK71" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL71" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM71" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN71" s="17" t="s">
         <v>421</v>
+      </c>
+      <c r="DP71" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ71" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR71" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS71" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU71" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH71" s="21"/>
       <c r="EW71" s="17"/>
@@ -22711,6 +24147,9 @@
         <v>166</v>
       </c>
       <c r="BS72" s="17"/>
+      <c r="BT72" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU72" s="32"/>
       <c r="BV72">
         <v>2</v>
@@ -22748,13 +24187,18 @@
       <c r="CG72" t="s">
         <v>845</v>
       </c>
+      <c r="CH72" t="s">
+        <v>845</v>
+      </c>
       <c r="CI72" t="s">
         <v>871</v>
       </c>
       <c r="CJ72" t="s">
         <v>872</v>
       </c>
-      <c r="CK72" s="16"/>
+      <c r="CK72" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP72" s="18"/>
       <c r="CQ72" s="35">
         <v>1695.7425599999999</v>
@@ -22774,19 +24218,45 @@
       <c r="DA72" s="16"/>
       <c r="DB72" s="16"/>
       <c r="DC72" s="16"/>
-      <c r="DD72" s="17"/>
-      <c r="DE72" s="17"/>
-      <c r="DF72" s="16"/>
+      <c r="DD72" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE72" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF72" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG72" s="20"/>
       <c r="DH72" s="20"/>
       <c r="DI72" s="16"/>
       <c r="DJ72" s="16"/>
-      <c r="DK72" s="16"/>
+      <c r="DK72" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL72" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM72" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN72" s="17" t="s">
         <v>551</v>
+      </c>
+      <c r="DP72" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ72" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR72" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS72" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU72" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH72" s="21"/>
       <c r="EW72" s="17"/>
@@ -22967,6 +24437,9 @@
         <v>166</v>
       </c>
       <c r="BS73" s="17"/>
+      <c r="BT73" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU73" s="32"/>
       <c r="BV73">
         <v>9</v>
@@ -23004,13 +24477,18 @@
       <c r="CG73" t="s">
         <v>845</v>
       </c>
+      <c r="CH73" t="s">
+        <v>845</v>
+      </c>
       <c r="CI73" t="s">
         <v>886</v>
       </c>
       <c r="CJ73" t="s">
         <v>887</v>
       </c>
-      <c r="CK73" s="16"/>
+      <c r="CK73" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP73" s="18"/>
       <c r="CQ73" s="35">
         <v>5815.7134615384612</v>
@@ -23030,19 +24508,45 @@
       <c r="DA73" s="16"/>
       <c r="DB73" s="16"/>
       <c r="DC73" s="16"/>
-      <c r="DD73" s="17"/>
-      <c r="DE73" s="17"/>
-      <c r="DF73" s="16"/>
+      <c r="DD73" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE73" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF73" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG73" s="20"/>
       <c r="DH73" s="20"/>
       <c r="DI73" s="16"/>
       <c r="DJ73" s="16"/>
-      <c r="DK73" s="16"/>
+      <c r="DK73" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL73" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM73" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN73" s="17" t="s">
         <v>421</v>
+      </c>
+      <c r="DP73" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ73" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR73" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS73" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU73" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH73" s="21"/>
       <c r="EW73" s="17"/>
@@ -23223,6 +24727,9 @@
         <v>166</v>
       </c>
       <c r="BS74" s="17"/>
+      <c r="BT74" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU74" s="32"/>
       <c r="BV74">
         <v>9</v>
@@ -23260,13 +24767,18 @@
       <c r="CG74" t="s">
         <v>845</v>
       </c>
+      <c r="CH74" t="s">
+        <v>845</v>
+      </c>
       <c r="CI74" t="s">
         <v>886</v>
       </c>
       <c r="CJ74" t="s">
         <v>887</v>
       </c>
-      <c r="CK74" s="16"/>
+      <c r="CK74" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP74" s="18"/>
       <c r="CQ74" s="35">
         <v>8409.3593406593409</v>
@@ -23286,19 +24798,45 @@
       <c r="DA74" s="16"/>
       <c r="DB74" s="16"/>
       <c r="DC74" s="16"/>
-      <c r="DD74" s="17"/>
-      <c r="DE74" s="17"/>
-      <c r="DF74" s="16"/>
+      <c r="DD74" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE74" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF74" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG74" s="20"/>
       <c r="DH74" s="20"/>
       <c r="DI74" s="16"/>
       <c r="DJ74" s="16"/>
-      <c r="DK74" s="16"/>
+      <c r="DK74" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL74" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM74" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN74" s="17" t="s">
         <v>421</v>
+      </c>
+      <c r="DP74" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ74" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR74" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS74" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU74" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH74" s="21"/>
       <c r="EW74" s="17"/>
@@ -23479,6 +25017,9 @@
         <v>166</v>
       </c>
       <c r="BS75" s="17"/>
+      <c r="BT75" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU75" s="32"/>
       <c r="BV75">
         <v>9</v>
@@ -23516,13 +25057,18 @@
       <c r="CG75" t="s">
         <v>845</v>
       </c>
+      <c r="CH75" t="s">
+        <v>845</v>
+      </c>
       <c r="CI75" t="s">
         <v>886</v>
       </c>
       <c r="CJ75" t="s">
         <v>887</v>
       </c>
-      <c r="CK75" s="16"/>
+      <c r="CK75" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP75" s="18"/>
       <c r="CQ75" s="35">
         <v>37532.78956043956</v>
@@ -23542,19 +25088,45 @@
       <c r="DA75" s="16"/>
       <c r="DB75" s="16"/>
       <c r="DC75" s="16"/>
-      <c r="DD75" s="17"/>
-      <c r="DE75" s="17"/>
-      <c r="DF75" s="16"/>
+      <c r="DD75" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE75" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF75" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG75" s="20"/>
       <c r="DH75" s="20"/>
       <c r="DI75" s="16"/>
       <c r="DJ75" s="16"/>
-      <c r="DK75" s="16"/>
+      <c r="DK75" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL75" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM75" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN75" s="17" t="s">
         <v>421</v>
+      </c>
+      <c r="DP75" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ75" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR75" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS75" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU75" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH75" s="21"/>
       <c r="EW75" s="17"/>
@@ -23737,6 +25309,9 @@
         <v>166</v>
       </c>
       <c r="BS76" s="34"/>
+      <c r="BT76" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU76" s="32"/>
       <c r="BV76">
         <v>7</v>
@@ -23774,13 +25349,18 @@
       <c r="CG76" t="s">
         <v>845</v>
       </c>
+      <c r="CH76" t="s">
+        <v>845</v>
+      </c>
       <c r="CI76" t="s">
         <v>904</v>
       </c>
       <c r="CJ76" t="s">
         <v>905</v>
       </c>
-      <c r="CK76" s="16"/>
+      <c r="CK76" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP76" s="18"/>
       <c r="CQ76" s="35">
         <v>1113.16978021978</v>
@@ -23800,19 +25380,45 @@
       <c r="DA76" s="16"/>
       <c r="DB76" s="16"/>
       <c r="DC76" s="16"/>
-      <c r="DD76" s="17"/>
-      <c r="DE76" s="17"/>
-      <c r="DF76" s="16"/>
+      <c r="DD76" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE76" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF76" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG76" s="20"/>
       <c r="DH76" s="20"/>
       <c r="DI76" s="16"/>
       <c r="DJ76" s="16"/>
-      <c r="DK76" s="16"/>
+      <c r="DK76" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL76" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM76" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN76" s="17" t="s">
         <v>551</v>
+      </c>
+      <c r="DP76" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ76" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR76" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS76" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU76" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH76" s="21"/>
       <c r="EW76" s="17"/>
@@ -23995,6 +25601,9 @@
         <v>166</v>
       </c>
       <c r="BS77" s="34"/>
+      <c r="BT77" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU77" s="32"/>
       <c r="BV77">
         <v>7</v>
@@ -24032,13 +25641,18 @@
       <c r="CG77" t="s">
         <v>845</v>
       </c>
+      <c r="CH77" t="s">
+        <v>845</v>
+      </c>
       <c r="CI77" t="s">
         <v>904</v>
       </c>
       <c r="CJ77" t="s">
         <v>905</v>
       </c>
-      <c r="CK77" s="16"/>
+      <c r="CK77" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP77" s="18"/>
       <c r="CQ77" s="35">
         <v>1113.16978021978</v>
@@ -24058,19 +25672,45 @@
       <c r="DA77" s="16"/>
       <c r="DB77" s="16"/>
       <c r="DC77" s="16"/>
-      <c r="DD77" s="17"/>
-      <c r="DE77" s="17"/>
-      <c r="DF77" s="16"/>
+      <c r="DD77" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE77" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF77" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG77" s="20"/>
       <c r="DH77" s="20"/>
       <c r="DI77" s="16"/>
       <c r="DJ77" s="16"/>
-      <c r="DK77" s="16"/>
+      <c r="DK77" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL77" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM77" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN77" s="17" t="s">
         <v>551</v>
+      </c>
+      <c r="DP77" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ77" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR77" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS77" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU77" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH77" s="21"/>
       <c r="EW77" s="17"/>
@@ -24249,6 +25889,9 @@
       <c r="BS78" s="34">
         <v>42663</v>
       </c>
+      <c r="BT78" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU78" s="32"/>
       <c r="BV78">
         <v>10</v>
@@ -24286,13 +25929,18 @@
       <c r="CG78" t="s">
         <v>845</v>
       </c>
+      <c r="CH78" t="s">
+        <v>845</v>
+      </c>
       <c r="CI78" t="s">
         <v>926</v>
       </c>
       <c r="CJ78" t="s">
         <v>927</v>
       </c>
-      <c r="CK78" s="16"/>
+      <c r="CK78" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP78" s="18"/>
       <c r="CQ78" s="35">
         <v>1319.4805479452054</v>
@@ -24312,19 +25960,45 @@
       <c r="DA78" s="16"/>
       <c r="DB78" s="16"/>
       <c r="DC78" s="16"/>
-      <c r="DD78" s="17"/>
-      <c r="DE78" s="17"/>
-      <c r="DF78" s="16"/>
+      <c r="DD78" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE78" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF78" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG78" s="20"/>
       <c r="DH78" s="20"/>
       <c r="DI78" s="16"/>
       <c r="DJ78" s="16"/>
-      <c r="DK78" s="16"/>
+      <c r="DK78" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL78" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM78" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN78" s="17" t="s">
         <v>421</v>
+      </c>
+      <c r="DP78" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ78" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR78" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS78" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU78" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH78" s="21"/>
       <c r="EW78" s="17"/>
@@ -24501,6 +26175,9 @@
         <v>166</v>
       </c>
       <c r="BS79" s="34"/>
+      <c r="BT79" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU79" s="32"/>
       <c r="BV79">
         <v>10</v>
@@ -24538,13 +26215,18 @@
       <c r="CG79" t="s">
         <v>845</v>
       </c>
+      <c r="CH79" t="s">
+        <v>845</v>
+      </c>
       <c r="CI79" t="s">
         <v>943</v>
       </c>
       <c r="CJ79" t="s">
         <v>944</v>
       </c>
-      <c r="CK79" s="16"/>
+      <c r="CK79" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP79" s="18"/>
       <c r="CQ79" s="35">
         <v>2645.28</v>
@@ -24564,19 +26246,45 @@
       <c r="DA79" s="16"/>
       <c r="DB79" s="16"/>
       <c r="DC79" s="16"/>
-      <c r="DD79" s="17"/>
-      <c r="DE79" s="17"/>
-      <c r="DF79" s="16"/>
+      <c r="DD79" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE79" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF79" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG79" s="20"/>
       <c r="DH79" s="20"/>
       <c r="DI79" s="16"/>
       <c r="DJ79" s="16"/>
-      <c r="DK79" s="16"/>
+      <c r="DK79" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL79" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM79" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN79" s="17" t="s">
         <v>421</v>
+      </c>
+      <c r="DP79" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ79" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR79" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS79" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU79" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH79" s="21"/>
       <c r="EW79" s="17"/>
@@ -24753,6 +26461,9 @@
         <v>166</v>
       </c>
       <c r="BS80" s="34"/>
+      <c r="BT80" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU80" s="32"/>
       <c r="BV80">
         <v>9</v>
@@ -24790,13 +26501,18 @@
       <c r="CG80" t="s">
         <v>845</v>
       </c>
+      <c r="CH80" t="s">
+        <v>845</v>
+      </c>
       <c r="CI80" t="s">
         <v>962</v>
       </c>
       <c r="CJ80" t="s">
         <v>960</v>
       </c>
-      <c r="CK80" s="16"/>
+      <c r="CK80" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP80" s="18"/>
       <c r="CQ80" s="35">
         <v>5241.6000000000004</v>
@@ -24816,19 +26532,45 @@
       <c r="DA80" s="16"/>
       <c r="DB80" s="16"/>
       <c r="DC80" s="16"/>
-      <c r="DD80" s="17"/>
-      <c r="DE80" s="17"/>
-      <c r="DF80" s="16"/>
+      <c r="DD80" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE80" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF80" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG80" s="20"/>
       <c r="DH80" s="20"/>
       <c r="DI80" s="16"/>
       <c r="DJ80" s="16"/>
-      <c r="DK80" s="16"/>
+      <c r="DK80" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL80" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM80" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN80" s="17" t="s">
         <v>421</v>
+      </c>
+      <c r="DP80" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ80" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR80" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS80" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU80" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH80" s="21"/>
       <c r="EW80" s="17"/>
@@ -25005,6 +26747,9 @@
         <v>166</v>
       </c>
       <c r="BS81" s="34"/>
+      <c r="BT81" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU81" s="32"/>
       <c r="BV81">
         <v>10</v>
@@ -25042,13 +26787,18 @@
       <c r="CG81" t="s">
         <v>845</v>
       </c>
+      <c r="CH81" t="s">
+        <v>845</v>
+      </c>
       <c r="CI81" t="s">
         <v>943</v>
       </c>
       <c r="CJ81" t="s">
         <v>944</v>
       </c>
-      <c r="CK81" s="16"/>
+      <c r="CK81" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP81" s="18"/>
       <c r="CQ81" s="35">
         <v>8659.92</v>
@@ -25068,19 +26818,45 @@
       <c r="DA81" s="16"/>
       <c r="DB81" s="16"/>
       <c r="DC81" s="16"/>
-      <c r="DD81" s="17"/>
-      <c r="DE81" s="17"/>
-      <c r="DF81" s="16"/>
+      <c r="DD81" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE81" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF81" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG81" s="20"/>
       <c r="DH81" s="20"/>
       <c r="DI81" s="16"/>
       <c r="DJ81" s="16"/>
-      <c r="DK81" s="16"/>
+      <c r="DK81" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL81" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM81" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN81" s="17" t="s">
         <v>421</v>
+      </c>
+      <c r="DP81" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ81" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR81" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS81" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU81" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH81" s="21"/>
       <c r="EW81" s="17"/>
@@ -25263,6 +27039,9 @@
         <v>166</v>
       </c>
       <c r="BS82" s="34"/>
+      <c r="BT82" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU82" s="32"/>
       <c r="BV82">
         <v>7</v>
@@ -25300,13 +27079,18 @@
       <c r="CG82" t="s">
         <v>845</v>
       </c>
+      <c r="CH82" t="s">
+        <v>845</v>
+      </c>
       <c r="CI82" t="s">
         <v>904</v>
       </c>
       <c r="CJ82" t="s">
         <v>905</v>
       </c>
-      <c r="CK82" s="16"/>
+      <c r="CK82" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP82" s="18"/>
       <c r="CQ82" s="35">
         <v>21211.854670329671</v>
@@ -25326,19 +27110,45 @@
       <c r="DA82" s="16"/>
       <c r="DB82" s="16"/>
       <c r="DC82" s="16"/>
-      <c r="DD82" s="17"/>
-      <c r="DE82" s="17"/>
-      <c r="DF82" s="16"/>
+      <c r="DD82" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE82" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF82" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG82" s="20"/>
       <c r="DH82" s="20"/>
       <c r="DI82" s="16"/>
       <c r="DJ82" s="16"/>
-      <c r="DK82" s="16"/>
+      <c r="DK82" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL82" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM82" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN82" s="17" t="s">
         <v>551</v>
+      </c>
+      <c r="DP82" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ82" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR82" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS82" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU82" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH82" s="21"/>
       <c r="EW82" s="17"/>
@@ -25521,6 +27331,9 @@
         <v>166</v>
       </c>
       <c r="BS83" s="34"/>
+      <c r="BT83" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU83" s="32"/>
       <c r="BV83">
         <v>7</v>
@@ -25558,13 +27371,18 @@
       <c r="CG83" t="s">
         <v>845</v>
       </c>
+      <c r="CH83" t="s">
+        <v>845</v>
+      </c>
       <c r="CI83" t="s">
         <v>904</v>
       </c>
       <c r="CJ83" t="s">
         <v>905</v>
       </c>
-      <c r="CK83" s="16"/>
+      <c r="CK83" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP83" s="18"/>
       <c r="CQ83" s="35">
         <v>39669.383241758238</v>
@@ -25584,19 +27402,45 @@
       <c r="DA83" s="16"/>
       <c r="DB83" s="16"/>
       <c r="DC83" s="16"/>
-      <c r="DD83" s="17"/>
-      <c r="DE83" s="17"/>
-      <c r="DF83" s="16"/>
+      <c r="DD83" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE83" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF83" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG83" s="20"/>
       <c r="DH83" s="20"/>
       <c r="DI83" s="16"/>
       <c r="DJ83" s="16"/>
-      <c r="DK83" s="16"/>
+      <c r="DK83" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL83" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM83" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN83" s="17" t="s">
         <v>551</v>
+      </c>
+      <c r="DP83" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ83" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR83" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS83" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU83" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH83" s="21"/>
       <c r="EW83" s="17"/>
@@ -25773,6 +27617,9 @@
         <v>166</v>
       </c>
       <c r="BS84" s="34"/>
+      <c r="BT84" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU84" s="32"/>
       <c r="BV84">
         <v>10</v>
@@ -25810,13 +27657,18 @@
       <c r="CG84" t="s">
         <v>845</v>
       </c>
+      <c r="CH84" t="s">
+        <v>845</v>
+      </c>
       <c r="CI84" t="s">
         <v>943</v>
       </c>
       <c r="CJ84" t="s">
         <v>944</v>
       </c>
-      <c r="CK84" s="16"/>
+      <c r="CK84" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP84" s="18"/>
       <c r="CQ84" s="35">
         <v>82410</v>
@@ -25836,19 +27688,45 @@
       <c r="DA84" s="16"/>
       <c r="DB84" s="16"/>
       <c r="DC84" s="16"/>
-      <c r="DD84" s="17"/>
-      <c r="DE84" s="17"/>
-      <c r="DF84" s="16"/>
+      <c r="DD84" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE84" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF84" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG84" s="20"/>
       <c r="DH84" s="20"/>
       <c r="DI84" s="16"/>
       <c r="DJ84" s="16"/>
-      <c r="DK84" s="16"/>
+      <c r="DK84" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL84" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM84" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN84" s="17" t="s">
         <v>421</v>
+      </c>
+      <c r="DP84" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ84" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR84" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS84" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU84" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH84" s="21"/>
       <c r="EW84" s="17"/>
@@ -26025,6 +27903,9 @@
         <v>166</v>
       </c>
       <c r="BS85" s="34"/>
+      <c r="BT85" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU85" s="32"/>
       <c r="BV85">
         <v>10</v>
@@ -26062,13 +27943,18 @@
       <c r="CG85" t="s">
         <v>845</v>
       </c>
+      <c r="CH85" t="s">
+        <v>845</v>
+      </c>
       <c r="CI85" t="s">
         <v>943</v>
       </c>
       <c r="CJ85" t="s">
         <v>944</v>
       </c>
-      <c r="CK85" s="16"/>
+      <c r="CK85" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP85" s="18"/>
       <c r="CQ85" s="35">
         <v>104534.64</v>
@@ -26088,19 +27974,45 @@
       <c r="DA85" s="16"/>
       <c r="DB85" s="16"/>
       <c r="DC85" s="16"/>
-      <c r="DD85" s="17"/>
-      <c r="DE85" s="17"/>
-      <c r="DF85" s="16"/>
+      <c r="DD85" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE85" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF85" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG85" s="20"/>
       <c r="DH85" s="20"/>
       <c r="DI85" s="16"/>
       <c r="DJ85" s="16"/>
-      <c r="DK85" s="16"/>
+      <c r="DK85" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL85" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM85" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN85" s="17" t="s">
         <v>421</v>
+      </c>
+      <c r="DP85" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ85" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR85" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS85" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU85" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH85" s="21"/>
       <c r="EW85" s="17"/>
@@ -26277,6 +28189,9 @@
         <v>166</v>
       </c>
       <c r="BS86" s="34"/>
+      <c r="BT86" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU86" s="32"/>
       <c r="BV86">
         <v>10</v>
@@ -26314,13 +28229,18 @@
       <c r="CG86" t="s">
         <v>845</v>
       </c>
+      <c r="CH86" t="s">
+        <v>845</v>
+      </c>
       <c r="CI86" t="s">
         <v>943</v>
       </c>
       <c r="CJ86" t="s">
         <v>944</v>
       </c>
-      <c r="CK86" s="16"/>
+      <c r="CK86" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP86" s="18"/>
       <c r="CQ86" s="35">
         <v>180000.24</v>
@@ -26340,19 +28260,45 @@
       <c r="DA86" s="16"/>
       <c r="DB86" s="16"/>
       <c r="DC86" s="16"/>
-      <c r="DD86" s="17"/>
-      <c r="DE86" s="17"/>
-      <c r="DF86" s="16"/>
+      <c r="DD86" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE86" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF86" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG86" s="20"/>
       <c r="DH86" s="20"/>
       <c r="DI86" s="16"/>
       <c r="DJ86" s="16"/>
-      <c r="DK86" s="16"/>
+      <c r="DK86" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL86" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM86" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN86" s="17" t="s">
         <v>421</v>
+      </c>
+      <c r="DP86" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ86" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR86" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS86" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU86" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH86" s="21"/>
       <c r="EW86" s="17"/>
@@ -26517,6 +28463,9 @@
         <v>166</v>
       </c>
       <c r="BS87" s="17"/>
+      <c r="BT87" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU87" s="32"/>
       <c r="BV87">
         <v>10</v>
@@ -26554,13 +28503,18 @@
       <c r="CG87" t="s">
         <v>845</v>
       </c>
+      <c r="CH87" t="s">
+        <v>845</v>
+      </c>
       <c r="CI87" t="s">
         <v>989</v>
       </c>
       <c r="CJ87" t="s">
         <v>990</v>
       </c>
-      <c r="CK87" s="16"/>
+      <c r="CK87" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP87" s="18"/>
       <c r="CQ87" s="35">
         <v>28050.112800000003</v>
@@ -26580,19 +28534,45 @@
       <c r="DA87" s="16"/>
       <c r="DB87" s="16"/>
       <c r="DC87" s="16"/>
-      <c r="DD87" s="17"/>
-      <c r="DE87" s="17"/>
-      <c r="DF87" s="16"/>
+      <c r="DD87" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE87" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF87" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG87" s="20"/>
       <c r="DH87" s="20"/>
       <c r="DI87" s="16"/>
       <c r="DJ87" s="16"/>
-      <c r="DK87" s="16"/>
+      <c r="DK87" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL87" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM87" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN87" s="17" t="s">
         <v>421</v>
+      </c>
+      <c r="DP87" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ87" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR87" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS87" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU87" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH87" s="21"/>
       <c r="EW87" s="17"/>
@@ -26759,6 +28739,9 @@
         <v>166</v>
       </c>
       <c r="BS88" s="17"/>
+      <c r="BT88" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU88" s="32"/>
       <c r="BV88">
         <v>3</v>
@@ -26794,11 +28777,16 @@
       <c r="CG88" t="s">
         <v>845</v>
       </c>
+      <c r="CH88" t="s">
+        <v>845</v>
+      </c>
       <c r="CI88"/>
       <c r="CJ88" t="s">
         <v>1002</v>
       </c>
-      <c r="CK88" s="16"/>
+      <c r="CK88" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP88" s="18"/>
       <c r="CQ88" s="35">
         <v>50691.200000000012</v>
@@ -26818,19 +28806,45 @@
       <c r="DA88" s="16"/>
       <c r="DB88" s="16"/>
       <c r="DC88" s="16"/>
-      <c r="DD88" s="17"/>
-      <c r="DE88" s="17"/>
-      <c r="DF88" s="16"/>
+      <c r="DD88" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE88" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF88" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG88" s="20"/>
       <c r="DH88" s="20"/>
       <c r="DI88" s="16"/>
       <c r="DJ88" s="16"/>
-      <c r="DK88" s="16"/>
+      <c r="DK88" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL88" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM88" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN88" s="17" t="s">
         <v>551</v>
+      </c>
+      <c r="DP88" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ88" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR88" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS88" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU88" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH88" s="21"/>
       <c r="EW88" s="17"/>
@@ -27007,6 +29021,9 @@
         <v>166</v>
       </c>
       <c r="BS89" s="34"/>
+      <c r="BT89" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU89" s="32"/>
       <c r="BV89">
         <v>10</v>
@@ -27044,13 +29061,18 @@
       <c r="CG89" t="s">
         <v>1033</v>
       </c>
+      <c r="CH89" t="s">
+        <v>1033</v>
+      </c>
       <c r="CI89" t="s">
         <v>1016</v>
       </c>
       <c r="CJ89" t="s">
         <v>1017</v>
       </c>
-      <c r="CK89" s="16"/>
+      <c r="CK89" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP89" s="18"/>
       <c r="CQ89" s="35">
         <v>29665.439999999999</v>
@@ -27070,19 +29092,45 @@
       <c r="DA89" s="16"/>
       <c r="DB89" s="16"/>
       <c r="DC89" s="16"/>
-      <c r="DD89" s="17"/>
-      <c r="DE89" s="17"/>
-      <c r="DF89" s="16"/>
+      <c r="DD89" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE89" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF89" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG89" s="20"/>
       <c r="DH89" s="20"/>
       <c r="DI89" s="16"/>
       <c r="DJ89" s="16"/>
-      <c r="DK89" s="16"/>
+      <c r="DK89" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL89" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM89" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN89" s="17" t="s">
         <v>421</v>
+      </c>
+      <c r="DP89" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ89" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR89" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS89" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU89" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH89" s="21"/>
       <c r="EW89" s="17"/>
@@ -27259,6 +29307,9 @@
         <v>166</v>
       </c>
       <c r="BS90" s="34"/>
+      <c r="BT90" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU90" s="32"/>
       <c r="BV90">
         <v>12</v>
@@ -27296,13 +29347,18 @@
       <c r="CG90" t="s">
         <v>1033</v>
       </c>
+      <c r="CH90" t="s">
+        <v>1033</v>
+      </c>
       <c r="CI90" t="s">
         <v>1038</v>
       </c>
       <c r="CJ90" t="s">
         <v>1039</v>
       </c>
-      <c r="CK90" s="16"/>
+      <c r="CK90" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP90" s="18"/>
       <c r="CQ90" s="35">
         <v>1684.612012012012</v>
@@ -27322,19 +29378,45 @@
       <c r="DA90" s="16"/>
       <c r="DB90" s="16"/>
       <c r="DC90" s="16"/>
-      <c r="DD90" s="17"/>
-      <c r="DE90" s="17"/>
-      <c r="DF90" s="16"/>
+      <c r="DD90" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE90" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF90" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG90" s="20"/>
       <c r="DH90" s="20"/>
       <c r="DI90" s="16"/>
       <c r="DJ90" s="16"/>
-      <c r="DK90" s="16"/>
+      <c r="DK90" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL90" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM90" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN90" s="17" t="s">
         <v>551</v>
+      </c>
+      <c r="DP90" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ90" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR90" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS90" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU90" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH90" s="21"/>
       <c r="EW90" s="17"/>
@@ -27511,6 +29593,9 @@
         <v>166</v>
       </c>
       <c r="BS91" s="34"/>
+      <c r="BT91" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU91" s="32"/>
       <c r="BV91">
         <v>8</v>
@@ -27548,13 +29633,18 @@
       <c r="CG91" t="s">
         <v>1033</v>
       </c>
+      <c r="CH91" t="s">
+        <v>1033</v>
+      </c>
       <c r="CI91" t="s">
         <v>1061</v>
       </c>
       <c r="CJ91" t="s">
         <v>1062</v>
       </c>
-      <c r="CK91" s="16"/>
+      <c r="CK91" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="CP91" s="18"/>
       <c r="CQ91" s="35">
         <v>2416.8988281250004</v>
@@ -27574,19 +29664,45 @@
       <c r="DA91" s="16"/>
       <c r="DB91" s="16"/>
       <c r="DC91" s="16"/>
-      <c r="DD91" s="17"/>
-      <c r="DE91" s="17"/>
-      <c r="DF91" s="16"/>
+      <c r="DD91" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE91" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF91" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="DG91" s="20"/>
       <c r="DH91" s="20"/>
       <c r="DI91" s="16"/>
       <c r="DJ91" s="16"/>
-      <c r="DK91" s="16"/>
+      <c r="DK91" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL91" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM91" s="15" t="s">
         <v>398</v>
       </c>
       <c r="DN91" s="17" t="s">
         <v>421</v>
+      </c>
+      <c r="DP91" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ91" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR91" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS91" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU91" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH91" s="21"/>
       <c r="EW91" s="17"/>

--- a/ui-testsuite/src/main/resources/TestData/ATR_Valid_EMEA_CheckMatchRegionFields.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/ATR_Valid_EMEA_CheckMatchRegionFields.xlsx
@@ -3626,7 +3626,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3636,6 +3635,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3920,26 +3920,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FF91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BF1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="CO76" workbookViewId="0">
+      <selection activeCell="CV88" sqref="CV88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="39"/>
-    <col min="3" max="3" width="14.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="38"/>
+    <col min="3" max="3" width="14.42578125" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" style="38" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="65.5703125" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="65.5703125" style="39" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="14" max="26" width="9.140625" style="39"/>
+    <col min="8" max="8" width="65.5703125" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="65.5703125" style="38" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.85546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="14" max="26" width="9.140625" style="38"/>
     <col min="27" max="27" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="10.85546875" customWidth="1"/>
@@ -3981,6 +3981,8 @@
     <col min="93" max="93" width="39.7109375" bestFit="1" customWidth="1"/>
     <col min="95" max="95" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="96" max="96" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="101" max="101" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="102" max="102" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="103" max="103" width="7.85546875" bestFit="1" customWidth="1"/>
@@ -4009,16 +4011,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="37" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -4027,61 +4029,61 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="N1" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="38" t="s">
+      <c r="O1" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="38" t="s">
+      <c r="P1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="38" t="s">
+      <c r="Q1" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="38" t="s">
+      <c r="R1" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="38" t="s">
+      <c r="S1" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="38" t="s">
+      <c r="T1" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="38" t="s">
+      <c r="U1" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="38" t="s">
+      <c r="V1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="38" t="s">
+      <c r="W1" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="38" t="s">
+      <c r="X1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="38" t="s">
+      <c r="Y1" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="38" t="s">
+      <c r="Z1" s="37" t="s">
         <v>25</v>
       </c>
       <c r="AA1" s="2" t="s">
@@ -5677,7 +5679,7 @@
       <c r="X7" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="Z7" s="40">
+      <c r="Z7" s="39">
         <v>92400</v>
       </c>
       <c r="AA7" s="24">
@@ -5946,7 +5948,7 @@
       <c r="X8" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="Z8" s="40">
+      <c r="Z8" s="39">
         <v>92400</v>
       </c>
       <c r="AA8" s="24">
@@ -6215,7 +6217,7 @@
       <c r="X9" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="Z9" s="40">
+      <c r="Z9" s="39">
         <v>92400</v>
       </c>
       <c r="AA9" s="24">
@@ -6484,7 +6486,7 @@
       <c r="X10" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="Z10" s="40">
+      <c r="Z10" s="39">
         <v>92400</v>
       </c>
       <c r="AA10" s="24">
@@ -6753,7 +6755,7 @@
       <c r="X11" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="Z11" s="40">
+      <c r="Z11" s="39">
         <v>92400</v>
       </c>
       <c r="AA11" s="24">
@@ -7022,7 +7024,7 @@
       <c r="X12" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="Z12" s="40">
+      <c r="Z12" s="39">
         <v>92400</v>
       </c>
       <c r="AA12" s="24">
@@ -7291,7 +7293,7 @@
       <c r="X13" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="Z13" s="40">
+      <c r="Z13" s="39">
         <v>92400</v>
       </c>
       <c r="AA13" s="24">
@@ -7560,7 +7562,7 @@
       <c r="X14" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="Z14" s="40">
+      <c r="Z14" s="39">
         <v>92400</v>
       </c>
       <c r="AA14" s="24">
@@ -7829,7 +7831,7 @@
       <c r="X15" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="Z15" s="40">
+      <c r="Z15" s="39">
         <v>92400</v>
       </c>
       <c r="AA15" s="24">
@@ -8098,7 +8100,7 @@
       <c r="X16" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="Z16" s="40">
+      <c r="Z16" s="39">
         <v>92400</v>
       </c>
       <c r="AA16" s="24">
@@ -8367,7 +8369,7 @@
       <c r="X17" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="Z17" s="40">
+      <c r="Z17" s="39">
         <v>92400</v>
       </c>
       <c r="AA17" s="24">
@@ -8636,7 +8638,7 @@
       <c r="X18" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="Z18" s="40">
+      <c r="Z18" s="39">
         <v>92400</v>
       </c>
       <c r="AA18" s="24">
@@ -8905,7 +8907,7 @@
       <c r="X19" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="Z19" s="40">
+      <c r="Z19" s="39">
         <v>92400</v>
       </c>
       <c r="AA19" s="24">
@@ -9174,7 +9176,7 @@
       <c r="X20" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="Z20" s="40">
+      <c r="Z20" s="39">
         <v>92400</v>
       </c>
       <c r="AA20" s="24">
@@ -9443,7 +9445,7 @@
       <c r="X21" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="Z21" s="40">
+      <c r="Z21" s="39">
         <v>92400</v>
       </c>
       <c r="AA21" s="24">
@@ -9712,7 +9714,7 @@
       <c r="X22" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="Z22" s="40">
+      <c r="Z22" s="39">
         <v>92400</v>
       </c>
       <c r="AA22" s="24">
@@ -9981,7 +9983,7 @@
       <c r="X23" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="Z23" s="40">
+      <c r="Z23" s="39">
         <v>92400</v>
       </c>
       <c r="AA23" s="24">
@@ -10250,7 +10252,7 @@
       <c r="X24" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="Z24" s="40">
+      <c r="Z24" s="39">
         <v>92400</v>
       </c>
       <c r="AA24" s="24">
@@ -10519,7 +10521,7 @@
       <c r="X25" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="Z25" s="40">
+      <c r="Z25" s="39">
         <v>92400</v>
       </c>
       <c r="AA25" s="24">
@@ -10788,7 +10790,7 @@
       <c r="X26" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="Z26" s="40">
+      <c r="Z26" s="39">
         <v>92400</v>
       </c>
       <c r="AA26" s="24">
@@ -11057,7 +11059,7 @@
       <c r="X27" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="Z27" s="40">
+      <c r="Z27" s="39">
         <v>92400</v>
       </c>
       <c r="AA27" s="24">
@@ -11326,7 +11328,7 @@
       <c r="X28" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="Z28" s="40">
+      <c r="Z28" s="39">
         <v>92400</v>
       </c>
       <c r="AA28" s="24">
@@ -11595,7 +11597,7 @@
       <c r="X29" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="Z29" s="40">
+      <c r="Z29" s="39">
         <v>92400</v>
       </c>
       <c r="AA29" s="24">
@@ -11837,53 +11839,53 @@
       <c r="G30" t="s">
         <v>399</v>
       </c>
-      <c r="H30" s="39" t="s">
+      <c r="H30" s="38" t="s">
         <v>400</v>
       </c>
-      <c r="I30" s="39" t="s">
+      <c r="I30" s="38" t="s">
         <v>401</v>
       </c>
-      <c r="J30" s="39" t="s">
+      <c r="J30" s="38" t="s">
         <v>400</v>
       </c>
-      <c r="K30" s="39" t="s">
+      <c r="K30" s="38" t="s">
         <v>402</v>
       </c>
-      <c r="L30" s="39" t="s">
+      <c r="L30" s="38" t="s">
         <v>403</v>
       </c>
-      <c r="M30" s="39" t="s">
+      <c r="M30" s="38" t="s">
         <v>399</v>
       </c>
-      <c r="N30" s="39" t="s">
+      <c r="N30" s="38" t="s">
         <v>400</v>
       </c>
-      <c r="O30" s="39" t="s">
+      <c r="O30" s="38" t="s">
         <v>402</v>
       </c>
-      <c r="P30" s="39" t="s">
+      <c r="P30" s="38" t="s">
         <v>403</v>
       </c>
-      <c r="Q30" s="39" t="s">
+      <c r="Q30" s="38" t="s">
         <v>404</v>
       </c>
-      <c r="R30" s="39" t="s">
+      <c r="R30" s="38" t="s">
         <v>405</v>
       </c>
-      <c r="S30" s="39"/>
-      <c r="T30" s="39" t="s">
+      <c r="S30" s="38"/>
+      <c r="T30" s="38" t="s">
         <v>406</v>
       </c>
-      <c r="U30" s="39"/>
-      <c r="V30" s="39"/>
-      <c r="W30" s="39"/>
-      <c r="X30" s="39" t="s">
+      <c r="U30" s="38"/>
+      <c r="V30" s="38"/>
+      <c r="W30" s="38"/>
+      <c r="X30" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="Y30" s="39" t="s">
+      <c r="Y30" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="Z30" s="39" t="s">
+      <c r="Z30" s="38" t="s">
         <v>409</v>
       </c>
       <c r="AA30" s="34">
@@ -12128,53 +12130,53 @@
       <c r="G31" t="s">
         <v>427</v>
       </c>
-      <c r="H31" s="39" t="s">
+      <c r="H31" s="38" t="s">
         <v>428</v>
       </c>
-      <c r="I31" s="39" t="s">
+      <c r="I31" s="38" t="s">
         <v>429</v>
       </c>
-      <c r="J31" s="39" t="s">
+      <c r="J31" s="38" t="s">
         <v>428</v>
       </c>
-      <c r="K31" s="39" t="s">
+      <c r="K31" s="38" t="s">
         <v>430</v>
       </c>
-      <c r="L31" s="39" t="s">
+      <c r="L31" s="38" t="s">
         <v>428</v>
       </c>
-      <c r="M31" s="39" t="s">
+      <c r="M31" s="38" t="s">
         <v>427</v>
       </c>
-      <c r="N31" s="39" t="s">
+      <c r="N31" s="38" t="s">
         <v>428</v>
       </c>
-      <c r="O31" s="39" t="s">
+      <c r="O31" s="38" t="s">
         <v>430</v>
       </c>
-      <c r="P31" s="39" t="s">
+      <c r="P31" s="38" t="s">
         <v>428</v>
       </c>
-      <c r="Q31" s="39" t="s">
+      <c r="Q31" s="38" t="s">
         <v>431</v>
       </c>
-      <c r="R31" s="39" t="s">
+      <c r="R31" s="38" t="s">
         <v>432</v>
       </c>
-      <c r="S31" s="39"/>
-      <c r="T31" s="39" t="s">
+      <c r="S31" s="38"/>
+      <c r="T31" s="38" t="s">
         <v>433</v>
       </c>
-      <c r="U31" s="39"/>
-      <c r="V31" s="39"/>
-      <c r="W31" s="39"/>
-      <c r="X31" s="39" t="s">
+      <c r="U31" s="38"/>
+      <c r="V31" s="38"/>
+      <c r="W31" s="38"/>
+      <c r="X31" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="Y31" s="39" t="s">
+      <c r="Y31" s="38" t="s">
         <v>434</v>
       </c>
-      <c r="Z31" s="39" t="s">
+      <c r="Z31" s="38" t="s">
         <v>435</v>
       </c>
       <c r="AA31" s="34">
@@ -12417,55 +12419,55 @@
       <c r="G32" t="s">
         <v>444</v>
       </c>
-      <c r="H32" s="39" t="s">
+      <c r="H32" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="I32" s="39" t="s">
+      <c r="I32" s="38" t="s">
         <v>446</v>
       </c>
-      <c r="J32" s="39" t="s">
+      <c r="J32" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="K32" s="39" t="s">
+      <c r="K32" s="38" t="s">
         <v>447</v>
       </c>
-      <c r="L32" s="39" t="s">
+      <c r="L32" s="38" t="s">
         <v>448</v>
       </c>
-      <c r="M32" s="39" t="s">
+      <c r="M32" s="38" t="s">
         <v>444</v>
       </c>
-      <c r="N32" s="39" t="s">
+      <c r="N32" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="O32" s="39" t="s">
+      <c r="O32" s="38" t="s">
         <v>447</v>
       </c>
-      <c r="P32" s="39" t="s">
+      <c r="P32" s="38" t="s">
         <v>448</v>
       </c>
-      <c r="Q32" s="39" t="s">
+      <c r="Q32" s="38" t="s">
         <v>449</v>
       </c>
-      <c r="R32" s="39" t="s">
+      <c r="R32" s="38" t="s">
         <v>450</v>
       </c>
-      <c r="S32" s="39"/>
-      <c r="T32" s="39" t="s">
+      <c r="S32" s="38"/>
+      <c r="T32" s="38" t="s">
         <v>451</v>
       </c>
-      <c r="U32" s="39" t="s">
+      <c r="U32" s="38" t="s">
         <v>452</v>
       </c>
-      <c r="V32" s="39"/>
-      <c r="W32" s="39"/>
-      <c r="X32" s="39" t="s">
+      <c r="V32" s="38"/>
+      <c r="W32" s="38"/>
+      <c r="X32" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="Y32" s="39" t="s">
+      <c r="Y32" s="38" t="s">
         <v>453</v>
       </c>
-      <c r="Z32" s="39" t="s">
+      <c r="Z32" s="38" t="s">
         <v>454</v>
       </c>
       <c r="AA32" s="34">
@@ -12708,53 +12710,53 @@
       <c r="G33" t="s">
         <v>399</v>
       </c>
-      <c r="H33" s="39" t="s">
+      <c r="H33" s="38" t="s">
         <v>400</v>
       </c>
-      <c r="I33" s="39" t="s">
+      <c r="I33" s="38" t="s">
         <v>401</v>
       </c>
-      <c r="J33" s="39" t="s">
+      <c r="J33" s="38" t="s">
         <v>400</v>
       </c>
-      <c r="K33" s="39" t="s">
+      <c r="K33" s="38" t="s">
         <v>402</v>
       </c>
-      <c r="L33" s="39" t="s">
+      <c r="L33" s="38" t="s">
         <v>403</v>
       </c>
-      <c r="M33" s="39" t="s">
+      <c r="M33" s="38" t="s">
         <v>399</v>
       </c>
-      <c r="N33" s="39" t="s">
+      <c r="N33" s="38" t="s">
         <v>400</v>
       </c>
-      <c r="O33" s="39" t="s">
+      <c r="O33" s="38" t="s">
         <v>402</v>
       </c>
-      <c r="P33" s="39" t="s">
+      <c r="P33" s="38" t="s">
         <v>403</v>
       </c>
-      <c r="Q33" s="39" t="s">
+      <c r="Q33" s="38" t="s">
         <v>404</v>
       </c>
-      <c r="R33" s="39" t="s">
+      <c r="R33" s="38" t="s">
         <v>405</v>
       </c>
-      <c r="S33" s="39"/>
-      <c r="T33" s="39" t="s">
+      <c r="S33" s="38"/>
+      <c r="T33" s="38" t="s">
         <v>406</v>
       </c>
-      <c r="U33" s="39"/>
-      <c r="V33" s="39"/>
-      <c r="W33" s="39"/>
-      <c r="X33" s="39" t="s">
+      <c r="U33" s="38"/>
+      <c r="V33" s="38"/>
+      <c r="W33" s="38"/>
+      <c r="X33" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="Y33" s="39" t="s">
+      <c r="Y33" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="Z33" s="39" t="s">
+      <c r="Z33" s="38" t="s">
         <v>409</v>
       </c>
       <c r="AA33" s="34">
@@ -12997,55 +12999,55 @@
       <c r="G34" t="s">
         <v>467</v>
       </c>
-      <c r="H34" s="39" t="s">
+      <c r="H34" s="38" t="s">
         <v>468</v>
       </c>
-      <c r="I34" s="39" t="s">
+      <c r="I34" s="38" t="s">
         <v>469</v>
       </c>
-      <c r="J34" s="39" t="s">
+      <c r="J34" s="38" t="s">
         <v>470</v>
       </c>
-      <c r="K34" s="39" t="s">
+      <c r="K34" s="38" t="s">
         <v>471</v>
       </c>
-      <c r="L34" s="39" t="s">
+      <c r="L34" s="38" t="s">
         <v>472</v>
       </c>
-      <c r="M34" s="39" t="s">
+      <c r="M34" s="38" t="s">
         <v>467</v>
       </c>
-      <c r="N34" s="39" t="s">
+      <c r="N34" s="38" t="s">
         <v>468</v>
       </c>
-      <c r="O34" s="39" t="s">
+      <c r="O34" s="38" t="s">
         <v>471</v>
       </c>
-      <c r="P34" s="39" t="s">
+      <c r="P34" s="38" t="s">
         <v>472</v>
       </c>
-      <c r="Q34" s="39" t="s">
+      <c r="Q34" s="38" t="s">
         <v>473</v>
       </c>
-      <c r="R34" s="39" t="s">
+      <c r="R34" s="38" t="s">
         <v>474</v>
       </c>
-      <c r="S34" s="39"/>
-      <c r="T34" s="39" t="s">
+      <c r="S34" s="38"/>
+      <c r="T34" s="38" t="s">
         <v>475</v>
       </c>
-      <c r="U34" s="39" t="s">
+      <c r="U34" s="38" t="s">
         <v>476</v>
       </c>
-      <c r="V34" s="39"/>
-      <c r="W34" s="39"/>
-      <c r="X34" s="39" t="s">
+      <c r="V34" s="38"/>
+      <c r="W34" s="38"/>
+      <c r="X34" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="Y34" s="39" t="s">
+      <c r="Y34" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="Z34" s="39" t="s">
+      <c r="Z34" s="38" t="s">
         <v>477</v>
       </c>
       <c r="AA34" s="34">
@@ -13286,55 +13288,55 @@
       <c r="G35" t="s">
         <v>444</v>
       </c>
-      <c r="H35" s="39" t="s">
+      <c r="H35" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="I35" s="39" t="s">
+      <c r="I35" s="38" t="s">
         <v>446</v>
       </c>
-      <c r="J35" s="39" t="s">
+      <c r="J35" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="K35" s="39" t="s">
+      <c r="K35" s="38" t="s">
         <v>447</v>
       </c>
-      <c r="L35" s="39" t="s">
+      <c r="L35" s="38" t="s">
         <v>448</v>
       </c>
-      <c r="M35" s="39" t="s">
+      <c r="M35" s="38" t="s">
         <v>444</v>
       </c>
-      <c r="N35" s="39" t="s">
+      <c r="N35" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="O35" s="39" t="s">
+      <c r="O35" s="38" t="s">
         <v>447</v>
       </c>
-      <c r="P35" s="39" t="s">
+      <c r="P35" s="38" t="s">
         <v>448</v>
       </c>
-      <c r="Q35" s="39" t="s">
+      <c r="Q35" s="38" t="s">
         <v>449</v>
       </c>
-      <c r="R35" s="39" t="s">
+      <c r="R35" s="38" t="s">
         <v>450</v>
       </c>
-      <c r="S35" s="39"/>
-      <c r="T35" s="39" t="s">
+      <c r="S35" s="38"/>
+      <c r="T35" s="38" t="s">
         <v>451</v>
       </c>
-      <c r="U35" s="39" t="s">
+      <c r="U35" s="38" t="s">
         <v>452</v>
       </c>
-      <c r="V35" s="39"/>
-      <c r="W35" s="39"/>
-      <c r="X35" s="39" t="s">
+      <c r="V35" s="38"/>
+      <c r="W35" s="38"/>
+      <c r="X35" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="Y35" s="39" t="s">
+      <c r="Y35" s="38" t="s">
         <v>453</v>
       </c>
-      <c r="Z35" s="39" t="s">
+      <c r="Z35" s="38" t="s">
         <v>454</v>
       </c>
       <c r="AA35" s="34">
@@ -13577,55 +13579,55 @@
       <c r="G36" t="s">
         <v>444</v>
       </c>
-      <c r="H36" s="39" t="s">
+      <c r="H36" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="I36" s="39" t="s">
+      <c r="I36" s="38" t="s">
         <v>446</v>
       </c>
-      <c r="J36" s="39" t="s">
+      <c r="J36" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="K36" s="39" t="s">
+      <c r="K36" s="38" t="s">
         <v>447</v>
       </c>
-      <c r="L36" s="39" t="s">
+      <c r="L36" s="38" t="s">
         <v>448</v>
       </c>
-      <c r="M36" s="39" t="s">
+      <c r="M36" s="38" t="s">
         <v>444</v>
       </c>
-      <c r="N36" s="39" t="s">
+      <c r="N36" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="O36" s="39" t="s">
+      <c r="O36" s="38" t="s">
         <v>447</v>
       </c>
-      <c r="P36" s="39" t="s">
+      <c r="P36" s="38" t="s">
         <v>448</v>
       </c>
-      <c r="Q36" s="39" t="s">
+      <c r="Q36" s="38" t="s">
         <v>449</v>
       </c>
-      <c r="R36" s="39" t="s">
+      <c r="R36" s="38" t="s">
         <v>450</v>
       </c>
-      <c r="S36" s="39"/>
-      <c r="T36" s="39" t="s">
+      <c r="S36" s="38"/>
+      <c r="T36" s="38" t="s">
         <v>451</v>
       </c>
-      <c r="U36" s="39" t="s">
+      <c r="U36" s="38" t="s">
         <v>452</v>
       </c>
-      <c r="V36" s="39"/>
-      <c r="W36" s="39"/>
-      <c r="X36" s="39" t="s">
+      <c r="V36" s="38"/>
+      <c r="W36" s="38"/>
+      <c r="X36" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="Y36" s="39" t="s">
+      <c r="Y36" s="38" t="s">
         <v>453</v>
       </c>
-      <c r="Z36" s="39" t="s">
+      <c r="Z36" s="38" t="s">
         <v>454</v>
       </c>
       <c r="AA36" s="34">
@@ -13868,55 +13870,55 @@
       <c r="G37" t="s">
         <v>444</v>
       </c>
-      <c r="H37" s="39" t="s">
+      <c r="H37" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="I37" s="39" t="s">
+      <c r="I37" s="38" t="s">
         <v>446</v>
       </c>
-      <c r="J37" s="39" t="s">
+      <c r="J37" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="K37" s="39" t="s">
+      <c r="K37" s="38" t="s">
         <v>447</v>
       </c>
-      <c r="L37" s="39" t="s">
+      <c r="L37" s="38" t="s">
         <v>448</v>
       </c>
-      <c r="M37" s="39" t="s">
+      <c r="M37" s="38" t="s">
         <v>444</v>
       </c>
-      <c r="N37" s="39" t="s">
+      <c r="N37" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="O37" s="39" t="s">
+      <c r="O37" s="38" t="s">
         <v>447</v>
       </c>
-      <c r="P37" s="39" t="s">
+      <c r="P37" s="38" t="s">
         <v>448</v>
       </c>
-      <c r="Q37" s="39" t="s">
+      <c r="Q37" s="38" t="s">
         <v>449</v>
       </c>
-      <c r="R37" s="39" t="s">
+      <c r="R37" s="38" t="s">
         <v>450</v>
       </c>
-      <c r="S37" s="39"/>
-      <c r="T37" s="39" t="s">
+      <c r="S37" s="38"/>
+      <c r="T37" s="38" t="s">
         <v>451</v>
       </c>
-      <c r="U37" s="39" t="s">
+      <c r="U37" s="38" t="s">
         <v>452</v>
       </c>
-      <c r="V37" s="39"/>
-      <c r="W37" s="39"/>
-      <c r="X37" s="39" t="s">
+      <c r="V37" s="38"/>
+      <c r="W37" s="38"/>
+      <c r="X37" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="Y37" s="39" t="s">
+      <c r="Y37" s="38" t="s">
         <v>453</v>
       </c>
-      <c r="Z37" s="39" t="s">
+      <c r="Z37" s="38" t="s">
         <v>454</v>
       </c>
       <c r="AA37" s="34">
@@ -14159,53 +14161,53 @@
       <c r="G38" t="s">
         <v>399</v>
       </c>
-      <c r="H38" s="39" t="s">
+      <c r="H38" s="38" t="s">
         <v>400</v>
       </c>
-      <c r="I38" s="39" t="s">
+      <c r="I38" s="38" t="s">
         <v>401</v>
       </c>
-      <c r="J38" s="39" t="s">
+      <c r="J38" s="38" t="s">
         <v>400</v>
       </c>
-      <c r="K38" s="39" t="s">
+      <c r="K38" s="38" t="s">
         <v>402</v>
       </c>
-      <c r="L38" s="39" t="s">
+      <c r="L38" s="38" t="s">
         <v>403</v>
       </c>
-      <c r="M38" s="39" t="s">
+      <c r="M38" s="38" t="s">
         <v>399</v>
       </c>
-      <c r="N38" s="39" t="s">
+      <c r="N38" s="38" t="s">
         <v>400</v>
       </c>
-      <c r="O38" s="39" t="s">
+      <c r="O38" s="38" t="s">
         <v>402</v>
       </c>
-      <c r="P38" s="39" t="s">
+      <c r="P38" s="38" t="s">
         <v>403</v>
       </c>
-      <c r="Q38" s="39" t="s">
+      <c r="Q38" s="38" t="s">
         <v>404</v>
       </c>
-      <c r="R38" s="39" t="s">
+      <c r="R38" s="38" t="s">
         <v>405</v>
       </c>
-      <c r="S38" s="39"/>
-      <c r="T38" s="39" t="s">
+      <c r="S38" s="38"/>
+      <c r="T38" s="38" t="s">
         <v>406</v>
       </c>
-      <c r="U38" s="39"/>
-      <c r="V38" s="39"/>
-      <c r="W38" s="39"/>
-      <c r="X38" s="39" t="s">
+      <c r="U38" s="38"/>
+      <c r="V38" s="38"/>
+      <c r="W38" s="38"/>
+      <c r="X38" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="Y38" s="39" t="s">
+      <c r="Y38" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="Z38" s="39" t="s">
+      <c r="Z38" s="38" t="s">
         <v>409</v>
       </c>
       <c r="AA38" s="34">
@@ -14450,53 +14452,53 @@
       <c r="G39" t="s">
         <v>399</v>
       </c>
-      <c r="H39" s="39" t="s">
+      <c r="H39" s="38" t="s">
         <v>400</v>
       </c>
-      <c r="I39" s="39" t="s">
+      <c r="I39" s="38" t="s">
         <v>401</v>
       </c>
-      <c r="J39" s="39" t="s">
+      <c r="J39" s="38" t="s">
         <v>400</v>
       </c>
-      <c r="K39" s="39" t="s">
+      <c r="K39" s="38" t="s">
         <v>402</v>
       </c>
-      <c r="L39" s="39" t="s">
+      <c r="L39" s="38" t="s">
         <v>403</v>
       </c>
-      <c r="M39" s="39" t="s">
+      <c r="M39" s="38" t="s">
         <v>399</v>
       </c>
-      <c r="N39" s="39" t="s">
+      <c r="N39" s="38" t="s">
         <v>400</v>
       </c>
-      <c r="O39" s="39" t="s">
+      <c r="O39" s="38" t="s">
         <v>402</v>
       </c>
-      <c r="P39" s="39" t="s">
+      <c r="P39" s="38" t="s">
         <v>403</v>
       </c>
-      <c r="Q39" s="39" t="s">
+      <c r="Q39" s="38" t="s">
         <v>404</v>
       </c>
-      <c r="R39" s="39" t="s">
+      <c r="R39" s="38" t="s">
         <v>405</v>
       </c>
-      <c r="S39" s="39"/>
-      <c r="T39" s="39" t="s">
+      <c r="S39" s="38"/>
+      <c r="T39" s="38" t="s">
         <v>406</v>
       </c>
-      <c r="U39" s="39"/>
-      <c r="V39" s="39"/>
-      <c r="W39" s="39"/>
-      <c r="X39" s="39" t="s">
+      <c r="U39" s="38"/>
+      <c r="V39" s="38"/>
+      <c r="W39" s="38"/>
+      <c r="X39" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="Y39" s="39" t="s">
+      <c r="Y39" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="Z39" s="39" t="s">
+      <c r="Z39" s="38" t="s">
         <v>409</v>
       </c>
       <c r="AA39" s="34">
@@ -14739,53 +14741,53 @@
       <c r="G40" t="s">
         <v>399</v>
       </c>
-      <c r="H40" s="39" t="s">
+      <c r="H40" s="38" t="s">
         <v>400</v>
       </c>
-      <c r="I40" s="39" t="s">
+      <c r="I40" s="38" t="s">
         <v>401</v>
       </c>
-      <c r="J40" s="39" t="s">
+      <c r="J40" s="38" t="s">
         <v>400</v>
       </c>
-      <c r="K40" s="39" t="s">
+      <c r="K40" s="38" t="s">
         <v>402</v>
       </c>
-      <c r="L40" s="39" t="s">
+      <c r="L40" s="38" t="s">
         <v>403</v>
       </c>
-      <c r="M40" s="39" t="s">
+      <c r="M40" s="38" t="s">
         <v>399</v>
       </c>
-      <c r="N40" s="39" t="s">
+      <c r="N40" s="38" t="s">
         <v>400</v>
       </c>
-      <c r="O40" s="39" t="s">
+      <c r="O40" s="38" t="s">
         <v>402</v>
       </c>
-      <c r="P40" s="39" t="s">
+      <c r="P40" s="38" t="s">
         <v>403</v>
       </c>
-      <c r="Q40" s="39" t="s">
+      <c r="Q40" s="38" t="s">
         <v>404</v>
       </c>
-      <c r="R40" s="39" t="s">
+      <c r="R40" s="38" t="s">
         <v>405</v>
       </c>
-      <c r="S40" s="39"/>
-      <c r="T40" s="39" t="s">
+      <c r="S40" s="38"/>
+      <c r="T40" s="38" t="s">
         <v>406</v>
       </c>
-      <c r="U40" s="39"/>
-      <c r="V40" s="39"/>
-      <c r="W40" s="39"/>
-      <c r="X40" s="39" t="s">
+      <c r="U40" s="38"/>
+      <c r="V40" s="38"/>
+      <c r="W40" s="38"/>
+      <c r="X40" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="Y40" s="39" t="s">
+      <c r="Y40" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="Z40" s="39" t="s">
+      <c r="Z40" s="38" t="s">
         <v>409</v>
       </c>
       <c r="AA40" s="34">
@@ -15028,53 +15030,53 @@
       <c r="G41" t="s">
         <v>499</v>
       </c>
-      <c r="H41" s="39" t="s">
+      <c r="H41" s="38" t="s">
         <v>500</v>
       </c>
-      <c r="I41" s="39" t="s">
+      <c r="I41" s="38" t="s">
         <v>501</v>
       </c>
-      <c r="J41" s="39" t="s">
+      <c r="J41" s="38" t="s">
         <v>500</v>
       </c>
-      <c r="K41" s="39" t="s">
+      <c r="K41" s="38" t="s">
         <v>502</v>
       </c>
-      <c r="L41" s="39" t="s">
+      <c r="L41" s="38" t="s">
         <v>500</v>
       </c>
-      <c r="M41" s="39" t="s">
+      <c r="M41" s="38" t="s">
         <v>499</v>
       </c>
-      <c r="N41" s="39" t="s">
+      <c r="N41" s="38" t="s">
         <v>500</v>
       </c>
-      <c r="O41" s="39" t="s">
+      <c r="O41" s="38" t="s">
         <v>502</v>
       </c>
-      <c r="P41" s="39" t="s">
+      <c r="P41" s="38" t="s">
         <v>500</v>
       </c>
-      <c r="Q41" s="39" t="s">
+      <c r="Q41" s="38" t="s">
         <v>503</v>
       </c>
-      <c r="R41" s="39" t="s">
+      <c r="R41" s="38" t="s">
         <v>504</v>
       </c>
-      <c r="S41" s="39"/>
-      <c r="T41" s="39" t="s">
+      <c r="S41" s="38"/>
+      <c r="T41" s="38" t="s">
         <v>505</v>
       </c>
-      <c r="U41" s="39"/>
-      <c r="V41" s="39"/>
-      <c r="W41" s="39"/>
-      <c r="X41" s="39" t="s">
+      <c r="U41" s="38"/>
+      <c r="V41" s="38"/>
+      <c r="W41" s="38"/>
+      <c r="X41" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="Y41" s="39" t="s">
+      <c r="Y41" s="38" t="s">
         <v>506</v>
       </c>
-      <c r="Z41" s="39" t="s">
+      <c r="Z41" s="38" t="s">
         <v>507</v>
       </c>
       <c r="AA41" s="34">
@@ -15317,55 +15319,55 @@
       <c r="G42" t="s">
         <v>499</v>
       </c>
-      <c r="H42" s="39" t="s">
+      <c r="H42" s="38" t="s">
         <v>500</v>
       </c>
-      <c r="I42" s="39" t="s">
+      <c r="I42" s="38" t="s">
         <v>501</v>
       </c>
-      <c r="J42" s="39" t="s">
+      <c r="J42" s="38" t="s">
         <v>500</v>
       </c>
-      <c r="K42" s="39" t="s">
+      <c r="K42" s="38" t="s">
         <v>502</v>
       </c>
-      <c r="L42" s="39" t="s">
+      <c r="L42" s="38" t="s">
         <v>500</v>
       </c>
-      <c r="M42" s="39" t="s">
+      <c r="M42" s="38" t="s">
         <v>499</v>
       </c>
-      <c r="N42" s="39" t="s">
+      <c r="N42" s="38" t="s">
         <v>500</v>
       </c>
-      <c r="O42" s="39" t="s">
+      <c r="O42" s="38" t="s">
         <v>502</v>
       </c>
-      <c r="P42" s="39" t="s">
+      <c r="P42" s="38" t="s">
         <v>500</v>
       </c>
-      <c r="Q42" s="39" t="s">
+      <c r="Q42" s="38" t="s">
         <v>518</v>
       </c>
-      <c r="R42" s="39" t="s">
+      <c r="R42" s="38" t="s">
         <v>519</v>
       </c>
-      <c r="S42" s="39"/>
-      <c r="T42" s="39" t="s">
+      <c r="S42" s="38"/>
+      <c r="T42" s="38" t="s">
         <v>520</v>
       </c>
-      <c r="U42" s="39"/>
-      <c r="V42" s="39"/>
-      <c r="W42" s="39" t="s">
+      <c r="U42" s="38"/>
+      <c r="V42" s="38"/>
+      <c r="W42" s="38" t="s">
         <v>521</v>
       </c>
-      <c r="X42" s="39" t="s">
+      <c r="X42" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="Y42" s="39" t="s">
+      <c r="Y42" s="38" t="s">
         <v>506</v>
       </c>
-      <c r="Z42" s="39" t="s">
+      <c r="Z42" s="38" t="s">
         <v>507</v>
       </c>
       <c r="AA42" s="34">
@@ -15610,53 +15612,53 @@
       <c r="G43" t="s">
         <v>532</v>
       </c>
-      <c r="H43" s="39" t="s">
+      <c r="H43" s="38" t="s">
         <v>533</v>
       </c>
-      <c r="I43" s="39" t="s">
+      <c r="I43" s="38" t="s">
         <v>534</v>
       </c>
-      <c r="J43" s="39" t="s">
+      <c r="J43" s="38" t="s">
         <v>533</v>
       </c>
-      <c r="K43" s="39" t="s">
+      <c r="K43" s="38" t="s">
         <v>535</v>
       </c>
-      <c r="L43" s="39" t="s">
+      <c r="L43" s="38" t="s">
         <v>536</v>
       </c>
-      <c r="M43" s="39" t="s">
+      <c r="M43" s="38" t="s">
         <v>532</v>
       </c>
-      <c r="N43" s="39" t="s">
+      <c r="N43" s="38" t="s">
         <v>533</v>
       </c>
-      <c r="O43" s="39" t="s">
+      <c r="O43" s="38" t="s">
         <v>535</v>
       </c>
-      <c r="P43" s="39" t="s">
+      <c r="P43" s="38" t="s">
         <v>536</v>
       </c>
-      <c r="Q43" s="39" t="s">
+      <c r="Q43" s="38" t="s">
         <v>537</v>
       </c>
-      <c r="R43" s="39" t="s">
+      <c r="R43" s="38" t="s">
         <v>538</v>
       </c>
-      <c r="S43" s="39"/>
-      <c r="T43" s="39" t="s">
+      <c r="S43" s="38"/>
+      <c r="T43" s="38" t="s">
         <v>539</v>
       </c>
-      <c r="U43" s="39"/>
-      <c r="V43" s="39"/>
-      <c r="W43" s="39"/>
-      <c r="X43" s="39" t="s">
+      <c r="U43" s="38"/>
+      <c r="V43" s="38"/>
+      <c r="W43" s="38"/>
+      <c r="X43" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="Y43" s="39" t="s">
+      <c r="Y43" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="Z43" s="39" t="s">
+      <c r="Z43" s="38" t="s">
         <v>540</v>
       </c>
       <c r="AA43" s="34">
@@ -15897,53 +15899,53 @@
       <c r="G44" t="s">
         <v>499</v>
       </c>
-      <c r="H44" s="39" t="s">
+      <c r="H44" s="38" t="s">
         <v>500</v>
       </c>
-      <c r="I44" s="39" t="s">
+      <c r="I44" s="38" t="s">
         <v>501</v>
       </c>
-      <c r="J44" s="39" t="s">
+      <c r="J44" s="38" t="s">
         <v>500</v>
       </c>
-      <c r="K44" s="39" t="s">
+      <c r="K44" s="38" t="s">
         <v>502</v>
       </c>
-      <c r="L44" s="39" t="s">
+      <c r="L44" s="38" t="s">
         <v>500</v>
       </c>
-      <c r="M44" s="39" t="s">
+      <c r="M44" s="38" t="s">
         <v>499</v>
       </c>
-      <c r="N44" s="39" t="s">
+      <c r="N44" s="38" t="s">
         <v>500</v>
       </c>
-      <c r="O44" s="39" t="s">
+      <c r="O44" s="38" t="s">
         <v>502</v>
       </c>
-      <c r="P44" s="39" t="s">
+      <c r="P44" s="38" t="s">
         <v>500</v>
       </c>
-      <c r="Q44" s="39" t="s">
+      <c r="Q44" s="38" t="s">
         <v>552</v>
       </c>
-      <c r="R44" s="39" t="s">
+      <c r="R44" s="38" t="s">
         <v>500</v>
       </c>
-      <c r="S44" s="39"/>
-      <c r="T44" s="39" t="s">
+      <c r="S44" s="38"/>
+      <c r="T44" s="38" t="s">
         <v>505</v>
       </c>
-      <c r="U44" s="39"/>
-      <c r="V44" s="39"/>
-      <c r="W44" s="39"/>
-      <c r="X44" s="39" t="s">
+      <c r="U44" s="38"/>
+      <c r="V44" s="38"/>
+      <c r="W44" s="38"/>
+      <c r="X44" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="Y44" s="39" t="s">
+      <c r="Y44" s="38" t="s">
         <v>506</v>
       </c>
-      <c r="Z44" s="39" t="s">
+      <c r="Z44" s="38" t="s">
         <v>507</v>
       </c>
       <c r="AA44" s="34">
@@ -16190,53 +16192,53 @@
       <c r="G45" t="s">
         <v>499</v>
       </c>
-      <c r="H45" s="39" t="s">
+      <c r="H45" s="38" t="s">
         <v>500</v>
       </c>
-      <c r="I45" s="39" t="s">
+      <c r="I45" s="38" t="s">
         <v>501</v>
       </c>
-      <c r="J45" s="39" t="s">
+      <c r="J45" s="38" t="s">
         <v>500</v>
       </c>
-      <c r="K45" s="39" t="s">
+      <c r="K45" s="38" t="s">
         <v>502</v>
       </c>
-      <c r="L45" s="39" t="s">
+      <c r="L45" s="38" t="s">
         <v>500</v>
       </c>
-      <c r="M45" s="39" t="s">
+      <c r="M45" s="38" t="s">
         <v>499</v>
       </c>
-      <c r="N45" s="39" t="s">
+      <c r="N45" s="38" t="s">
         <v>500</v>
       </c>
-      <c r="O45" s="39" t="s">
+      <c r="O45" s="38" t="s">
         <v>502</v>
       </c>
-      <c r="P45" s="39" t="s">
+      <c r="P45" s="38" t="s">
         <v>500</v>
       </c>
-      <c r="Q45" s="39" t="s">
+      <c r="Q45" s="38" t="s">
         <v>503</v>
       </c>
-      <c r="R45" s="39" t="s">
+      <c r="R45" s="38" t="s">
         <v>504</v>
       </c>
-      <c r="S45" s="39"/>
-      <c r="T45" s="39" t="s">
+      <c r="S45" s="38"/>
+      <c r="T45" s="38" t="s">
         <v>505</v>
       </c>
-      <c r="U45" s="39"/>
-      <c r="V45" s="39"/>
-      <c r="W45" s="39"/>
-      <c r="X45" s="39" t="s">
+      <c r="U45" s="38"/>
+      <c r="V45" s="38"/>
+      <c r="W45" s="38"/>
+      <c r="X45" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="Y45" s="39" t="s">
+      <c r="Y45" s="38" t="s">
         <v>506</v>
       </c>
-      <c r="Z45" s="39" t="s">
+      <c r="Z45" s="38" t="s">
         <v>507</v>
       </c>
       <c r="AA45" s="34">
@@ -16479,53 +16481,53 @@
       <c r="G46" t="s">
         <v>499</v>
       </c>
-      <c r="H46" s="39" t="s">
+      <c r="H46" s="38" t="s">
         <v>500</v>
       </c>
-      <c r="I46" s="39" t="s">
+      <c r="I46" s="38" t="s">
         <v>501</v>
       </c>
-      <c r="J46" s="39" t="s">
+      <c r="J46" s="38" t="s">
         <v>500</v>
       </c>
-      <c r="K46" s="39" t="s">
+      <c r="K46" s="38" t="s">
         <v>502</v>
       </c>
-      <c r="L46" s="39" t="s">
+      <c r="L46" s="38" t="s">
         <v>500</v>
       </c>
-      <c r="M46" s="39" t="s">
+      <c r="M46" s="38" t="s">
         <v>499</v>
       </c>
-      <c r="N46" s="39" t="s">
+      <c r="N46" s="38" t="s">
         <v>500</v>
       </c>
-      <c r="O46" s="39" t="s">
+      <c r="O46" s="38" t="s">
         <v>502</v>
       </c>
-      <c r="P46" s="39" t="s">
+      <c r="P46" s="38" t="s">
         <v>500</v>
       </c>
-      <c r="Q46" s="39" t="s">
+      <c r="Q46" s="38" t="s">
         <v>552</v>
       </c>
-      <c r="R46" s="39" t="s">
+      <c r="R46" s="38" t="s">
         <v>500</v>
       </c>
-      <c r="S46" s="39"/>
-      <c r="T46" s="39" t="s">
+      <c r="S46" s="38"/>
+      <c r="T46" s="38" t="s">
         <v>505</v>
       </c>
-      <c r="U46" s="39"/>
-      <c r="V46" s="39"/>
-      <c r="W46" s="39"/>
-      <c r="X46" s="39" t="s">
+      <c r="U46" s="38"/>
+      <c r="V46" s="38"/>
+      <c r="W46" s="38"/>
+      <c r="X46" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="Y46" s="39" t="s">
+      <c r="Y46" s="38" t="s">
         <v>506</v>
       </c>
-      <c r="Z46" s="39" t="s">
+      <c r="Z46" s="38" t="s">
         <v>507</v>
       </c>
       <c r="AA46" s="34">
@@ -16770,53 +16772,53 @@
       <c r="G47" t="s">
         <v>568</v>
       </c>
-      <c r="H47" s="39" t="s">
+      <c r="H47" s="38" t="s">
         <v>569</v>
       </c>
-      <c r="I47" s="39" t="s">
+      <c r="I47" s="38" t="s">
         <v>570</v>
       </c>
-      <c r="J47" s="39" t="s">
+      <c r="J47" s="38" t="s">
         <v>569</v>
       </c>
-      <c r="K47" s="39" t="s">
+      <c r="K47" s="38" t="s">
         <v>571</v>
       </c>
-      <c r="L47" s="39" t="s">
+      <c r="L47" s="38" t="s">
         <v>569</v>
       </c>
-      <c r="M47" s="39" t="s">
+      <c r="M47" s="38" t="s">
         <v>568</v>
       </c>
-      <c r="N47" s="39" t="s">
+      <c r="N47" s="38" t="s">
         <v>569</v>
       </c>
-      <c r="O47" s="39" t="s">
+      <c r="O47" s="38" t="s">
         <v>571</v>
       </c>
-      <c r="P47" s="39" t="s">
+      <c r="P47" s="38" t="s">
         <v>569</v>
       </c>
-      <c r="Q47" s="39" t="s">
+      <c r="Q47" s="38" t="s">
         <v>572</v>
       </c>
-      <c r="R47" s="39" t="s">
+      <c r="R47" s="38" t="s">
         <v>573</v>
       </c>
-      <c r="S47" s="39"/>
-      <c r="T47" s="39" t="s">
+      <c r="S47" s="38"/>
+      <c r="T47" s="38" t="s">
         <v>574</v>
       </c>
-      <c r="U47" s="39"/>
-      <c r="V47" s="39"/>
-      <c r="W47" s="39"/>
-      <c r="X47" s="39" t="s">
+      <c r="U47" s="38"/>
+      <c r="V47" s="38"/>
+      <c r="W47" s="38"/>
+      <c r="X47" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="Y47" s="39" t="s">
+      <c r="Y47" s="38" t="s">
         <v>575</v>
       </c>
-      <c r="Z47" s="39" t="s">
+      <c r="Z47" s="38" t="s">
         <v>576</v>
       </c>
       <c r="AA47" s="34">
@@ -17059,53 +17061,53 @@
       <c r="G48" t="s">
         <v>568</v>
       </c>
-      <c r="H48" s="39" t="s">
+      <c r="H48" s="38" t="s">
         <v>569</v>
       </c>
-      <c r="I48" s="39" t="s">
+      <c r="I48" s="38" t="s">
         <v>570</v>
       </c>
-      <c r="J48" s="39" t="s">
+      <c r="J48" s="38" t="s">
         <v>569</v>
       </c>
-      <c r="K48" s="39" t="s">
+      <c r="K48" s="38" t="s">
         <v>589</v>
       </c>
-      <c r="L48" s="39" t="s">
+      <c r="L48" s="38" t="s">
         <v>590</v>
       </c>
-      <c r="M48" s="39" t="s">
+      <c r="M48" s="38" t="s">
         <v>568</v>
       </c>
-      <c r="N48" s="39" t="s">
+      <c r="N48" s="38" t="s">
         <v>569</v>
       </c>
-      <c r="O48" s="39" t="s">
+      <c r="O48" s="38" t="s">
         <v>589</v>
       </c>
-      <c r="P48" s="39" t="s">
+      <c r="P48" s="38" t="s">
         <v>590</v>
       </c>
-      <c r="Q48" s="39" t="s">
+      <c r="Q48" s="38" t="s">
         <v>591</v>
       </c>
-      <c r="R48" s="39" t="s">
+      <c r="R48" s="38" t="s">
         <v>592</v>
       </c>
-      <c r="S48" s="39"/>
-      <c r="T48" s="39" t="s">
+      <c r="S48" s="38"/>
+      <c r="T48" s="38" t="s">
         <v>593</v>
       </c>
-      <c r="U48" s="39"/>
-      <c r="V48" s="39"/>
-      <c r="W48" s="39"/>
-      <c r="X48" s="39" t="s">
+      <c r="U48" s="38"/>
+      <c r="V48" s="38"/>
+      <c r="W48" s="38"/>
+      <c r="X48" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="Y48" s="39" t="s">
+      <c r="Y48" s="38" t="s">
         <v>594</v>
       </c>
-      <c r="Z48" s="39" t="s">
+      <c r="Z48" s="38" t="s">
         <v>595</v>
       </c>
       <c r="AA48" s="34">
@@ -17348,53 +17350,53 @@
       <c r="G49" t="s">
         <v>607</v>
       </c>
-      <c r="H49" s="39" t="s">
+      <c r="H49" s="38" t="s">
         <v>608</v>
       </c>
-      <c r="I49" s="39" t="s">
+      <c r="I49" s="38" t="s">
         <v>609</v>
       </c>
-      <c r="J49" s="39" t="s">
+      <c r="J49" s="38" t="s">
         <v>608</v>
       </c>
-      <c r="K49" s="39" t="s">
+      <c r="K49" s="38" t="s">
         <v>610</v>
       </c>
-      <c r="L49" s="39" t="s">
+      <c r="L49" s="38" t="s">
         <v>611</v>
       </c>
-      <c r="M49" s="39" t="s">
+      <c r="M49" s="38" t="s">
         <v>607</v>
       </c>
-      <c r="N49" s="39" t="s">
+      <c r="N49" s="38" t="s">
         <v>608</v>
       </c>
-      <c r="O49" s="39" t="s">
+      <c r="O49" s="38" t="s">
         <v>610</v>
       </c>
-      <c r="P49" s="39" t="s">
+      <c r="P49" s="38" t="s">
         <v>611</v>
       </c>
-      <c r="Q49" s="39" t="s">
+      <c r="Q49" s="38" t="s">
         <v>612</v>
       </c>
-      <c r="R49" s="39" t="s">
+      <c r="R49" s="38" t="s">
         <v>613</v>
       </c>
-      <c r="S49" s="39"/>
-      <c r="T49" s="39" t="s">
+      <c r="S49" s="38"/>
+      <c r="T49" s="38" t="s">
         <v>614</v>
       </c>
-      <c r="U49" s="39"/>
-      <c r="V49" s="39"/>
-      <c r="W49" s="39"/>
-      <c r="X49" s="39" t="s">
+      <c r="U49" s="38"/>
+      <c r="V49" s="38"/>
+      <c r="W49" s="38"/>
+      <c r="X49" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="Y49" s="39" t="s">
+      <c r="Y49" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="Z49" s="39" t="s">
+      <c r="Z49" s="38" t="s">
         <v>615</v>
       </c>
       <c r="AA49" s="34">
@@ -17635,53 +17637,53 @@
       <c r="G50" t="s">
         <v>607</v>
       </c>
-      <c r="H50" s="39" t="s">
+      <c r="H50" s="38" t="s">
         <v>608</v>
       </c>
-      <c r="I50" s="39" t="s">
+      <c r="I50" s="38" t="s">
         <v>609</v>
       </c>
-      <c r="J50" s="39" t="s">
+      <c r="J50" s="38" t="s">
         <v>608</v>
       </c>
-      <c r="K50" s="39" t="s">
+      <c r="K50" s="38" t="s">
         <v>610</v>
       </c>
-      <c r="L50" s="39" t="s">
+      <c r="L50" s="38" t="s">
         <v>611</v>
       </c>
-      <c r="M50" s="39" t="s">
+      <c r="M50" s="38" t="s">
         <v>607</v>
       </c>
-      <c r="N50" s="39" t="s">
+      <c r="N50" s="38" t="s">
         <v>608</v>
       </c>
-      <c r="O50" s="39" t="s">
+      <c r="O50" s="38" t="s">
         <v>610</v>
       </c>
-      <c r="P50" s="39" t="s">
+      <c r="P50" s="38" t="s">
         <v>611</v>
       </c>
-      <c r="Q50" s="39" t="s">
+      <c r="Q50" s="38" t="s">
         <v>612</v>
       </c>
-      <c r="R50" s="39" t="s">
+      <c r="R50" s="38" t="s">
         <v>613</v>
       </c>
-      <c r="S50" s="39"/>
-      <c r="T50" s="39" t="s">
+      <c r="S50" s="38"/>
+      <c r="T50" s="38" t="s">
         <v>614</v>
       </c>
-      <c r="U50" s="39"/>
-      <c r="V50" s="39"/>
-      <c r="W50" s="39"/>
-      <c r="X50" s="39" t="s">
+      <c r="U50" s="38"/>
+      <c r="V50" s="38"/>
+      <c r="W50" s="38"/>
+      <c r="X50" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="Y50" s="39" t="s">
+      <c r="Y50" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="Z50" s="39" t="s">
+      <c r="Z50" s="38" t="s">
         <v>615</v>
       </c>
       <c r="AA50" s="34">
@@ -17928,55 +17930,55 @@
       <c r="G51" t="s">
         <v>607</v>
       </c>
-      <c r="H51" s="39" t="s">
+      <c r="H51" s="38" t="s">
         <v>608</v>
       </c>
-      <c r="I51" s="39" t="s">
+      <c r="I51" s="38" t="s">
         <v>609</v>
       </c>
-      <c r="J51" s="39" t="s">
+      <c r="J51" s="38" t="s">
         <v>608</v>
       </c>
-      <c r="K51" s="39" t="s">
+      <c r="K51" s="38" t="s">
         <v>610</v>
       </c>
-      <c r="L51" s="39" t="s">
+      <c r="L51" s="38" t="s">
         <v>611</v>
       </c>
-      <c r="M51" s="39" t="s">
+      <c r="M51" s="38" t="s">
         <v>607</v>
       </c>
-      <c r="N51" s="39" t="s">
+      <c r="N51" s="38" t="s">
         <v>608</v>
       </c>
-      <c r="O51" s="39" t="s">
+      <c r="O51" s="38" t="s">
         <v>610</v>
       </c>
-      <c r="P51" s="39" t="s">
+      <c r="P51" s="38" t="s">
         <v>611</v>
       </c>
-      <c r="Q51" s="39" t="s">
+      <c r="Q51" s="38" t="s">
         <v>637</v>
       </c>
-      <c r="R51" s="39" t="s">
+      <c r="R51" s="38" t="s">
         <v>638</v>
       </c>
-      <c r="S51" s="39"/>
-      <c r="T51" s="39" t="s">
+      <c r="S51" s="38"/>
+      <c r="T51" s="38" t="s">
         <v>639</v>
       </c>
-      <c r="U51" s="39"/>
-      <c r="V51" s="39"/>
-      <c r="W51" s="39" t="s">
+      <c r="U51" s="38"/>
+      <c r="V51" s="38"/>
+      <c r="W51" s="38" t="s">
         <v>640</v>
       </c>
-      <c r="X51" s="39" t="s">
+      <c r="X51" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="Y51" s="39" t="s">
+      <c r="Y51" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="Z51" s="39" t="s">
+      <c r="Z51" s="38" t="s">
         <v>641</v>
       </c>
       <c r="AA51" s="34">
@@ -18219,55 +18221,55 @@
       <c r="G52" t="s">
         <v>653</v>
       </c>
-      <c r="H52" s="39" t="s">
+      <c r="H52" s="38" t="s">
         <v>654</v>
       </c>
-      <c r="I52" s="39" t="s">
+      <c r="I52" s="38" t="s">
         <v>655</v>
       </c>
-      <c r="J52" s="39" t="s">
+      <c r="J52" s="38" t="s">
         <v>654</v>
       </c>
-      <c r="K52" s="39" t="s">
+      <c r="K52" s="38" t="s">
         <v>656</v>
       </c>
-      <c r="L52" s="39" t="s">
+      <c r="L52" s="38" t="s">
         <v>654</v>
       </c>
-      <c r="M52" s="39" t="s">
+      <c r="M52" s="38" t="s">
         <v>653</v>
       </c>
-      <c r="N52" s="39" t="s">
+      <c r="N52" s="38" t="s">
         <v>654</v>
       </c>
-      <c r="O52" s="39" t="s">
+      <c r="O52" s="38" t="s">
         <v>656</v>
       </c>
-      <c r="P52" s="39" t="s">
+      <c r="P52" s="38" t="s">
         <v>654</v>
       </c>
-      <c r="Q52" s="39" t="s">
+      <c r="Q52" s="38" t="s">
         <v>657</v>
       </c>
-      <c r="R52" s="39" t="s">
+      <c r="R52" s="38" t="s">
         <v>658</v>
       </c>
-      <c r="S52" s="39"/>
-      <c r="T52" s="39" t="s">
+      <c r="S52" s="38"/>
+      <c r="T52" s="38" t="s">
         <v>659</v>
       </c>
-      <c r="U52" s="39" t="s">
+      <c r="U52" s="38" t="s">
         <v>660</v>
       </c>
-      <c r="V52" s="39"/>
-      <c r="W52" s="39"/>
-      <c r="X52" s="39" t="s">
+      <c r="V52" s="38"/>
+      <c r="W52" s="38"/>
+      <c r="X52" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="Y52" s="39" t="s">
+      <c r="Y52" s="38" t="s">
         <v>661</v>
       </c>
-      <c r="Z52" s="39" t="s">
+      <c r="Z52" s="38" t="s">
         <v>662</v>
       </c>
       <c r="AA52" s="34">
@@ -18511,55 +18513,55 @@
       <c r="G53" t="s">
         <v>653</v>
       </c>
-      <c r="H53" s="39" t="s">
+      <c r="H53" s="38" t="s">
         <v>654</v>
       </c>
-      <c r="I53" s="39" t="s">
+      <c r="I53" s="38" t="s">
         <v>655</v>
       </c>
-      <c r="J53" s="39" t="s">
+      <c r="J53" s="38" t="s">
         <v>654</v>
       </c>
-      <c r="K53" s="39" t="s">
+      <c r="K53" s="38" t="s">
         <v>656</v>
       </c>
-      <c r="L53" s="39" t="s">
+      <c r="L53" s="38" t="s">
         <v>654</v>
       </c>
-      <c r="M53" s="39" t="s">
+      <c r="M53" s="38" t="s">
         <v>653</v>
       </c>
-      <c r="N53" s="39" t="s">
+      <c r="N53" s="38" t="s">
         <v>654</v>
       </c>
-      <c r="O53" s="39" t="s">
+      <c r="O53" s="38" t="s">
         <v>656</v>
       </c>
-      <c r="P53" s="39" t="s">
+      <c r="P53" s="38" t="s">
         <v>654</v>
       </c>
-      <c r="Q53" s="39" t="s">
+      <c r="Q53" s="38" t="s">
         <v>657</v>
       </c>
-      <c r="R53" s="39" t="s">
+      <c r="R53" s="38" t="s">
         <v>658</v>
       </c>
-      <c r="S53" s="39"/>
-      <c r="T53" s="39" t="s">
+      <c r="S53" s="38"/>
+      <c r="T53" s="38" t="s">
         <v>659</v>
       </c>
-      <c r="U53" s="39" t="s">
+      <c r="U53" s="38" t="s">
         <v>660</v>
       </c>
-      <c r="V53" s="39"/>
-      <c r="W53" s="39"/>
-      <c r="X53" s="39" t="s">
+      <c r="V53" s="38"/>
+      <c r="W53" s="38"/>
+      <c r="X53" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="Y53" s="39" t="s">
+      <c r="Y53" s="38" t="s">
         <v>661</v>
       </c>
-      <c r="Z53" s="39" t="s">
+      <c r="Z53" s="38" t="s">
         <v>662</v>
       </c>
       <c r="AA53" s="34">
@@ -18805,53 +18807,53 @@
       <c r="G54" t="s">
         <v>653</v>
       </c>
-      <c r="H54" s="39" t="s">
+      <c r="H54" s="38" t="s">
         <v>654</v>
       </c>
-      <c r="I54" s="39" t="s">
+      <c r="I54" s="38" t="s">
         <v>655</v>
       </c>
-      <c r="J54" s="39" t="s">
+      <c r="J54" s="38" t="s">
         <v>654</v>
       </c>
-      <c r="K54" s="39" t="s">
+      <c r="K54" s="38" t="s">
         <v>656</v>
       </c>
-      <c r="L54" s="39" t="s">
+      <c r="L54" s="38" t="s">
         <v>654</v>
       </c>
-      <c r="M54" s="39" t="s">
+      <c r="M54" s="38" t="s">
         <v>653</v>
       </c>
-      <c r="N54" s="39" t="s">
+      <c r="N54" s="38" t="s">
         <v>654</v>
       </c>
-      <c r="O54" s="39" t="s">
+      <c r="O54" s="38" t="s">
         <v>656</v>
       </c>
-      <c r="P54" s="39" t="s">
+      <c r="P54" s="38" t="s">
         <v>654</v>
       </c>
-      <c r="Q54" s="39" t="s">
+      <c r="Q54" s="38" t="s">
         <v>677</v>
       </c>
-      <c r="R54" s="39" t="s">
+      <c r="R54" s="38" t="s">
         <v>678</v>
       </c>
-      <c r="S54" s="39"/>
-      <c r="T54" s="39" t="s">
+      <c r="S54" s="38"/>
+      <c r="T54" s="38" t="s">
         <v>679</v>
       </c>
-      <c r="U54" s="39"/>
-      <c r="V54" s="39"/>
-      <c r="W54" s="39"/>
-      <c r="X54" s="39" t="s">
+      <c r="U54" s="38"/>
+      <c r="V54" s="38"/>
+      <c r="W54" s="38"/>
+      <c r="X54" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="Y54" s="39" t="s">
+      <c r="Y54" s="38" t="s">
         <v>680</v>
       </c>
-      <c r="Z54" s="39" t="s">
+      <c r="Z54" s="38" t="s">
         <v>681</v>
       </c>
       <c r="AA54" s="34">
@@ -19089,55 +19091,55 @@
       <c r="G55" t="s">
         <v>692</v>
       </c>
-      <c r="H55" s="39" t="s">
+      <c r="H55" s="38" t="s">
         <v>693</v>
       </c>
-      <c r="I55" s="39" t="s">
+      <c r="I55" s="38" t="s">
         <v>694</v>
       </c>
-      <c r="J55" s="39" t="s">
+      <c r="J55" s="38" t="s">
         <v>693</v>
       </c>
-      <c r="K55" s="39" t="s">
+      <c r="K55" s="38" t="s">
         <v>695</v>
       </c>
-      <c r="L55" s="39" t="s">
+      <c r="L55" s="38" t="s">
         <v>693</v>
       </c>
-      <c r="M55" s="39" t="s">
+      <c r="M55" s="38" t="s">
         <v>692</v>
       </c>
-      <c r="N55" s="39" t="s">
+      <c r="N55" s="38" t="s">
         <v>693</v>
       </c>
-      <c r="O55" s="39" t="s">
+      <c r="O55" s="38" t="s">
         <v>695</v>
       </c>
-      <c r="P55" s="39" t="s">
+      <c r="P55" s="38" t="s">
         <v>693</v>
       </c>
-      <c r="Q55" s="39" t="s">
+      <c r="Q55" s="38" t="s">
         <v>696</v>
       </c>
-      <c r="R55" s="39" t="s">
+      <c r="R55" s="38" t="s">
         <v>693</v>
       </c>
-      <c r="S55" s="39"/>
-      <c r="T55" s="39" t="s">
+      <c r="S55" s="38"/>
+      <c r="T55" s="38" t="s">
         <v>697</v>
       </c>
-      <c r="U55" s="39"/>
-      <c r="V55" s="39"/>
-      <c r="W55" s="39" t="s">
+      <c r="U55" s="38"/>
+      <c r="V55" s="38"/>
+      <c r="W55" s="38" t="s">
         <v>698</v>
       </c>
-      <c r="X55" s="39" t="s">
+      <c r="X55" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="Y55" s="39" t="s">
+      <c r="Y55" s="38" t="s">
         <v>325</v>
       </c>
-      <c r="Z55" s="39" t="s">
+      <c r="Z55" s="38" t="s">
         <v>699</v>
       </c>
       <c r="AA55" s="34">
@@ -19373,55 +19375,55 @@
       <c r="G56" t="s">
         <v>692</v>
       </c>
-      <c r="H56" s="39" t="s">
+      <c r="H56" s="38" t="s">
         <v>693</v>
       </c>
-      <c r="I56" s="39" t="s">
+      <c r="I56" s="38" t="s">
         <v>694</v>
       </c>
-      <c r="J56" s="39" t="s">
+      <c r="J56" s="38" t="s">
         <v>693</v>
       </c>
-      <c r="K56" s="39" t="s">
+      <c r="K56" s="38" t="s">
         <v>695</v>
       </c>
-      <c r="L56" s="39" t="s">
+      <c r="L56" s="38" t="s">
         <v>693</v>
       </c>
-      <c r="M56" s="39" t="s">
+      <c r="M56" s="38" t="s">
         <v>692</v>
       </c>
-      <c r="N56" s="39" t="s">
+      <c r="N56" s="38" t="s">
         <v>693</v>
       </c>
-      <c r="O56" s="39" t="s">
+      <c r="O56" s="38" t="s">
         <v>695</v>
       </c>
-      <c r="P56" s="39" t="s">
+      <c r="P56" s="38" t="s">
         <v>693</v>
       </c>
-      <c r="Q56" s="39" t="s">
+      <c r="Q56" s="38" t="s">
         <v>696</v>
       </c>
-      <c r="R56" s="39" t="s">
+      <c r="R56" s="38" t="s">
         <v>693</v>
       </c>
-      <c r="S56" s="39"/>
-      <c r="T56" s="39" t="s">
+      <c r="S56" s="38"/>
+      <c r="T56" s="38" t="s">
         <v>697</v>
       </c>
-      <c r="U56" s="39"/>
-      <c r="V56" s="39"/>
-      <c r="W56" s="39" t="s">
+      <c r="U56" s="38"/>
+      <c r="V56" s="38"/>
+      <c r="W56" s="38" t="s">
         <v>698</v>
       </c>
-      <c r="X56" s="39" t="s">
+      <c r="X56" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="Y56" s="39" t="s">
+      <c r="Y56" s="38" t="s">
         <v>325</v>
       </c>
-      <c r="Z56" s="39" t="s">
+      <c r="Z56" s="38" t="s">
         <v>699</v>
       </c>
       <c r="AA56" s="34">
@@ -19657,55 +19659,55 @@
       <c r="G57" t="s">
         <v>653</v>
       </c>
-      <c r="H57" s="39" t="s">
+      <c r="H57" s="38" t="s">
         <v>654</v>
       </c>
-      <c r="I57" s="39" t="s">
+      <c r="I57" s="38" t="s">
         <v>655</v>
       </c>
-      <c r="J57" s="39" t="s">
+      <c r="J57" s="38" t="s">
         <v>654</v>
       </c>
-      <c r="K57" s="39" t="s">
+      <c r="K57" s="38" t="s">
         <v>656</v>
       </c>
-      <c r="L57" s="39" t="s">
+      <c r="L57" s="38" t="s">
         <v>654</v>
       </c>
-      <c r="M57" s="39" t="s">
+      <c r="M57" s="38" t="s">
         <v>653</v>
       </c>
-      <c r="N57" s="39" t="s">
+      <c r="N57" s="38" t="s">
         <v>654</v>
       </c>
-      <c r="O57" s="39" t="s">
+      <c r="O57" s="38" t="s">
         <v>656</v>
       </c>
-      <c r="P57" s="39" t="s">
+      <c r="P57" s="38" t="s">
         <v>654</v>
       </c>
-      <c r="Q57" s="39" t="s">
+      <c r="Q57" s="38" t="s">
         <v>714</v>
       </c>
-      <c r="R57" s="39" t="s">
+      <c r="R57" s="38" t="s">
         <v>687</v>
       </c>
-      <c r="S57" s="39"/>
-      <c r="T57" s="39" t="s">
+      <c r="S57" s="38"/>
+      <c r="T57" s="38" t="s">
         <v>715</v>
       </c>
-      <c r="U57" s="39"/>
-      <c r="V57" s="39" t="s">
+      <c r="U57" s="38"/>
+      <c r="V57" s="38" t="s">
         <v>716</v>
       </c>
-      <c r="W57" s="39"/>
-      <c r="X57" s="39" t="s">
+      <c r="W57" s="38"/>
+      <c r="X57" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="Y57" s="39" t="s">
+      <c r="Y57" s="38" t="s">
         <v>680</v>
       </c>
-      <c r="Z57" s="39" t="s">
+      <c r="Z57" s="38" t="s">
         <v>717</v>
       </c>
       <c r="AA57" s="34">
@@ -19943,53 +19945,53 @@
       <c r="G58" t="s">
         <v>723</v>
       </c>
-      <c r="H58" s="39" t="s">
+      <c r="H58" s="38" t="s">
         <v>724</v>
       </c>
-      <c r="I58" s="39" t="s">
+      <c r="I58" s="38" t="s">
         <v>725</v>
       </c>
-      <c r="J58" s="39" t="s">
+      <c r="J58" s="38" t="s">
         <v>724</v>
       </c>
-      <c r="K58" s="39" t="s">
+      <c r="K58" s="38" t="s">
         <v>726</v>
       </c>
-      <c r="L58" s="39" t="s">
+      <c r="L58" s="38" t="s">
         <v>724</v>
       </c>
-      <c r="M58" s="39" t="s">
+      <c r="M58" s="38" t="s">
         <v>723</v>
       </c>
-      <c r="N58" s="39" t="s">
+      <c r="N58" s="38" t="s">
         <v>724</v>
       </c>
-      <c r="O58" s="39" t="s">
+      <c r="O58" s="38" t="s">
         <v>726</v>
       </c>
-      <c r="P58" s="39" t="s">
+      <c r="P58" s="38" t="s">
         <v>724</v>
       </c>
-      <c r="Q58" s="39" t="s">
+      <c r="Q58" s="38" t="s">
         <v>727</v>
       </c>
-      <c r="R58" s="39" t="s">
+      <c r="R58" s="38" t="s">
         <v>728</v>
       </c>
-      <c r="S58" s="39"/>
-      <c r="T58" s="39" t="s">
+      <c r="S58" s="38"/>
+      <c r="T58" s="38" t="s">
         <v>729</v>
       </c>
-      <c r="U58" s="39"/>
-      <c r="V58" s="39"/>
-      <c r="W58" s="39"/>
-      <c r="X58" s="39" t="s">
+      <c r="U58" s="38"/>
+      <c r="V58" s="38"/>
+      <c r="W58" s="38"/>
+      <c r="X58" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="Y58" s="39" t="s">
+      <c r="Y58" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="Z58" s="39" t="s">
+      <c r="Z58" s="38" t="s">
         <v>730</v>
       </c>
       <c r="AA58" s="34">
@@ -20225,53 +20227,53 @@
       <c r="G59" t="s">
         <v>740</v>
       </c>
-      <c r="H59" s="39" t="s">
+      <c r="H59" s="38" t="s">
         <v>741</v>
       </c>
-      <c r="I59" s="39" t="s">
+      <c r="I59" s="38" t="s">
         <v>742</v>
       </c>
-      <c r="J59" s="39" t="s">
+      <c r="J59" s="38" t="s">
         <v>741</v>
       </c>
-      <c r="K59" s="39" t="s">
+      <c r="K59" s="38" t="s">
         <v>743</v>
       </c>
-      <c r="L59" s="39" t="s">
+      <c r="L59" s="38" t="s">
         <v>741</v>
       </c>
-      <c r="M59" s="39" t="s">
+      <c r="M59" s="38" t="s">
         <v>740</v>
       </c>
-      <c r="N59" s="39" t="s">
+      <c r="N59" s="38" t="s">
         <v>741</v>
       </c>
-      <c r="O59" s="39" t="s">
+      <c r="O59" s="38" t="s">
         <v>743</v>
       </c>
-      <c r="P59" s="39" t="s">
+      <c r="P59" s="38" t="s">
         <v>741</v>
       </c>
-      <c r="Q59" s="39" t="s">
+      <c r="Q59" s="38" t="s">
         <v>744</v>
       </c>
-      <c r="R59" s="39" t="s">
+      <c r="R59" s="38" t="s">
         <v>745</v>
       </c>
-      <c r="S59" s="39"/>
-      <c r="T59" s="39" t="s">
+      <c r="S59" s="38"/>
+      <c r="T59" s="38" t="s">
         <v>746</v>
       </c>
-      <c r="U59" s="39"/>
-      <c r="V59" s="39"/>
-      <c r="W59" s="39"/>
-      <c r="X59" s="39" t="s">
+      <c r="U59" s="38"/>
+      <c r="V59" s="38"/>
+      <c r="W59" s="38"/>
+      <c r="X59" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="Y59" s="39" t="s">
+      <c r="Y59" s="38" t="s">
         <v>747</v>
       </c>
-      <c r="Z59" s="39" t="s">
+      <c r="Z59" s="38" t="s">
         <v>748</v>
       </c>
       <c r="AA59" s="34">
@@ -20511,53 +20513,53 @@
       <c r="G60" t="s">
         <v>740</v>
       </c>
-      <c r="H60" s="39" t="s">
+      <c r="H60" s="38" t="s">
         <v>741</v>
       </c>
-      <c r="I60" s="39" t="s">
+      <c r="I60" s="38" t="s">
         <v>742</v>
       </c>
-      <c r="J60" s="39" t="s">
+      <c r="J60" s="38" t="s">
         <v>741</v>
       </c>
-      <c r="K60" s="39" t="s">
+      <c r="K60" s="38" t="s">
         <v>743</v>
       </c>
-      <c r="L60" s="39" t="s">
+      <c r="L60" s="38" t="s">
         <v>741</v>
       </c>
-      <c r="M60" s="39" t="s">
+      <c r="M60" s="38" t="s">
         <v>740</v>
       </c>
-      <c r="N60" s="39" t="s">
+      <c r="N60" s="38" t="s">
         <v>741</v>
       </c>
-      <c r="O60" s="39" t="s">
+      <c r="O60" s="38" t="s">
         <v>743</v>
       </c>
-      <c r="P60" s="39" t="s">
+      <c r="P60" s="38" t="s">
         <v>741</v>
       </c>
-      <c r="Q60" s="39" t="s">
+      <c r="Q60" s="38" t="s">
         <v>744</v>
       </c>
-      <c r="R60" s="39" t="s">
+      <c r="R60" s="38" t="s">
         <v>745</v>
       </c>
-      <c r="S60" s="39"/>
-      <c r="T60" s="39" t="s">
+      <c r="S60" s="38"/>
+      <c r="T60" s="38" t="s">
         <v>746</v>
       </c>
-      <c r="U60" s="39"/>
-      <c r="V60" s="39"/>
-      <c r="W60" s="39"/>
-      <c r="X60" s="39" t="s">
+      <c r="U60" s="38"/>
+      <c r="V60" s="38"/>
+      <c r="W60" s="38"/>
+      <c r="X60" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="Y60" s="39" t="s">
+      <c r="Y60" s="38" t="s">
         <v>747</v>
       </c>
-      <c r="Z60" s="39" t="s">
+      <c r="Z60" s="38" t="s">
         <v>748</v>
       </c>
       <c r="AA60" s="34">
@@ -20797,53 +20799,53 @@
       <c r="G61" t="s">
         <v>769</v>
       </c>
-      <c r="H61" s="39" t="s">
+      <c r="H61" s="38" t="s">
         <v>770</v>
       </c>
-      <c r="I61" s="39" t="s">
+      <c r="I61" s="38" t="s">
         <v>771</v>
       </c>
-      <c r="J61" s="39" t="s">
+      <c r="J61" s="38" t="s">
         <v>770</v>
       </c>
-      <c r="K61" s="39" t="s">
+      <c r="K61" s="38" t="s">
         <v>772</v>
       </c>
-      <c r="L61" s="39" t="s">
+      <c r="L61" s="38" t="s">
         <v>770</v>
       </c>
-      <c r="M61" s="39" t="s">
+      <c r="M61" s="38" t="s">
         <v>769</v>
       </c>
-      <c r="N61" s="39" t="s">
+      <c r="N61" s="38" t="s">
         <v>770</v>
       </c>
-      <c r="O61" s="39" t="s">
+      <c r="O61" s="38" t="s">
         <v>772</v>
       </c>
-      <c r="P61" s="39" t="s">
+      <c r="P61" s="38" t="s">
         <v>770</v>
       </c>
-      <c r="Q61" s="39" t="s">
+      <c r="Q61" s="38" t="s">
         <v>773</v>
       </c>
-      <c r="R61" s="39" t="s">
+      <c r="R61" s="38" t="s">
         <v>770</v>
       </c>
-      <c r="S61" s="39"/>
-      <c r="T61" s="39" t="s">
+      <c r="S61" s="38"/>
+      <c r="T61" s="38" t="s">
         <v>774</v>
       </c>
-      <c r="U61" s="39"/>
-      <c r="V61" s="39"/>
-      <c r="W61" s="39"/>
-      <c r="X61" s="39" t="s">
+      <c r="U61" s="38"/>
+      <c r="V61" s="38"/>
+      <c r="W61" s="38"/>
+      <c r="X61" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="Y61" s="39" t="s">
+      <c r="Y61" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="Z61" s="39" t="s">
+      <c r="Z61" s="38" t="s">
         <v>775</v>
       </c>
       <c r="AA61" s="34">
@@ -21089,53 +21091,53 @@
       <c r="G62" t="s">
         <v>769</v>
       </c>
-      <c r="H62" s="39" t="s">
+      <c r="H62" s="38" t="s">
         <v>770</v>
       </c>
-      <c r="I62" s="39" t="s">
+      <c r="I62" s="38" t="s">
         <v>771</v>
       </c>
-      <c r="J62" s="39" t="s">
+      <c r="J62" s="38" t="s">
         <v>770</v>
       </c>
-      <c r="K62" s="39" t="s">
+      <c r="K62" s="38" t="s">
         <v>772</v>
       </c>
-      <c r="L62" s="39" t="s">
+      <c r="L62" s="38" t="s">
         <v>770</v>
       </c>
-      <c r="M62" s="39" t="s">
+      <c r="M62" s="38" t="s">
         <v>769</v>
       </c>
-      <c r="N62" s="39" t="s">
+      <c r="N62" s="38" t="s">
         <v>770</v>
       </c>
-      <c r="O62" s="39" t="s">
+      <c r="O62" s="38" t="s">
         <v>772</v>
       </c>
-      <c r="P62" s="39" t="s">
+      <c r="P62" s="38" t="s">
         <v>770</v>
       </c>
-      <c r="Q62" s="39" t="s">
+      <c r="Q62" s="38" t="s">
         <v>773</v>
       </c>
-      <c r="R62" s="39" t="s">
+      <c r="R62" s="38" t="s">
         <v>770</v>
       </c>
-      <c r="S62" s="39"/>
-      <c r="T62" s="39" t="s">
+      <c r="S62" s="38"/>
+      <c r="T62" s="38" t="s">
         <v>774</v>
       </c>
-      <c r="U62" s="39"/>
-      <c r="V62" s="39"/>
-      <c r="W62" s="39"/>
-      <c r="X62" s="39" t="s">
+      <c r="U62" s="38"/>
+      <c r="V62" s="38"/>
+      <c r="W62" s="38"/>
+      <c r="X62" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="Y62" s="39" t="s">
+      <c r="Y62" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="Z62" s="39" t="s">
+      <c r="Z62" s="38" t="s">
         <v>775</v>
       </c>
       <c r="AA62" s="34">
@@ -21379,53 +21381,53 @@
       <c r="G63" t="s">
         <v>740</v>
       </c>
-      <c r="H63" s="39" t="s">
+      <c r="H63" s="38" t="s">
         <v>741</v>
       </c>
-      <c r="I63" s="39" t="s">
+      <c r="I63" s="38" t="s">
         <v>742</v>
       </c>
-      <c r="J63" s="39" t="s">
+      <c r="J63" s="38" t="s">
         <v>741</v>
       </c>
-      <c r="K63" s="39" t="s">
+      <c r="K63" s="38" t="s">
         <v>743</v>
       </c>
-      <c r="L63" s="39" t="s">
+      <c r="L63" s="38" t="s">
         <v>741</v>
       </c>
-      <c r="M63" s="39" t="s">
+      <c r="M63" s="38" t="s">
         <v>740</v>
       </c>
-      <c r="N63" s="39" t="s">
+      <c r="N63" s="38" t="s">
         <v>741</v>
       </c>
-      <c r="O63" s="39" t="s">
+      <c r="O63" s="38" t="s">
         <v>743</v>
       </c>
-      <c r="P63" s="39" t="s">
+      <c r="P63" s="38" t="s">
         <v>741</v>
       </c>
-      <c r="Q63" s="39" t="s">
+      <c r="Q63" s="38" t="s">
         <v>789</v>
       </c>
-      <c r="R63" s="39" t="s">
+      <c r="R63" s="38" t="s">
         <v>745</v>
       </c>
-      <c r="S63" s="39"/>
-      <c r="T63" s="39" t="s">
+      <c r="S63" s="38"/>
+      <c r="T63" s="38" t="s">
         <v>790</v>
       </c>
-      <c r="U63" s="39"/>
-      <c r="V63" s="39"/>
-      <c r="W63" s="39"/>
-      <c r="X63" s="39" t="s">
+      <c r="U63" s="38"/>
+      <c r="V63" s="38"/>
+      <c r="W63" s="38"/>
+      <c r="X63" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="Y63" s="39" t="s">
+      <c r="Y63" s="38" t="s">
         <v>765</v>
       </c>
-      <c r="Z63" s="39" t="s">
+      <c r="Z63" s="38" t="s">
         <v>791</v>
       </c>
       <c r="AA63" s="34">
@@ -21671,53 +21673,53 @@
       <c r="G64" t="s">
         <v>740</v>
       </c>
-      <c r="H64" s="39" t="s">
+      <c r="H64" s="38" t="s">
         <v>741</v>
       </c>
-      <c r="I64" s="39" t="s">
+      <c r="I64" s="38" t="s">
         <v>742</v>
       </c>
-      <c r="J64" s="39" t="s">
+      <c r="J64" s="38" t="s">
         <v>741</v>
       </c>
-      <c r="K64" s="39" t="s">
+      <c r="K64" s="38" t="s">
         <v>743</v>
       </c>
-      <c r="L64" s="39" t="s">
+      <c r="L64" s="38" t="s">
         <v>741</v>
       </c>
-      <c r="M64" s="39" t="s">
+      <c r="M64" s="38" t="s">
         <v>740</v>
       </c>
-      <c r="N64" s="39" t="s">
+      <c r="N64" s="38" t="s">
         <v>741</v>
       </c>
-      <c r="O64" s="39" t="s">
+      <c r="O64" s="38" t="s">
         <v>743</v>
       </c>
-      <c r="P64" s="39" t="s">
+      <c r="P64" s="38" t="s">
         <v>741</v>
       </c>
-      <c r="Q64" s="39" t="s">
+      <c r="Q64" s="38" t="s">
         <v>789</v>
       </c>
-      <c r="R64" s="39" t="s">
+      <c r="R64" s="38" t="s">
         <v>745</v>
       </c>
-      <c r="S64" s="39"/>
-      <c r="T64" s="39" t="s">
+      <c r="S64" s="38"/>
+      <c r="T64" s="38" t="s">
         <v>790</v>
       </c>
-      <c r="U64" s="39"/>
-      <c r="V64" s="39"/>
-      <c r="W64" s="39"/>
-      <c r="X64" s="39" t="s">
+      <c r="U64" s="38"/>
+      <c r="V64" s="38"/>
+      <c r="W64" s="38"/>
+      <c r="X64" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="Y64" s="39" t="s">
+      <c r="Y64" s="38" t="s">
         <v>765</v>
       </c>
-      <c r="Z64" s="39" t="s">
+      <c r="Z64" s="38" t="s">
         <v>791</v>
       </c>
       <c r="AA64" s="34">
@@ -21963,53 +21965,53 @@
       <c r="G65" t="s">
         <v>769</v>
       </c>
-      <c r="H65" s="39" t="s">
+      <c r="H65" s="38" t="s">
         <v>770</v>
       </c>
-      <c r="I65" s="39" t="s">
+      <c r="I65" s="38" t="s">
         <v>771</v>
       </c>
-      <c r="J65" s="39" t="s">
+      <c r="J65" s="38" t="s">
         <v>770</v>
       </c>
-      <c r="K65" s="39" t="s">
+      <c r="K65" s="38" t="s">
         <v>772</v>
       </c>
-      <c r="L65" s="39" t="s">
+      <c r="L65" s="38" t="s">
         <v>770</v>
       </c>
-      <c r="M65" s="39" t="s">
+      <c r="M65" s="38" t="s">
         <v>769</v>
       </c>
-      <c r="N65" s="39" t="s">
+      <c r="N65" s="38" t="s">
         <v>770</v>
       </c>
-      <c r="O65" s="39" t="s">
+      <c r="O65" s="38" t="s">
         <v>772</v>
       </c>
-      <c r="P65" s="39" t="s">
+      <c r="P65" s="38" t="s">
         <v>770</v>
       </c>
-      <c r="Q65" s="39" t="s">
+      <c r="Q65" s="38" t="s">
         <v>807</v>
       </c>
-      <c r="R65" s="39" t="s">
+      <c r="R65" s="38" t="s">
         <v>770</v>
       </c>
-      <c r="S65" s="39"/>
-      <c r="T65" s="39" t="s">
+      <c r="S65" s="38"/>
+      <c r="T65" s="38" t="s">
         <v>808</v>
       </c>
-      <c r="U65" s="39"/>
-      <c r="V65" s="39"/>
-      <c r="W65" s="39"/>
-      <c r="X65" s="39" t="s">
+      <c r="U65" s="38"/>
+      <c r="V65" s="38"/>
+      <c r="W65" s="38"/>
+      <c r="X65" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="Y65" s="39" t="s">
+      <c r="Y65" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="Z65" s="39" t="s">
+      <c r="Z65" s="38" t="s">
         <v>809</v>
       </c>
       <c r="AA65" s="34">
@@ -22255,53 +22257,53 @@
       <c r="G66" t="s">
         <v>740</v>
       </c>
-      <c r="H66" s="39" t="s">
+      <c r="H66" s="38" t="s">
         <v>741</v>
       </c>
-      <c r="I66" s="39" t="s">
+      <c r="I66" s="38" t="s">
         <v>742</v>
       </c>
-      <c r="J66" s="39" t="s">
+      <c r="J66" s="38" t="s">
         <v>741</v>
       </c>
-      <c r="K66" s="39" t="s">
+      <c r="K66" s="38" t="s">
         <v>743</v>
       </c>
-      <c r="L66" s="39" t="s">
+      <c r="L66" s="38" t="s">
         <v>741</v>
       </c>
-      <c r="M66" s="39" t="s">
+      <c r="M66" s="38" t="s">
         <v>740</v>
       </c>
-      <c r="N66" s="39" t="s">
+      <c r="N66" s="38" t="s">
         <v>741</v>
       </c>
-      <c r="O66" s="39" t="s">
+      <c r="O66" s="38" t="s">
         <v>743</v>
       </c>
-      <c r="P66" s="39" t="s">
+      <c r="P66" s="38" t="s">
         <v>741</v>
       </c>
-      <c r="Q66" s="39" t="s">
+      <c r="Q66" s="38" t="s">
         <v>789</v>
       </c>
-      <c r="R66" s="39" t="s">
+      <c r="R66" s="38" t="s">
         <v>745</v>
       </c>
-      <c r="S66" s="39"/>
-      <c r="T66" s="39" t="s">
+      <c r="S66" s="38"/>
+      <c r="T66" s="38" t="s">
         <v>790</v>
       </c>
-      <c r="U66" s="39"/>
-      <c r="V66" s="39"/>
-      <c r="W66" s="39"/>
-      <c r="X66" s="39" t="s">
+      <c r="U66" s="38"/>
+      <c r="V66" s="38"/>
+      <c r="W66" s="38"/>
+      <c r="X66" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="Y66" s="39" t="s">
+      <c r="Y66" s="38" t="s">
         <v>765</v>
       </c>
-      <c r="Z66" s="39" t="s">
+      <c r="Z66" s="38" t="s">
         <v>791</v>
       </c>
       <c r="AA66" s="34">
@@ -22547,53 +22549,53 @@
       <c r="G67" t="s">
         <v>740</v>
       </c>
-      <c r="H67" s="39" t="s">
+      <c r="H67" s="38" t="s">
         <v>741</v>
       </c>
-      <c r="I67" s="39" t="s">
+      <c r="I67" s="38" t="s">
         <v>742</v>
       </c>
-      <c r="J67" s="39" t="s">
+      <c r="J67" s="38" t="s">
         <v>741</v>
       </c>
-      <c r="K67" s="39" t="s">
+      <c r="K67" s="38" t="s">
         <v>743</v>
       </c>
-      <c r="L67" s="39" t="s">
+      <c r="L67" s="38" t="s">
         <v>741</v>
       </c>
-      <c r="M67" s="39" t="s">
+      <c r="M67" s="38" t="s">
         <v>740</v>
       </c>
-      <c r="N67" s="39" t="s">
+      <c r="N67" s="38" t="s">
         <v>741</v>
       </c>
-      <c r="O67" s="39" t="s">
+      <c r="O67" s="38" t="s">
         <v>743</v>
       </c>
-      <c r="P67" s="39" t="s">
+      <c r="P67" s="38" t="s">
         <v>741</v>
       </c>
-      <c r="Q67" s="39" t="s">
+      <c r="Q67" s="38" t="s">
         <v>789</v>
       </c>
-      <c r="R67" s="39" t="s">
+      <c r="R67" s="38" t="s">
         <v>745</v>
       </c>
-      <c r="S67" s="39"/>
-      <c r="T67" s="39" t="s">
+      <c r="S67" s="38"/>
+      <c r="T67" s="38" t="s">
         <v>790</v>
       </c>
-      <c r="U67" s="39"/>
-      <c r="V67" s="39"/>
-      <c r="W67" s="39"/>
-      <c r="X67" s="39" t="s">
+      <c r="U67" s="38"/>
+      <c r="V67" s="38"/>
+      <c r="W67" s="38"/>
+      <c r="X67" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="Y67" s="39" t="s">
+      <c r="Y67" s="38" t="s">
         <v>765</v>
       </c>
-      <c r="Z67" s="39" t="s">
+      <c r="Z67" s="38" t="s">
         <v>791</v>
       </c>
       <c r="AA67" s="34">
@@ -22839,53 +22841,53 @@
       <c r="G68" t="s">
         <v>769</v>
       </c>
-      <c r="H68" s="39" t="s">
+      <c r="H68" s="38" t="s">
         <v>770</v>
       </c>
-      <c r="I68" s="39" t="s">
+      <c r="I68" s="38" t="s">
         <v>771</v>
       </c>
-      <c r="J68" s="39" t="s">
+      <c r="J68" s="38" t="s">
         <v>770</v>
       </c>
-      <c r="K68" s="39" t="s">
+      <c r="K68" s="38" t="s">
         <v>772</v>
       </c>
-      <c r="L68" s="39" t="s">
+      <c r="L68" s="38" t="s">
         <v>770</v>
       </c>
-      <c r="M68" s="39" t="s">
+      <c r="M68" s="38" t="s">
         <v>769</v>
       </c>
-      <c r="N68" s="39" t="s">
+      <c r="N68" s="38" t="s">
         <v>770</v>
       </c>
-      <c r="O68" s="39" t="s">
+      <c r="O68" s="38" t="s">
         <v>772</v>
       </c>
-      <c r="P68" s="39" t="s">
+      <c r="P68" s="38" t="s">
         <v>770</v>
       </c>
-      <c r="Q68" s="39" t="s">
+      <c r="Q68" s="38" t="s">
         <v>807</v>
       </c>
-      <c r="R68" s="39" t="s">
+      <c r="R68" s="38" t="s">
         <v>770</v>
       </c>
-      <c r="S68" s="39"/>
-      <c r="T68" s="39" t="s">
+      <c r="S68" s="38"/>
+      <c r="T68" s="38" t="s">
         <v>808</v>
       </c>
-      <c r="U68" s="39"/>
-      <c r="V68" s="39"/>
-      <c r="W68" s="39"/>
-      <c r="X68" s="39" t="s">
+      <c r="U68" s="38"/>
+      <c r="V68" s="38"/>
+      <c r="W68" s="38"/>
+      <c r="X68" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="Y68" s="39" t="s">
+      <c r="Y68" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="Z68" s="39" t="s">
+      <c r="Z68" s="38" t="s">
         <v>809</v>
       </c>
       <c r="AA68" s="34">
@@ -23131,55 +23133,55 @@
       <c r="G69" t="s">
         <v>822</v>
       </c>
-      <c r="H69" s="39" t="s">
+      <c r="H69" s="38" t="s">
         <v>823</v>
       </c>
-      <c r="I69" s="39" t="s">
+      <c r="I69" s="38" t="s">
         <v>824</v>
       </c>
-      <c r="J69" s="39" t="s">
+      <c r="J69" s="38" t="s">
         <v>823</v>
       </c>
-      <c r="K69" s="39" t="s">
+      <c r="K69" s="38" t="s">
         <v>825</v>
       </c>
-      <c r="L69" s="39" t="s">
+      <c r="L69" s="38" t="s">
         <v>826</v>
       </c>
-      <c r="M69" s="39" t="s">
+      <c r="M69" s="38" t="s">
         <v>822</v>
       </c>
-      <c r="N69" s="39" t="s">
+      <c r="N69" s="38" t="s">
         <v>823</v>
       </c>
-      <c r="O69" s="39" t="s">
+      <c r="O69" s="38" t="s">
         <v>825</v>
       </c>
-      <c r="P69" s="39" t="s">
+      <c r="P69" s="38" t="s">
         <v>826</v>
       </c>
-      <c r="Q69" s="39" t="s">
+      <c r="Q69" s="38" t="s">
         <v>827</v>
       </c>
-      <c r="R69" s="39" t="s">
+      <c r="R69" s="38" t="s">
         <v>826</v>
       </c>
-      <c r="S69" s="39"/>
-      <c r="T69" s="39" t="s">
+      <c r="S69" s="38"/>
+      <c r="T69" s="38" t="s">
         <v>828</v>
       </c>
-      <c r="U69" s="39"/>
-      <c r="V69" s="39" t="s">
+      <c r="U69" s="38"/>
+      <c r="V69" s="38" t="s">
         <v>829</v>
       </c>
-      <c r="W69" s="39"/>
-      <c r="X69" s="39" t="s">
+      <c r="W69" s="38"/>
+      <c r="X69" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="Y69" s="39" t="s">
+      <c r="Y69" s="38" t="s">
         <v>830</v>
       </c>
-      <c r="Z69" s="39" t="s">
+      <c r="Z69" s="38" t="s">
         <v>831</v>
       </c>
       <c r="AA69" s="34">
@@ -23421,55 +23423,55 @@
       <c r="G70" t="s">
         <v>822</v>
       </c>
-      <c r="H70" s="39" t="s">
+      <c r="H70" s="38" t="s">
         <v>823</v>
       </c>
-      <c r="I70" s="39" t="s">
+      <c r="I70" s="38" t="s">
         <v>824</v>
       </c>
-      <c r="J70" s="39" t="s">
+      <c r="J70" s="38" t="s">
         <v>823</v>
       </c>
-      <c r="K70" s="39" t="s">
+      <c r="K70" s="38" t="s">
         <v>825</v>
       </c>
-      <c r="L70" s="39" t="s">
+      <c r="L70" s="38" t="s">
         <v>826</v>
       </c>
-      <c r="M70" s="39" t="s">
+      <c r="M70" s="38" t="s">
         <v>822</v>
       </c>
-      <c r="N70" s="39" t="s">
+      <c r="N70" s="38" t="s">
         <v>823</v>
       </c>
-      <c r="O70" s="39" t="s">
+      <c r="O70" s="38" t="s">
         <v>825</v>
       </c>
-      <c r="P70" s="39" t="s">
+      <c r="P70" s="38" t="s">
         <v>826</v>
       </c>
-      <c r="Q70" s="39" t="s">
+      <c r="Q70" s="38" t="s">
         <v>839</v>
       </c>
-      <c r="R70" s="39" t="s">
+      <c r="R70" s="38" t="s">
         <v>826</v>
       </c>
-      <c r="S70" s="39"/>
-      <c r="T70" s="39" t="s">
+      <c r="S70" s="38"/>
+      <c r="T70" s="38" t="s">
         <v>828</v>
       </c>
-      <c r="U70" s="39"/>
-      <c r="V70" s="39"/>
-      <c r="W70" s="39" t="s">
+      <c r="U70" s="38"/>
+      <c r="V70" s="38"/>
+      <c r="W70" s="38" t="s">
         <v>829</v>
       </c>
-      <c r="X70" s="39" t="s">
+      <c r="X70" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="Y70" s="39" t="s">
+      <c r="Y70" s="38" t="s">
         <v>830</v>
       </c>
-      <c r="Z70" s="39" t="s">
+      <c r="Z70" s="38" t="s">
         <v>831</v>
       </c>
       <c r="AA70" s="34">
@@ -23713,55 +23715,55 @@
       <c r="G71" t="s">
         <v>848</v>
       </c>
-      <c r="H71" s="39" t="s">
+      <c r="H71" s="38" t="s">
         <v>849</v>
       </c>
-      <c r="I71" s="39" t="s">
+      <c r="I71" s="38" t="s">
         <v>850</v>
       </c>
-      <c r="J71" s="39" t="s">
+      <c r="J71" s="38" t="s">
         <v>849</v>
       </c>
-      <c r="K71" s="39" t="s">
+      <c r="K71" s="38" t="s">
         <v>851</v>
       </c>
-      <c r="L71" s="39" t="s">
+      <c r="L71" s="38" t="s">
         <v>852</v>
       </c>
-      <c r="M71" s="39" t="s">
+      <c r="M71" s="38" t="s">
         <v>848</v>
       </c>
-      <c r="N71" s="39" t="s">
+      <c r="N71" s="38" t="s">
         <v>849</v>
       </c>
-      <c r="O71" s="39" t="s">
+      <c r="O71" s="38" t="s">
         <v>851</v>
       </c>
-      <c r="P71" s="39" t="s">
+      <c r="P71" s="38" t="s">
         <v>852</v>
       </c>
-      <c r="Q71" s="39" t="s">
+      <c r="Q71" s="38" t="s">
         <v>853</v>
       </c>
-      <c r="R71" s="39" t="s">
+      <c r="R71" s="38" t="s">
         <v>852</v>
       </c>
-      <c r="S71" s="39"/>
-      <c r="T71" s="39" t="s">
+      <c r="S71" s="38"/>
+      <c r="T71" s="38" t="s">
         <v>854</v>
       </c>
-      <c r="U71" s="39"/>
-      <c r="V71" s="39"/>
-      <c r="W71" s="39" t="s">
+      <c r="U71" s="38"/>
+      <c r="V71" s="38"/>
+      <c r="W71" s="38" t="s">
         <v>855</v>
       </c>
-      <c r="X71" s="39" t="s">
+      <c r="X71" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="Y71" s="39" t="s">
+      <c r="Y71" s="38" t="s">
         <v>830</v>
       </c>
-      <c r="Z71" s="39" t="s">
+      <c r="Z71" s="38" t="s">
         <v>856</v>
       </c>
       <c r="AA71" s="34">
@@ -24003,53 +24005,53 @@
       <c r="G72" t="s">
         <v>868</v>
       </c>
-      <c r="H72" s="39" t="s">
+      <c r="H72" s="38" t="s">
         <v>869</v>
       </c>
-      <c r="I72" s="39" t="s">
+      <c r="I72" s="38" t="s">
         <v>870</v>
       </c>
-      <c r="J72" s="39" t="s">
+      <c r="J72" s="38" t="s">
         <v>869</v>
       </c>
-      <c r="K72" s="39" t="s">
+      <c r="K72" s="38" t="s">
         <v>871</v>
       </c>
-      <c r="L72" s="39" t="s">
+      <c r="L72" s="38" t="s">
         <v>872</v>
       </c>
-      <c r="M72" s="39" t="s">
+      <c r="M72" s="38" t="s">
         <v>868</v>
       </c>
-      <c r="N72" s="39" t="s">
+      <c r="N72" s="38" t="s">
         <v>869</v>
       </c>
-      <c r="O72" s="39" t="s">
+      <c r="O72" s="38" t="s">
         <v>871</v>
       </c>
-      <c r="P72" s="39" t="s">
+      <c r="P72" s="38" t="s">
         <v>872</v>
       </c>
-      <c r="Q72" s="39" t="s">
+      <c r="Q72" s="38" t="s">
         <v>873</v>
       </c>
-      <c r="R72" s="39" t="s">
+      <c r="R72" s="38" t="s">
         <v>874</v>
       </c>
-      <c r="S72" s="39"/>
-      <c r="T72" s="39" t="s">
+      <c r="S72" s="38"/>
+      <c r="T72" s="38" t="s">
         <v>875</v>
       </c>
-      <c r="U72" s="39"/>
-      <c r="V72" s="39"/>
-      <c r="W72" s="39"/>
-      <c r="X72" s="39" t="s">
+      <c r="U72" s="38"/>
+      <c r="V72" s="38"/>
+      <c r="W72" s="38"/>
+      <c r="X72" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="Y72" s="39" t="s">
+      <c r="Y72" s="38" t="s">
         <v>830</v>
       </c>
-      <c r="Z72" s="39" t="s">
+      <c r="Z72" s="38" t="s">
         <v>876</v>
       </c>
       <c r="AA72" s="34">
@@ -24283,53 +24285,53 @@
       <c r="G73" t="s">
         <v>883</v>
       </c>
-      <c r="H73" s="39" t="s">
+      <c r="H73" s="38" t="s">
         <v>884</v>
       </c>
-      <c r="I73" s="39" t="s">
+      <c r="I73" s="38" t="s">
         <v>885</v>
       </c>
-      <c r="J73" s="39" t="s">
+      <c r="J73" s="38" t="s">
         <v>884</v>
       </c>
-      <c r="K73" s="39" t="s">
+      <c r="K73" s="38" t="s">
         <v>886</v>
       </c>
-      <c r="L73" s="39" t="s">
+      <c r="L73" s="38" t="s">
         <v>887</v>
       </c>
-      <c r="M73" s="39" t="s">
+      <c r="M73" s="38" t="s">
         <v>883</v>
       </c>
-      <c r="N73" s="39" t="s">
+      <c r="N73" s="38" t="s">
         <v>884</v>
       </c>
-      <c r="O73" s="39" t="s">
+      <c r="O73" s="38" t="s">
         <v>886</v>
       </c>
-      <c r="P73" s="39" t="s">
+      <c r="P73" s="38" t="s">
         <v>887</v>
       </c>
-      <c r="Q73" s="39" t="s">
+      <c r="Q73" s="38" t="s">
         <v>888</v>
       </c>
-      <c r="R73" s="39" t="s">
+      <c r="R73" s="38" t="s">
         <v>887</v>
       </c>
-      <c r="S73" s="39"/>
-      <c r="T73" s="39" t="s">
+      <c r="S73" s="38"/>
+      <c r="T73" s="38" t="s">
         <v>889</v>
       </c>
-      <c r="U73" s="39"/>
-      <c r="V73" s="39"/>
-      <c r="W73" s="39"/>
-      <c r="X73" s="39" t="s">
+      <c r="U73" s="38"/>
+      <c r="V73" s="38"/>
+      <c r="W73" s="38"/>
+      <c r="X73" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="Y73" s="39" t="s">
+      <c r="Y73" s="38" t="s">
         <v>830</v>
       </c>
-      <c r="Z73" s="39" t="s">
+      <c r="Z73" s="38" t="s">
         <v>890</v>
       </c>
       <c r="AA73" s="34">
@@ -24573,53 +24575,53 @@
       <c r="G74" t="s">
         <v>883</v>
       </c>
-      <c r="H74" s="39" t="s">
+      <c r="H74" s="38" t="s">
         <v>884</v>
       </c>
-      <c r="I74" s="39" t="s">
+      <c r="I74" s="38" t="s">
         <v>885</v>
       </c>
-      <c r="J74" s="39" t="s">
+      <c r="J74" s="38" t="s">
         <v>884</v>
       </c>
-      <c r="K74" s="39" t="s">
+      <c r="K74" s="38" t="s">
         <v>886</v>
       </c>
-      <c r="L74" s="39" t="s">
+      <c r="L74" s="38" t="s">
         <v>887</v>
       </c>
-      <c r="M74" s="39" t="s">
+      <c r="M74" s="38" t="s">
         <v>883</v>
       </c>
-      <c r="N74" s="39" t="s">
+      <c r="N74" s="38" t="s">
         <v>884</v>
       </c>
-      <c r="O74" s="39" t="s">
+      <c r="O74" s="38" t="s">
         <v>886</v>
       </c>
-      <c r="P74" s="39" t="s">
+      <c r="P74" s="38" t="s">
         <v>887</v>
       </c>
-      <c r="Q74" s="39" t="s">
+      <c r="Q74" s="38" t="s">
         <v>888</v>
       </c>
-      <c r="R74" s="39" t="s">
+      <c r="R74" s="38" t="s">
         <v>887</v>
       </c>
-      <c r="S74" s="39"/>
-      <c r="T74" s="39" t="s">
+      <c r="S74" s="38"/>
+      <c r="T74" s="38" t="s">
         <v>889</v>
       </c>
-      <c r="U74" s="39"/>
-      <c r="V74" s="39"/>
-      <c r="W74" s="39"/>
-      <c r="X74" s="39" t="s">
+      <c r="U74" s="38"/>
+      <c r="V74" s="38"/>
+      <c r="W74" s="38"/>
+      <c r="X74" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="Y74" s="39" t="s">
+      <c r="Y74" s="38" t="s">
         <v>830</v>
       </c>
-      <c r="Z74" s="39" t="s">
+      <c r="Z74" s="38" t="s">
         <v>890</v>
       </c>
       <c r="AA74" s="34">
@@ -24863,53 +24865,53 @@
       <c r="G75" t="s">
         <v>883</v>
       </c>
-      <c r="H75" s="39" t="s">
+      <c r="H75" s="38" t="s">
         <v>884</v>
       </c>
-      <c r="I75" s="39" t="s">
+      <c r="I75" s="38" t="s">
         <v>885</v>
       </c>
-      <c r="J75" s="39" t="s">
+      <c r="J75" s="38" t="s">
         <v>884</v>
       </c>
-      <c r="K75" s="39" t="s">
+      <c r="K75" s="38" t="s">
         <v>886</v>
       </c>
-      <c r="L75" s="39" t="s">
+      <c r="L75" s="38" t="s">
         <v>887</v>
       </c>
-      <c r="M75" s="39" t="s">
+      <c r="M75" s="38" t="s">
         <v>883</v>
       </c>
-      <c r="N75" s="39" t="s">
+      <c r="N75" s="38" t="s">
         <v>884</v>
       </c>
-      <c r="O75" s="39" t="s">
+      <c r="O75" s="38" t="s">
         <v>886</v>
       </c>
-      <c r="P75" s="39" t="s">
+      <c r="P75" s="38" t="s">
         <v>887</v>
       </c>
-      <c r="Q75" s="39" t="s">
+      <c r="Q75" s="38" t="s">
         <v>888</v>
       </c>
-      <c r="R75" s="39" t="s">
+      <c r="R75" s="38" t="s">
         <v>887</v>
       </c>
-      <c r="S75" s="39"/>
-      <c r="T75" s="39" t="s">
+      <c r="S75" s="38"/>
+      <c r="T75" s="38" t="s">
         <v>889</v>
       </c>
-      <c r="U75" s="39"/>
-      <c r="V75" s="39"/>
-      <c r="W75" s="39"/>
-      <c r="X75" s="39" t="s">
+      <c r="U75" s="38"/>
+      <c r="V75" s="38"/>
+      <c r="W75" s="38"/>
+      <c r="X75" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="Y75" s="39" t="s">
+      <c r="Y75" s="38" t="s">
         <v>830</v>
       </c>
-      <c r="Z75" s="39" t="s">
+      <c r="Z75" s="38" t="s">
         <v>890</v>
       </c>
       <c r="AA75" s="34">
@@ -25153,55 +25155,55 @@
       <c r="G76" t="s">
         <v>901</v>
       </c>
-      <c r="H76" s="39" t="s">
+      <c r="H76" s="38" t="s">
         <v>902</v>
       </c>
-      <c r="I76" s="39" t="s">
+      <c r="I76" s="38" t="s">
         <v>903</v>
       </c>
-      <c r="J76" s="39" t="s">
+      <c r="J76" s="38" t="s">
         <v>902</v>
       </c>
-      <c r="K76" s="39" t="s">
+      <c r="K76" s="38" t="s">
         <v>904</v>
       </c>
-      <c r="L76" s="39" t="s">
+      <c r="L76" s="38" t="s">
         <v>905</v>
       </c>
-      <c r="M76" s="39" t="s">
+      <c r="M76" s="38" t="s">
         <v>901</v>
       </c>
-      <c r="N76" s="39" t="s">
+      <c r="N76" s="38" t="s">
         <v>902</v>
       </c>
-      <c r="O76" s="39" t="s">
+      <c r="O76" s="38" t="s">
         <v>904</v>
       </c>
-      <c r="P76" s="39" t="s">
+      <c r="P76" s="38" t="s">
         <v>905</v>
       </c>
-      <c r="Q76" s="39" t="s">
+      <c r="Q76" s="38" t="s">
         <v>906</v>
       </c>
-      <c r="R76" s="39" t="s">
+      <c r="R76" s="38" t="s">
         <v>907</v>
       </c>
-      <c r="S76" s="39"/>
-      <c r="T76" s="39" t="s">
+      <c r="S76" s="38"/>
+      <c r="T76" s="38" t="s">
         <v>908</v>
       </c>
-      <c r="U76" s="39" t="s">
+      <c r="U76" s="38" t="s">
         <v>909</v>
       </c>
-      <c r="V76" s="39"/>
-      <c r="W76" s="39"/>
-      <c r="X76" s="39" t="s">
+      <c r="V76" s="38"/>
+      <c r="W76" s="38"/>
+      <c r="X76" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="Y76" s="39" t="s">
+      <c r="Y76" s="38" t="s">
         <v>830</v>
       </c>
-      <c r="Z76" s="39" t="s">
+      <c r="Z76" s="38" t="s">
         <v>910</v>
       </c>
       <c r="AA76" s="34">
@@ -25445,55 +25447,55 @@
       <c r="G77" t="s">
         <v>901</v>
       </c>
-      <c r="H77" s="39" t="s">
+      <c r="H77" s="38" t="s">
         <v>902</v>
       </c>
-      <c r="I77" s="39" t="s">
+      <c r="I77" s="38" t="s">
         <v>903</v>
       </c>
-      <c r="J77" s="39" t="s">
+      <c r="J77" s="38" t="s">
         <v>902</v>
       </c>
-      <c r="K77" s="39" t="s">
+      <c r="K77" s="38" t="s">
         <v>904</v>
       </c>
-      <c r="L77" s="39" t="s">
+      <c r="L77" s="38" t="s">
         <v>905</v>
       </c>
-      <c r="M77" s="39" t="s">
+      <c r="M77" s="38" t="s">
         <v>901</v>
       </c>
-      <c r="N77" s="39" t="s">
+      <c r="N77" s="38" t="s">
         <v>902</v>
       </c>
-      <c r="O77" s="39" t="s">
+      <c r="O77" s="38" t="s">
         <v>904</v>
       </c>
-      <c r="P77" s="39" t="s">
+      <c r="P77" s="38" t="s">
         <v>905</v>
       </c>
-      <c r="Q77" s="39" t="s">
+      <c r="Q77" s="38" t="s">
         <v>906</v>
       </c>
-      <c r="R77" s="39" t="s">
+      <c r="R77" s="38" t="s">
         <v>907</v>
       </c>
-      <c r="S77" s="39"/>
-      <c r="T77" s="39" t="s">
+      <c r="S77" s="38"/>
+      <c r="T77" s="38" t="s">
         <v>908</v>
       </c>
-      <c r="U77" s="39" t="s">
+      <c r="U77" s="38" t="s">
         <v>909</v>
       </c>
-      <c r="V77" s="39"/>
-      <c r="W77" s="39"/>
-      <c r="X77" s="39" t="s">
+      <c r="V77" s="38"/>
+      <c r="W77" s="38"/>
+      <c r="X77" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="Y77" s="39" t="s">
+      <c r="Y77" s="38" t="s">
         <v>830</v>
       </c>
-      <c r="Z77" s="39" t="s">
+      <c r="Z77" s="38" t="s">
         <v>910</v>
       </c>
       <c r="AA77" s="34">
@@ -25737,53 +25739,53 @@
       <c r="G78" t="s">
         <v>923</v>
       </c>
-      <c r="H78" s="39" t="s">
+      <c r="H78" s="38" t="s">
         <v>924</v>
       </c>
-      <c r="I78" s="39" t="s">
+      <c r="I78" s="38" t="s">
         <v>925</v>
       </c>
-      <c r="J78" s="39" t="s">
+      <c r="J78" s="38" t="s">
         <v>924</v>
       </c>
-      <c r="K78" s="39" t="s">
+      <c r="K78" s="38" t="s">
         <v>926</v>
       </c>
-      <c r="L78" s="39" t="s">
+      <c r="L78" s="38" t="s">
         <v>927</v>
       </c>
-      <c r="M78" s="39" t="s">
+      <c r="M78" s="38" t="s">
         <v>923</v>
       </c>
-      <c r="N78" s="39" t="s">
+      <c r="N78" s="38" t="s">
         <v>924</v>
       </c>
-      <c r="O78" s="39" t="s">
+      <c r="O78" s="38" t="s">
         <v>926</v>
       </c>
-      <c r="P78" s="39" t="s">
+      <c r="P78" s="38" t="s">
         <v>927</v>
       </c>
-      <c r="Q78" s="39" t="s">
+      <c r="Q78" s="38" t="s">
         <v>928</v>
       </c>
-      <c r="R78" s="39" t="s">
+      <c r="R78" s="38" t="s">
         <v>929</v>
       </c>
-      <c r="S78" s="39"/>
-      <c r="T78" s="39" t="s">
+      <c r="S78" s="38"/>
+      <c r="T78" s="38" t="s">
         <v>930</v>
       </c>
-      <c r="U78" s="39"/>
-      <c r="V78" s="39"/>
-      <c r="W78" s="39"/>
-      <c r="X78" s="39" t="s">
+      <c r="U78" s="38"/>
+      <c r="V78" s="38"/>
+      <c r="W78" s="38"/>
+      <c r="X78" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="Y78" s="39" t="s">
+      <c r="Y78" s="38" t="s">
         <v>931</v>
       </c>
-      <c r="Z78" s="39" t="s">
+      <c r="Z78" s="38" t="s">
         <v>932</v>
       </c>
       <c r="AA78" s="34">
@@ -26025,53 +26027,53 @@
       <c r="G79" t="s">
         <v>940</v>
       </c>
-      <c r="H79" s="39" t="s">
+      <c r="H79" s="38" t="s">
         <v>941</v>
       </c>
-      <c r="I79" s="39" t="s">
+      <c r="I79" s="38" t="s">
         <v>942</v>
       </c>
-      <c r="J79" s="39" t="s">
+      <c r="J79" s="38" t="s">
         <v>941</v>
       </c>
-      <c r="K79" s="39" t="s">
+      <c r="K79" s="38" t="s">
         <v>943</v>
       </c>
-      <c r="L79" s="39" t="s">
+      <c r="L79" s="38" t="s">
         <v>944</v>
       </c>
-      <c r="M79" s="39" t="s">
+      <c r="M79" s="38" t="s">
         <v>940</v>
       </c>
-      <c r="N79" s="39" t="s">
+      <c r="N79" s="38" t="s">
         <v>941</v>
       </c>
-      <c r="O79" s="39" t="s">
+      <c r="O79" s="38" t="s">
         <v>943</v>
       </c>
-      <c r="P79" s="39" t="s">
+      <c r="P79" s="38" t="s">
         <v>944</v>
       </c>
-      <c r="Q79" s="39" t="s">
+      <c r="Q79" s="38" t="s">
         <v>945</v>
       </c>
-      <c r="R79" s="39" t="s">
+      <c r="R79" s="38" t="s">
         <v>946</v>
       </c>
-      <c r="S79" s="39"/>
-      <c r="T79" s="39" t="s">
+      <c r="S79" s="38"/>
+      <c r="T79" s="38" t="s">
         <v>947</v>
       </c>
-      <c r="U79" s="39"/>
-      <c r="V79" s="39"/>
-      <c r="W79" s="39"/>
-      <c r="X79" s="39" t="s">
+      <c r="U79" s="38"/>
+      <c r="V79" s="38"/>
+      <c r="W79" s="38"/>
+      <c r="X79" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="Y79" s="39" t="s">
+      <c r="Y79" s="38" t="s">
         <v>830</v>
       </c>
-      <c r="Z79" s="39" t="s">
+      <c r="Z79" s="38" t="s">
         <v>948</v>
       </c>
       <c r="AA79" s="34">
@@ -26311,53 +26313,53 @@
       <c r="G80" t="s">
         <v>959</v>
       </c>
-      <c r="H80" s="39" t="s">
+      <c r="H80" s="38" t="s">
         <v>960</v>
       </c>
-      <c r="I80" s="39" t="s">
+      <c r="I80" s="38" t="s">
         <v>961</v>
       </c>
-      <c r="J80" s="39" t="s">
+      <c r="J80" s="38" t="s">
         <v>960</v>
       </c>
-      <c r="K80" s="39" t="s">
+      <c r="K80" s="38" t="s">
         <v>962</v>
       </c>
-      <c r="L80" s="39" t="s">
+      <c r="L80" s="38" t="s">
         <v>960</v>
       </c>
-      <c r="M80" s="39" t="s">
+      <c r="M80" s="38" t="s">
         <v>959</v>
       </c>
-      <c r="N80" s="39" t="s">
+      <c r="N80" s="38" t="s">
         <v>960</v>
       </c>
-      <c r="O80" s="39" t="s">
+      <c r="O80" s="38" t="s">
         <v>962</v>
       </c>
-      <c r="P80" s="39" t="s">
+      <c r="P80" s="38" t="s">
         <v>960</v>
       </c>
-      <c r="Q80" s="39" t="s">
+      <c r="Q80" s="38" t="s">
         <v>963</v>
       </c>
-      <c r="R80" s="39" t="s">
+      <c r="R80" s="38" t="s">
         <v>964</v>
       </c>
-      <c r="S80" s="39"/>
-      <c r="T80" s="39" t="s">
+      <c r="S80" s="38"/>
+      <c r="T80" s="38" t="s">
         <v>965</v>
       </c>
-      <c r="U80" s="39"/>
-      <c r="V80" s="39"/>
-      <c r="W80" s="39"/>
-      <c r="X80" s="39" t="s">
+      <c r="U80" s="38"/>
+      <c r="V80" s="38"/>
+      <c r="W80" s="38"/>
+      <c r="X80" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="Y80" s="39" t="s">
+      <c r="Y80" s="38" t="s">
         <v>966</v>
       </c>
-      <c r="Z80" s="39" t="s">
+      <c r="Z80" s="38" t="s">
         <v>967</v>
       </c>
       <c r="AA80" s="34">
@@ -26597,53 +26599,53 @@
       <c r="G81" t="s">
         <v>940</v>
       </c>
-      <c r="H81" s="39" t="s">
+      <c r="H81" s="38" t="s">
         <v>941</v>
       </c>
-      <c r="I81" s="39" t="s">
+      <c r="I81" s="38" t="s">
         <v>942</v>
       </c>
-      <c r="J81" s="39" t="s">
+      <c r="J81" s="38" t="s">
         <v>941</v>
       </c>
-      <c r="K81" s="39" t="s">
+      <c r="K81" s="38" t="s">
         <v>943</v>
       </c>
-      <c r="L81" s="39" t="s">
+      <c r="L81" s="38" t="s">
         <v>944</v>
       </c>
-      <c r="M81" s="39" t="s">
+      <c r="M81" s="38" t="s">
         <v>940</v>
       </c>
-      <c r="N81" s="39" t="s">
+      <c r="N81" s="38" t="s">
         <v>941</v>
       </c>
-      <c r="O81" s="39" t="s">
+      <c r="O81" s="38" t="s">
         <v>943</v>
       </c>
-      <c r="P81" s="39" t="s">
+      <c r="P81" s="38" t="s">
         <v>944</v>
       </c>
-      <c r="Q81" s="39" t="s">
+      <c r="Q81" s="38" t="s">
         <v>945</v>
       </c>
-      <c r="R81" s="39" t="s">
+      <c r="R81" s="38" t="s">
         <v>946</v>
       </c>
-      <c r="S81" s="39"/>
-      <c r="T81" s="39" t="s">
+      <c r="S81" s="38"/>
+      <c r="T81" s="38" t="s">
         <v>947</v>
       </c>
-      <c r="U81" s="39"/>
-      <c r="V81" s="39"/>
-      <c r="W81" s="39"/>
-      <c r="X81" s="39" t="s">
+      <c r="U81" s="38"/>
+      <c r="V81" s="38"/>
+      <c r="W81" s="38"/>
+      <c r="X81" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="Y81" s="39" t="s">
+      <c r="Y81" s="38" t="s">
         <v>830</v>
       </c>
-      <c r="Z81" s="39" t="s">
+      <c r="Z81" s="38" t="s">
         <v>948</v>
       </c>
       <c r="AA81" s="34">
@@ -26883,55 +26885,55 @@
       <c r="G82" t="s">
         <v>901</v>
       </c>
-      <c r="H82" s="39" t="s">
+      <c r="H82" s="38" t="s">
         <v>902</v>
       </c>
-      <c r="I82" s="39" t="s">
+      <c r="I82" s="38" t="s">
         <v>903</v>
       </c>
-      <c r="J82" s="39" t="s">
+      <c r="J82" s="38" t="s">
         <v>902</v>
       </c>
-      <c r="K82" s="39" t="s">
+      <c r="K82" s="38" t="s">
         <v>904</v>
       </c>
-      <c r="L82" s="39" t="s">
+      <c r="L82" s="38" t="s">
         <v>905</v>
       </c>
-      <c r="M82" s="39" t="s">
+      <c r="M82" s="38" t="s">
         <v>901</v>
       </c>
-      <c r="N82" s="39" t="s">
+      <c r="N82" s="38" t="s">
         <v>902</v>
       </c>
-      <c r="O82" s="39" t="s">
+      <c r="O82" s="38" t="s">
         <v>904</v>
       </c>
-      <c r="P82" s="39" t="s">
+      <c r="P82" s="38" t="s">
         <v>905</v>
       </c>
-      <c r="Q82" s="39" t="s">
+      <c r="Q82" s="38" t="s">
         <v>906</v>
       </c>
-      <c r="R82" s="39" t="s">
+      <c r="R82" s="38" t="s">
         <v>907</v>
       </c>
-      <c r="S82" s="39"/>
-      <c r="T82" s="39" t="s">
+      <c r="S82" s="38"/>
+      <c r="T82" s="38" t="s">
         <v>908</v>
       </c>
-      <c r="U82" s="39" t="s">
+      <c r="U82" s="38" t="s">
         <v>909</v>
       </c>
-      <c r="V82" s="39"/>
-      <c r="W82" s="39"/>
-      <c r="X82" s="39" t="s">
+      <c r="V82" s="38"/>
+      <c r="W82" s="38"/>
+      <c r="X82" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="Y82" s="39" t="s">
+      <c r="Y82" s="38" t="s">
         <v>830</v>
       </c>
-      <c r="Z82" s="39" t="s">
+      <c r="Z82" s="38" t="s">
         <v>910</v>
       </c>
       <c r="AA82" s="34">
@@ -27175,55 +27177,55 @@
       <c r="G83" t="s">
         <v>901</v>
       </c>
-      <c r="H83" s="39" t="s">
+      <c r="H83" s="38" t="s">
         <v>902</v>
       </c>
-      <c r="I83" s="39" t="s">
+      <c r="I83" s="38" t="s">
         <v>903</v>
       </c>
-      <c r="J83" s="39" t="s">
+      <c r="J83" s="38" t="s">
         <v>902</v>
       </c>
-      <c r="K83" s="39" t="s">
+      <c r="K83" s="38" t="s">
         <v>904</v>
       </c>
-      <c r="L83" s="39" t="s">
+      <c r="L83" s="38" t="s">
         <v>905</v>
       </c>
-      <c r="M83" s="39" t="s">
+      <c r="M83" s="38" t="s">
         <v>901</v>
       </c>
-      <c r="N83" s="39" t="s">
+      <c r="N83" s="38" t="s">
         <v>902</v>
       </c>
-      <c r="O83" s="39" t="s">
+      <c r="O83" s="38" t="s">
         <v>904</v>
       </c>
-      <c r="P83" s="39" t="s">
+      <c r="P83" s="38" t="s">
         <v>905</v>
       </c>
-      <c r="Q83" s="39" t="s">
+      <c r="Q83" s="38" t="s">
         <v>906</v>
       </c>
-      <c r="R83" s="39" t="s">
+      <c r="R83" s="38" t="s">
         <v>907</v>
       </c>
-      <c r="S83" s="39"/>
-      <c r="T83" s="39" t="s">
+      <c r="S83" s="38"/>
+      <c r="T83" s="38" t="s">
         <v>908</v>
       </c>
-      <c r="U83" s="39" t="s">
+      <c r="U83" s="38" t="s">
         <v>909</v>
       </c>
-      <c r="V83" s="39"/>
-      <c r="W83" s="39"/>
-      <c r="X83" s="39" t="s">
+      <c r="V83" s="38"/>
+      <c r="W83" s="38"/>
+      <c r="X83" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="Y83" s="39" t="s">
+      <c r="Y83" s="38" t="s">
         <v>830</v>
       </c>
-      <c r="Z83" s="39" t="s">
+      <c r="Z83" s="38" t="s">
         <v>910</v>
       </c>
       <c r="AA83" s="34">
@@ -27467,53 +27469,53 @@
       <c r="G84" t="s">
         <v>940</v>
       </c>
-      <c r="H84" s="39" t="s">
+      <c r="H84" s="38" t="s">
         <v>941</v>
       </c>
-      <c r="I84" s="39" t="s">
+      <c r="I84" s="38" t="s">
         <v>942</v>
       </c>
-      <c r="J84" s="39" t="s">
+      <c r="J84" s="38" t="s">
         <v>941</v>
       </c>
-      <c r="K84" s="39" t="s">
+      <c r="K84" s="38" t="s">
         <v>943</v>
       </c>
-      <c r="L84" s="39" t="s">
+      <c r="L84" s="38" t="s">
         <v>944</v>
       </c>
-      <c r="M84" s="39" t="s">
+      <c r="M84" s="38" t="s">
         <v>940</v>
       </c>
-      <c r="N84" s="39" t="s">
+      <c r="N84" s="38" t="s">
         <v>941</v>
       </c>
-      <c r="O84" s="39" t="s">
+      <c r="O84" s="38" t="s">
         <v>943</v>
       </c>
-      <c r="P84" s="39" t="s">
+      <c r="P84" s="38" t="s">
         <v>944</v>
       </c>
-      <c r="Q84" s="39" t="s">
+      <c r="Q84" s="38" t="s">
         <v>945</v>
       </c>
-      <c r="R84" s="39" t="s">
+      <c r="R84" s="38" t="s">
         <v>946</v>
       </c>
-      <c r="S84" s="39"/>
-      <c r="T84" s="39" t="s">
+      <c r="S84" s="38"/>
+      <c r="T84" s="38" t="s">
         <v>947</v>
       </c>
-      <c r="U84" s="39"/>
-      <c r="V84" s="39"/>
-      <c r="W84" s="39"/>
-      <c r="X84" s="39" t="s">
+      <c r="U84" s="38"/>
+      <c r="V84" s="38"/>
+      <c r="W84" s="38"/>
+      <c r="X84" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="Y84" s="39" t="s">
+      <c r="Y84" s="38" t="s">
         <v>830</v>
       </c>
-      <c r="Z84" s="39" t="s">
+      <c r="Z84" s="38" t="s">
         <v>948</v>
       </c>
       <c r="AA84" s="34">
@@ -27753,53 +27755,53 @@
       <c r="G85" t="s">
         <v>940</v>
       </c>
-      <c r="H85" s="39" t="s">
+      <c r="H85" s="38" t="s">
         <v>941</v>
       </c>
-      <c r="I85" s="39" t="s">
+      <c r="I85" s="38" t="s">
         <v>942</v>
       </c>
-      <c r="J85" s="39" t="s">
+      <c r="J85" s="38" t="s">
         <v>941</v>
       </c>
-      <c r="K85" s="39" t="s">
+      <c r="K85" s="38" t="s">
         <v>943</v>
       </c>
-      <c r="L85" s="39" t="s">
+      <c r="L85" s="38" t="s">
         <v>944</v>
       </c>
-      <c r="M85" s="39" t="s">
+      <c r="M85" s="38" t="s">
         <v>940</v>
       </c>
-      <c r="N85" s="39" t="s">
+      <c r="N85" s="38" t="s">
         <v>941</v>
       </c>
-      <c r="O85" s="39" t="s">
+      <c r="O85" s="38" t="s">
         <v>943</v>
       </c>
-      <c r="P85" s="39" t="s">
+      <c r="P85" s="38" t="s">
         <v>944</v>
       </c>
-      <c r="Q85" s="39" t="s">
+      <c r="Q85" s="38" t="s">
         <v>945</v>
       </c>
-      <c r="R85" s="39" t="s">
+      <c r="R85" s="38" t="s">
         <v>946</v>
       </c>
-      <c r="S85" s="39"/>
-      <c r="T85" s="39" t="s">
+      <c r="S85" s="38"/>
+      <c r="T85" s="38" t="s">
         <v>947</v>
       </c>
-      <c r="U85" s="39"/>
-      <c r="V85" s="39"/>
-      <c r="W85" s="39"/>
-      <c r="X85" s="39" t="s">
+      <c r="U85" s="38"/>
+      <c r="V85" s="38"/>
+      <c r="W85" s="38"/>
+      <c r="X85" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="Y85" s="39" t="s">
+      <c r="Y85" s="38" t="s">
         <v>830</v>
       </c>
-      <c r="Z85" s="39" t="s">
+      <c r="Z85" s="38" t="s">
         <v>948</v>
       </c>
       <c r="AA85" s="34">
@@ -28039,53 +28041,53 @@
       <c r="G86" t="s">
         <v>940</v>
       </c>
-      <c r="H86" s="39" t="s">
+      <c r="H86" s="38" t="s">
         <v>941</v>
       </c>
-      <c r="I86" s="39" t="s">
+      <c r="I86" s="38" t="s">
         <v>942</v>
       </c>
-      <c r="J86" s="39" t="s">
+      <c r="J86" s="38" t="s">
         <v>941</v>
       </c>
-      <c r="K86" s="39" t="s">
+      <c r="K86" s="38" t="s">
         <v>943</v>
       </c>
-      <c r="L86" s="39" t="s">
+      <c r="L86" s="38" t="s">
         <v>944</v>
       </c>
-      <c r="M86" s="39" t="s">
+      <c r="M86" s="38" t="s">
         <v>940</v>
       </c>
-      <c r="N86" s="39" t="s">
+      <c r="N86" s="38" t="s">
         <v>941</v>
       </c>
-      <c r="O86" s="39" t="s">
+      <c r="O86" s="38" t="s">
         <v>943</v>
       </c>
-      <c r="P86" s="39" t="s">
+      <c r="P86" s="38" t="s">
         <v>944</v>
       </c>
-      <c r="Q86" s="39" t="s">
+      <c r="Q86" s="38" t="s">
         <v>945</v>
       </c>
-      <c r="R86" s="39" t="s">
+      <c r="R86" s="38" t="s">
         <v>946</v>
       </c>
-      <c r="S86" s="39"/>
-      <c r="T86" s="39" t="s">
+      <c r="S86" s="38"/>
+      <c r="T86" s="38" t="s">
         <v>947</v>
       </c>
-      <c r="U86" s="39"/>
-      <c r="V86" s="39"/>
-      <c r="W86" s="39"/>
-      <c r="X86" s="39" t="s">
+      <c r="U86" s="38"/>
+      <c r="V86" s="38"/>
+      <c r="W86" s="38"/>
+      <c r="X86" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="Y86" s="39" t="s">
+      <c r="Y86" s="38" t="s">
         <v>830</v>
       </c>
-      <c r="Z86" s="39" t="s">
+      <c r="Z86" s="38" t="s">
         <v>948</v>
       </c>
       <c r="AA86" s="34">
@@ -28325,47 +28327,47 @@
       <c r="G87" t="s">
         <v>986</v>
       </c>
-      <c r="H87" s="39" t="s">
+      <c r="H87" s="38" t="s">
         <v>987</v>
       </c>
-      <c r="I87" s="39" t="s">
+      <c r="I87" s="38" t="s">
         <v>988</v>
       </c>
-      <c r="J87" s="39" t="s">
+      <c r="J87" s="38" t="s">
         <v>987</v>
       </c>
-      <c r="K87" s="39" t="s">
+      <c r="K87" s="38" t="s">
         <v>989</v>
       </c>
-      <c r="L87" s="39" t="s">
+      <c r="L87" s="38" t="s">
         <v>987</v>
       </c>
-      <c r="M87" s="39"/>
-      <c r="N87" s="39"/>
-      <c r="O87" s="39"/>
-      <c r="P87" s="39" t="s">
+      <c r="M87" s="38"/>
+      <c r="N87" s="38"/>
+      <c r="O87" s="38"/>
+      <c r="P87" s="38" t="s">
         <v>990</v>
       </c>
-      <c r="Q87" s="39" t="s">
+      <c r="Q87" s="38" t="s">
         <v>991</v>
       </c>
-      <c r="R87" s="39" t="s">
+      <c r="R87" s="38" t="s">
         <v>990</v>
       </c>
-      <c r="S87" s="39"/>
-      <c r="T87" s="39" t="s">
+      <c r="S87" s="38"/>
+      <c r="T87" s="38" t="s">
         <v>992</v>
       </c>
-      <c r="U87" s="39"/>
-      <c r="V87" s="39"/>
-      <c r="W87" s="39"/>
-      <c r="X87" s="39" t="s">
+      <c r="U87" s="38"/>
+      <c r="V87" s="38"/>
+      <c r="W87" s="38"/>
+      <c r="X87" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="Y87" s="39" t="s">
+      <c r="Y87" s="38" t="s">
         <v>830</v>
       </c>
-      <c r="Z87" s="39" t="s">
+      <c r="Z87" s="38" t="s">
         <v>993</v>
       </c>
       <c r="AA87" s="34">
@@ -28523,7 +28525,7 @@
         <v>19936.114285714288</v>
       </c>
       <c r="CU87">
-        <v>28050.112800000003</v>
+        <v>28050.112799999999</v>
       </c>
       <c r="CV87">
         <v>19936.114285714288</v>
@@ -28599,49 +28601,49 @@
       <c r="G88" t="s">
         <v>162</v>
       </c>
-      <c r="H88" s="39" t="s">
+      <c r="H88" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="I88" s="39" t="s">
+      <c r="I88" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="J88" s="39" t="s">
+      <c r="J88" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="K88" s="39"/>
-      <c r="L88" s="39" t="s">
+      <c r="K88" s="38"/>
+      <c r="L88" s="38" t="s">
         <v>1002</v>
       </c>
-      <c r="M88" s="39" t="s">
+      <c r="M88" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="N88" s="39" t="s">
+      <c r="N88" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="O88" s="39"/>
-      <c r="P88" s="39" t="s">
+      <c r="O88" s="38"/>
+      <c r="P88" s="38" t="s">
         <v>1002</v>
       </c>
-      <c r="Q88" s="39" t="s">
+      <c r="Q88" s="38" t="s">
         <v>1003</v>
       </c>
-      <c r="R88" s="39" t="s">
+      <c r="R88" s="38" t="s">
         <v>1002</v>
       </c>
-      <c r="S88" s="39"/>
-      <c r="T88" s="39" t="s">
+      <c r="S88" s="38"/>
+      <c r="T88" s="38" t="s">
         <v>1004</v>
       </c>
-      <c r="U88" s="39"/>
-      <c r="V88" s="39"/>
-      <c r="W88" s="39"/>
-      <c r="X88" s="39" t="s">
+      <c r="U88" s="38"/>
+      <c r="V88" s="38"/>
+      <c r="W88" s="38"/>
+      <c r="X88" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="Y88" s="39" t="s">
+      <c r="Y88" s="38" t="s">
         <v>1005</v>
       </c>
-      <c r="Z88" s="39" t="s">
+      <c r="Z88" s="38" t="s">
         <v>1006</v>
       </c>
       <c r="AA88" s="34">
@@ -28794,11 +28796,11 @@
       <c r="CR88" s="35">
         <v>36027.860696517419</v>
       </c>
-      <c r="CU88" s="37">
+      <c r="CU88" s="40">
         <v>50691.200000000012</v>
       </c>
-      <c r="CV88" s="37">
-        <v>36027.860696517419</v>
+      <c r="CV88" s="40">
+        <v>36027.860696517397</v>
       </c>
       <c r="CW88" t="s">
         <v>170</v>
@@ -28871,53 +28873,53 @@
       <c r="G89" t="s">
         <v>1012</v>
       </c>
-      <c r="H89" s="39" t="s">
+      <c r="H89" s="38" t="s">
         <v>1013</v>
       </c>
-      <c r="I89" s="39" t="s">
+      <c r="I89" s="38" t="s">
         <v>1014</v>
       </c>
-      <c r="J89" s="39" t="s">
+      <c r="J89" s="38" t="s">
         <v>1015</v>
       </c>
-      <c r="K89" s="39" t="s">
+      <c r="K89" s="38" t="s">
         <v>1016</v>
       </c>
-      <c r="L89" s="39" t="s">
+      <c r="L89" s="38" t="s">
         <v>1017</v>
       </c>
-      <c r="M89" s="39" t="s">
+      <c r="M89" s="38" t="s">
         <v>1012</v>
       </c>
-      <c r="N89" s="39" t="s">
+      <c r="N89" s="38" t="s">
         <v>1013</v>
       </c>
-      <c r="O89" s="39" t="s">
+      <c r="O89" s="38" t="s">
         <v>1016</v>
       </c>
-      <c r="P89" s="39" t="s">
+      <c r="P89" s="38" t="s">
         <v>1017</v>
       </c>
-      <c r="Q89" s="39" t="s">
+      <c r="Q89" s="38" t="s">
         <v>1018</v>
       </c>
-      <c r="R89" s="39" t="s">
+      <c r="R89" s="38" t="s">
         <v>1019</v>
       </c>
-      <c r="S89" s="39"/>
-      <c r="T89" s="39" t="s">
+      <c r="S89" s="38"/>
+      <c r="T89" s="38" t="s">
         <v>1020</v>
       </c>
-      <c r="U89" s="39"/>
-      <c r="V89" s="39"/>
-      <c r="W89" s="39"/>
-      <c r="X89" s="39" t="s">
+      <c r="U89" s="38"/>
+      <c r="V89" s="38"/>
+      <c r="W89" s="38"/>
+      <c r="X89" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="Y89" s="39" t="s">
+      <c r="Y89" s="38" t="s">
         <v>1021</v>
       </c>
-      <c r="Z89" s="39" t="s">
+      <c r="Z89" s="38" t="s">
         <v>1022</v>
       </c>
       <c r="AA89" s="34">
@@ -29157,55 +29159,55 @@
       <c r="G90" t="s">
         <v>1034</v>
       </c>
-      <c r="H90" s="39" t="s">
+      <c r="H90" s="38" t="s">
         <v>1035</v>
       </c>
-      <c r="I90" s="39" t="s">
+      <c r="I90" s="38" t="s">
         <v>1036</v>
       </c>
-      <c r="J90" s="39" t="s">
+      <c r="J90" s="38" t="s">
         <v>1037</v>
       </c>
-      <c r="K90" s="39" t="s">
+      <c r="K90" s="38" t="s">
         <v>1038</v>
       </c>
-      <c r="L90" s="39" t="s">
+      <c r="L90" s="38" t="s">
         <v>1039</v>
       </c>
-      <c r="M90" s="39" t="s">
+      <c r="M90" s="38" t="s">
         <v>1034</v>
       </c>
-      <c r="N90" s="39" t="s">
+      <c r="N90" s="38" t="s">
         <v>1035</v>
       </c>
-      <c r="O90" s="39" t="s">
+      <c r="O90" s="38" t="s">
         <v>1038</v>
       </c>
-      <c r="P90" s="39" t="s">
+      <c r="P90" s="38" t="s">
         <v>1039</v>
       </c>
-      <c r="Q90" s="39" t="s">
+      <c r="Q90" s="38" t="s">
         <v>1040</v>
       </c>
-      <c r="R90" s="39" t="s">
+      <c r="R90" s="38" t="s">
         <v>1041</v>
       </c>
-      <c r="S90" s="39"/>
-      <c r="T90" s="39" t="s">
+      <c r="S90" s="38"/>
+      <c r="T90" s="38" t="s">
         <v>1042</v>
       </c>
-      <c r="U90" s="39" t="s">
+      <c r="U90" s="38" t="s">
         <v>1043</v>
       </c>
-      <c r="V90" s="39"/>
-      <c r="W90" s="39"/>
-      <c r="X90" s="39" t="s">
+      <c r="V90" s="38"/>
+      <c r="W90" s="38"/>
+      <c r="X90" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="Y90" s="39" t="s">
+      <c r="Y90" s="38" t="s">
         <v>1044</v>
       </c>
-      <c r="Z90" s="39" t="s">
+      <c r="Z90" s="38" t="s">
         <v>1045</v>
       </c>
       <c r="AA90" s="34">
@@ -29443,53 +29445,53 @@
       <c r="G91" t="s">
         <v>1057</v>
       </c>
-      <c r="H91" s="39" t="s">
+      <c r="H91" s="38" t="s">
         <v>1058</v>
       </c>
-      <c r="I91" s="39" t="s">
+      <c r="I91" s="38" t="s">
         <v>1059</v>
       </c>
-      <c r="J91" s="39" t="s">
+      <c r="J91" s="38" t="s">
         <v>1060</v>
       </c>
-      <c r="K91" s="39" t="s">
+      <c r="K91" s="38" t="s">
         <v>1061</v>
       </c>
-      <c r="L91" s="39" t="s">
+      <c r="L91" s="38" t="s">
         <v>1062</v>
       </c>
-      <c r="M91" s="39" t="s">
+      <c r="M91" s="38" t="s">
         <v>1057</v>
       </c>
-      <c r="N91" s="39" t="s">
+      <c r="N91" s="38" t="s">
         <v>1058</v>
       </c>
-      <c r="O91" s="39" t="s">
+      <c r="O91" s="38" t="s">
         <v>1061</v>
       </c>
-      <c r="P91" s="39" t="s">
+      <c r="P91" s="38" t="s">
         <v>1062</v>
       </c>
-      <c r="Q91" s="39" t="s">
+      <c r="Q91" s="38" t="s">
         <v>1063</v>
       </c>
-      <c r="R91" s="39" t="s">
+      <c r="R91" s="38" t="s">
         <v>1064</v>
       </c>
-      <c r="S91" s="39"/>
-      <c r="T91" s="39" t="s">
+      <c r="S91" s="38"/>
+      <c r="T91" s="38" t="s">
         <v>1065</v>
       </c>
-      <c r="U91" s="39"/>
-      <c r="V91" s="39"/>
-      <c r="W91" s="39"/>
-      <c r="X91" s="39" t="s">
+      <c r="U91" s="38"/>
+      <c r="V91" s="38"/>
+      <c r="W91" s="38"/>
+      <c r="X91" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="Y91" s="39" t="s">
+      <c r="Y91" s="38" t="s">
         <v>1021</v>
       </c>
-      <c r="Z91" s="39" t="s">
+      <c r="Z91" s="38" t="s">
         <v>1066</v>
       </c>
       <c r="AA91" s="34">
